--- a/6月份 销售结算V1.xlsx
+++ b/6月份 销售结算V1.xlsx
@@ -8,34 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XLS_ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD913270-4CDC-47FD-95B9-3AFF7AB5E368}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC30160-AF5B-43D9-95FB-FB3C78FC1F33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="UnnfDSDcZSZsVJGbKQ1cOpKmodePE+QB4za7IAfs5MivTuEgeKp39NgHz/yHCpL0M5r0ZtWqqFR3lBtFZhu5qg==" workbookSaltValue="/ogyHR4vV95Q43XNEOfbaw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JUN (2)" sheetId="70" r:id="rId1"/>
-    <sheet name="汇总" sheetId="49" r:id="rId2"/>
-    <sheet name="JAN 2018" sheetId="47" r:id="rId3"/>
-    <sheet name="FEB 2018" sheetId="48" r:id="rId4"/>
-    <sheet name="MAR 2018" sheetId="50" r:id="rId5"/>
-    <sheet name="APR" sheetId="60" r:id="rId6"/>
-    <sheet name="MAY" sheetId="61" r:id="rId7"/>
-    <sheet name="JUN" sheetId="64" r:id="rId8"/>
-    <sheet name="汇总结果" sheetId="68" r:id="rId9"/>
-    <sheet name="收款输入" sheetId="66" r:id="rId10"/>
-    <sheet name="订单输入" sheetId="69" r:id="rId11"/>
-    <sheet name="汇率" sheetId="56" r:id="rId12"/>
-    <sheet name="下单月成本" sheetId="59" r:id="rId13"/>
-    <sheet name="James" sheetId="57" r:id="rId14"/>
+    <sheet name="UserPermissionTable" sheetId="71" r:id="rId1"/>
+    <sheet name="JUN2" sheetId="70" r:id="rId2"/>
+    <sheet name="汇总" sheetId="49" r:id="rId3"/>
+    <sheet name="JAN 2018" sheetId="47" r:id="rId4"/>
+    <sheet name="FEB 2018" sheetId="48" r:id="rId5"/>
+    <sheet name="MAR 2018" sheetId="50" r:id="rId6"/>
+    <sheet name="APR" sheetId="60" r:id="rId7"/>
+    <sheet name="MAY" sheetId="61" r:id="rId8"/>
+    <sheet name="JUN" sheetId="64" r:id="rId9"/>
+    <sheet name="汇总结果" sheetId="68" r:id="rId10"/>
+    <sheet name="收款输入" sheetId="66" r:id="rId11"/>
+    <sheet name="订单输入" sheetId="69" r:id="rId12"/>
+    <sheet name="汇率" sheetId="56" r:id="rId13"/>
+    <sheet name="下单月成本" sheetId="59" r:id="rId14"/>
+    <sheet name="James" sheetId="57" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">APR!$B$5:$Z$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">JUN!$A$2:$Z$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'JUN (2)'!$A$2:$AE$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">MAY!$A$2:$Z$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">汇总!$B$2:$N$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">汇率!$A$1:$F$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'JAN 2018'!$A$3:$L$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">APR!$B$5:$Z$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">JUN!$A$2:$Z$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'JUN2'!$A$1:$AE$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">MAY!$A$2:$Z$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">汇总!$B$2:$N$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">汇率!$A$1:$F$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'JAN 2018'!$A$3:$L$56</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -55,7 +57,7 @@
     <author>Helina</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D4DDFD40-33F4-4F1A-B567-03D106A246A8}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D4DDFD40-33F4-4F1A-B567-03D106A246A8}">
       <text>
         <r>
           <rPr>
@@ -82,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{ED862384-BDC7-49F3-B6A4-AC20303D2EE2}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{ED862384-BDC7-49F3-B6A4-AC20303D2EE2}">
       <text>
         <r>
           <rPr>
@@ -109,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{097F4363-AA8A-4969-BC45-4AE03860572E}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{097F4363-AA8A-4969-BC45-4AE03860572E}">
       <text>
         <r>
           <rPr>
@@ -136,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{10BD7990-A085-4AF2-9CF4-F862BFC90F92}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{10BD7990-A085-4AF2-9CF4-F862BFC90F92}">
       <text>
         <r>
           <rPr>
@@ -163,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{BCD27960-8B7E-4DA0-B8D5-EDCBB42F30EE}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BCD27960-8B7E-4DA0-B8D5-EDCBB42F30EE}">
       <text>
         <r>
           <rPr>
@@ -190,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{BCC5980A-CA55-4B2A-BCBC-39833DDB3F12}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{BCC5980A-CA55-4B2A-BCBC-39833DDB3F12}">
       <text>
         <r>
           <rPr>
@@ -215,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{3C3F856D-1307-43AE-A4DB-756F35AF71E2}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{3C3F856D-1307-43AE-A4DB-756F35AF71E2}">
       <text>
         <r>
           <rPr>
@@ -245,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{63969948-17E5-4D6E-8769-8F6CE4210646}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{63969948-17E5-4D6E-8769-8F6CE4210646}">
       <text>
         <r>
           <rPr>
@@ -2208,7 +2210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="391">
   <si>
     <t>2018年销售结算汇总</t>
   </si>
@@ -5425,6 +5427,84 @@
   </si>
   <si>
     <t>Total Ocean freight</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>managementTab</t>
+  </si>
+  <si>
+    <t>buysideTab</t>
+  </si>
+  <si>
+    <t>sellsideTab</t>
+  </si>
+  <si>
+    <t>JUN (2)</t>
+  </si>
+  <si>
+    <t>汇总</t>
+  </si>
+  <si>
+    <t>JAN 2018</t>
+  </si>
+  <si>
+    <t>FEB 2018</t>
+  </si>
+  <si>
+    <t>MAR 2018</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>汇总结果</t>
+  </si>
+  <si>
+    <t>收款输入</t>
+  </si>
+  <si>
+    <t>订单输入</t>
+  </si>
+  <si>
+    <t>汇率</t>
+  </si>
+  <si>
+    <t>UserPermissionTable</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Mutable</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Writable</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>Inmutable</t>
+  </si>
+  <si>
+    <t>Invisible</t>
+  </si>
+  <si>
+    <t>ReadOnly</t>
   </si>
 </sst>
 </file>
@@ -5962,7 +6042,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6050,6 +6130,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA07A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5DEB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7759,6 +7857,120 @@
     <xf numFmtId="2" fontId="18" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="13" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="71" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="14" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="8" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="8" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="8" fillId="13" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="13" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="73" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7881,120 +8093,6 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="13" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="9" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="71" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="14" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="8" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="8" fillId="13" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="18" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="8" fillId="9" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="8" fillId="13" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="73" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -8012,27 +8110,7 @@
     <cellStyle name="常规 6" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="常规_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8756,3045 +8834,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5965545-87D0-4C63-A8F3-480A3F809E06}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AE48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F58D27A-C51D-4453-B3C1-7724372E71E8}">
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="544"/>
+    <col min="3" max="5" width="9.140625" style="545"/>
+    <col min="6" max="20" width="9.140625" style="546"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="544" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="545" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="545" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="545" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="546" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="546" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" s="546" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" s="546" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" s="546" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="546" t="s">
+        <v>375</v>
+      </c>
+      <c r="L1" s="546" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1" s="546" t="s">
+        <v>377</v>
+      </c>
+      <c r="N1" s="546" t="s">
+        <v>378</v>
+      </c>
+      <c r="O1" s="546" t="s">
+        <v>379</v>
+      </c>
+      <c r="P1" s="546" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q1" s="546" t="s">
+        <v>381</v>
+      </c>
+      <c r="R1" s="546" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="546" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="546" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="544" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="545" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="545" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="545" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="J2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="K2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="M2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="N2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="O2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="P2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="R2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="S2" s="546" t="s">
+        <v>386</v>
+      </c>
+      <c r="T2" s="546" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="544" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="545" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="545" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="545" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="I3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="J3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="K3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="L3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="M3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="N3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="O3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="P3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="R3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="S3" s="546" t="s">
+        <v>390</v>
+      </c>
+      <c r="T3" s="546" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5eKxfRF3q0x9bAayEWJXysqALT4NkxG/BPUdFQKpYvI5rWVRGFkGaGQP5l3d39anfpDdBgdf/Z/GV4UhS5TkjA==" saltValue="NqC+aUYzS+ZGSjB0f1t/Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{0781A6D0-4C0F-4084-8289-10E0C4404B7D}">
+      <formula1>"Mutable,Inmutable"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E1048576" xr:uid="{EC37E4E9-4D44-4092-A4CB-86CFFB061B92}">
+      <formula1>"Visible,Invisible"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:T1048576" xr:uid="{DB7586D9-63E0-4400-9A7D-36D3C7FA7728}">
+      <formula1>"Writable,ReadOnly,Invisible"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E02172-7BDF-40AB-8428-CD8A59BEFAD8}">
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="225" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="561" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="225" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="225" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="308" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="308" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="308" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="561" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="308" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="308" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="339" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="441" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="308" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="407" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="308" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="308" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="586" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="308" customWidth="1"/>
-    <col min="19" max="19" width="11" style="579" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="225" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="308" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="308" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="308" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="308" customWidth="1"/>
-    <col min="25" max="25" width="10" style="464" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" style="308" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="308" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" style="225" customWidth="1"/>
-    <col min="29" max="29" width="30.7109375" style="225" customWidth="1"/>
-    <col min="30" max="31" width="5.5703125" style="225" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="225"/>
+    <col min="1" max="2" width="10.42578125" style="481" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="475" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="483"/>
+    <col min="7" max="7" width="10.42578125" style="481" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="483"/>
+    <col min="9" max="9" width="17.5703125" style="483" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="483"/>
+    <col min="12" max="12" width="9.5703125" style="483" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="475"/>
+    <col min="14" max="24" width="9.140625" style="483"/>
+    <col min="25" max="25" width="9.140625" style="475"/>
+    <col min="26" max="26" width="23" style="475" customWidth="1"/>
+    <col min="27" max="28" width="9.140625" style="505"/>
+    <col min="29" max="16384" width="9.140625" style="475"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="315" customFormat="1" ht="18" customHeight="1">
-      <c r="B1" s="554"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="554"/>
-      <c r="I1" s="310" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" s="310"/>
-      <c r="K1" s="311" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="435" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="309" t="s">
-        <v>221</v>
-      </c>
-      <c r="N1" s="310"/>
-      <c r="O1" s="310" t="s">
-        <v>222</v>
-      </c>
-      <c r="P1" s="310" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q1" s="580" t="s">
-        <v>223</v>
-      </c>
-      <c r="R1" s="310" t="s">
-        <v>223</v>
-      </c>
-      <c r="S1" s="574" t="s">
-        <v>224</v>
-      </c>
-      <c r="T1" s="312" t="s">
-        <v>225</v>
-      </c>
-      <c r="U1" s="416" t="s">
-        <v>253</v>
-      </c>
-      <c r="V1" s="384" t="s">
-        <v>282</v>
-      </c>
-      <c r="W1" s="313" t="s">
-        <v>226</v>
-      </c>
-      <c r="X1" s="313" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y1" s="460" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z1" s="313" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA1" s="313" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB1" s="314"/>
-      <c r="AC1" s="309"/>
-      <c r="AD1" s="313" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE1" s="313" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="318" customFormat="1" ht="36">
-      <c r="A2" s="316" t="s">
+    <row r="1" spans="1:28" s="478" customFormat="1" ht="36">
+      <c r="A1" s="479" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="563" t="s">
+      <c r="B1" s="480" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="587" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="317" t="s">
-        <v>362</v>
-      </c>
-      <c r="E2" s="396" t="s">
+      <c r="C1" s="477" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="477" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="552" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="408" t="s">
+      <c r="F1" s="484" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="555" t="s">
-        <v>254</v>
-      </c>
-      <c r="I2" s="411" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2" s="553" t="s">
-        <v>363</v>
-      </c>
-      <c r="K2" s="409" t="s">
-        <v>256</v>
-      </c>
-      <c r="L2" s="436" t="s">
+      <c r="G1" s="488" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="482" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="483" t="str">
+        <f>IF(ROW($I1)=1,"收款金额（自动）",SUMIF(C:C,$D1,H:H))</f>
+        <v>收款金额（自动）</v>
+      </c>
+      <c r="J1" s="508" t="str">
+        <f>IF(ROW($J1)=1,"收款比例",IF(SUMIF(D:D,$C1,I:I)=0,"",$H1/SUMIF(D:D,$C1,I:I)))</f>
+        <v>收款比例</v>
+      </c>
+      <c r="K1" s="484" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="401" t="s">
+      <c r="L1" s="486" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="402" t="s">
+      <c r="M1" s="476" t="s">
         <v>302</v>
       </c>
-      <c r="O2" s="396" t="s">
+      <c r="N1" s="485" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="396" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q2" s="581" t="s">
+      <c r="O1" s="484" t="s">
         <v>229</v>
       </c>
-      <c r="R2" s="408" t="s">
-        <v>229</v>
-      </c>
-      <c r="S2" s="497" t="s">
+      <c r="P1" s="485" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="396" t="s">
+      <c r="Q1" s="485" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="410" t="s">
+      <c r="R1" s="484" t="s">
         <v>258</v>
       </c>
-      <c r="V2" s="410" t="s">
+      <c r="S1" s="484" t="s">
         <v>259</v>
       </c>
-      <c r="W2" s="410" t="s">
+      <c r="T1" s="484" t="s">
         <v>260</v>
       </c>
-      <c r="X2" s="410" t="s">
+      <c r="U1" s="484" t="s">
         <v>261</v>
       </c>
-      <c r="Y2" s="461" t="s">
+      <c r="V1" s="487" t="s">
         <v>304</v>
       </c>
-      <c r="Z2" s="410" t="s">
+      <c r="W1" s="484" t="s">
         <v>262</v>
       </c>
-      <c r="AA2" s="410" t="s">
+      <c r="X1" s="484" t="s">
         <v>263</v>
       </c>
-      <c r="AB2" s="317" t="s">
+      <c r="Y1" s="477" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="316" t="s">
+      <c r="Z1" s="476" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="317" t="s">
+      <c r="AA1" s="506" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="316" t="s">
+      <c r="AB1" s="503" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="A3" s="412"/>
-      <c r="B3" s="564"/>
-      <c r="C3" s="320" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="320"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="365">
-        <f t="shared" ref="F3:F33" si="0">SUMIF(C:C,$D3,E:E)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="350"/>
-      <c r="H3" s="556">
-        <v>43203</v>
-      </c>
-      <c r="I3" s="445">
-        <v>19878.97</v>
-      </c>
-      <c r="J3" s="365">
-        <f t="shared" ref="J3:J13" si="1">SUMIF(C:C,$D3,I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="206">
-        <f t="shared" ref="K3:K12" si="2">IF(SUMIF(D:D,$C3,J:J)=0,"",$I3/SUMIF(D:D,$C3,J:J))</f>
-        <v>0.51311598080309917</v>
-      </c>
-      <c r="L3" s="437">
-        <f>VLOOKUP(H3,汇率!$B$3:F100,5,0)</f>
-        <v>6.27</v>
-      </c>
-      <c r="M3" s="321"/>
-      <c r="N3" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O3" s="243">
-        <f t="shared" ref="O3:O30" si="3">IF($K3&lt;&gt;"",$K3*SUMIF(D:D,C3,P:P),"")</f>
-        <v>2232.5676324742844</v>
-      </c>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="582">
-        <f>I3-O3</f>
-        <v>17646.402367525716</v>
-      </c>
-      <c r="R3" s="368" t="str">
-        <f t="shared" ref="R3:R33" si="4">IF($D3="","",SUMIF(C:C,$D3,Q:Q))</f>
-        <v/>
-      </c>
-      <c r="S3" s="575"/>
-      <c r="T3" s="323"/>
-      <c r="U3" s="255" t="str">
-        <f>IF($R3="","",SUM(M3,S3,T3)/R3*1.005)</f>
-        <v/>
-      </c>
-      <c r="V3" s="254">
-        <f>IF(N3="N",L3*1.16/(1.16-0.09)-0.3,IF(N3=0,"错误",IF(I3&gt;N3,N3/I3*(L3*1.16/(1.16-0.13)-0.3)+(1-N3/I3)*(L3*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.4973831775700939</v>
-      </c>
-      <c r="W3" s="256" t="str">
-        <f>IF($D3="","",VLOOKUP(B3,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X3" s="252" t="str">
-        <f t="shared" ref="X3:X32" si="5">IF($D3="","",$R3*(V3-U3-W3)*AD3*AE3)</f>
-        <v/>
-      </c>
-      <c r="Y3" s="462"/>
-      <c r="Z3" s="326"/>
-      <c r="AA3" s="326"/>
-      <c r="AB3" s="350"/>
-      <c r="AC3" s="446" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD3" s="327"/>
-      <c r="AE3" s="327"/>
-    </row>
-    <row r="4" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B4" s="564"/>
-      <c r="C4" s="320" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="320"/>
-      <c r="E4" s="445">
-        <v>38795.4</v>
-      </c>
-      <c r="F4" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="350">
-        <f>I5</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="556">
-        <v>43258</v>
-      </c>
-      <c r="I4" s="445">
-        <v>18862.7</v>
-      </c>
-      <c r="J4" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="206">
-        <f t="shared" si="2"/>
-        <v>0.48688401919690094</v>
-      </c>
-      <c r="L4" s="437">
-        <f>VLOOKUP(H4,汇率!$B$3:F101,5,0)</f>
-        <v>6.38</v>
-      </c>
-      <c r="M4" s="321"/>
-      <c r="N4" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O4" s="243">
-        <f t="shared" si="3"/>
-        <v>2118.432367525716</v>
-      </c>
-      <c r="P4" s="243"/>
-      <c r="Q4" s="582">
-        <f>I4-O4</f>
-        <v>16744.267632474286</v>
-      </c>
-      <c r="R4" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S4" s="575"/>
-      <c r="T4" s="323"/>
-      <c r="U4" s="255" t="str">
-        <f t="shared" ref="U4:U33" si="6">IF($R4="","",SUM(M4,S4,T4)/R4*1.005)</f>
-        <v/>
-      </c>
-      <c r="V4" s="254">
-        <f>IF(N4="N",L4*1.16/(1.16-0.09)-0.3,IF(N4=0,"错误",IF(I4&gt;N4,N4/I4*(L4*1.16/(1.16-0.13)-0.3)+(1-N4/I4)*(L4*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.6166355140186921</v>
-      </c>
-      <c r="W4" s="256" t="str">
-        <f>IF($D4="","",VLOOKUP(B4,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X4" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y4" s="462"/>
-      <c r="Z4" s="326"/>
-      <c r="AA4" s="326"/>
-      <c r="AB4" s="350"/>
-      <c r="AC4" s="446" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD4" s="327"/>
-      <c r="AE4" s="327"/>
-    </row>
-    <row r="5" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A5" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B5" s="565">
-        <v>43191</v>
-      </c>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" s="365"/>
-      <c r="F5" s="365">
-        <f t="shared" si="0"/>
-        <v>38795.4</v>
-      </c>
-      <c r="G5" s="365">
-        <f>SUBTOTAL(9,G3:G4)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="557"/>
-      <c r="I5" s="365"/>
-      <c r="J5" s="365">
-        <f t="shared" si="1"/>
-        <v>38741.67</v>
-      </c>
-      <c r="K5" s="206" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L5" s="438"/>
-      <c r="M5" s="365">
-        <v>164119.04000000001</v>
-      </c>
-      <c r="N5" s="404"/>
-      <c r="O5" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P5" s="368">
-        <v>4351</v>
-      </c>
-      <c r="Q5" s="583"/>
-      <c r="R5" s="368">
-        <f t="shared" si="4"/>
-        <v>34390.67</v>
-      </c>
-      <c r="S5" s="576">
-        <v>5670</v>
-      </c>
-      <c r="T5" s="369"/>
-      <c r="U5" s="255">
-        <f>IF($R5="","",SUM(M5,S5,T5)/R5*1.005)</f>
-        <v>4.9617522775799365</v>
-      </c>
-      <c r="V5" s="255">
-        <f>V3*K3+V4*K4</f>
-        <v>6.5554452344388086</v>
-      </c>
-      <c r="W5" s="256">
-        <f>IF($D5="","",VLOOKUP(B5,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X5" s="252">
-        <f t="shared" si="5"/>
-        <v>703.02521601644264</v>
-      </c>
-      <c r="Y5" s="252"/>
-      <c r="Z5" s="252">
-        <f>X5*0.7+Y5</f>
-        <v>492.11765121150984</v>
-      </c>
-      <c r="AA5" s="252">
-        <f>IF(SUMIF(AB2:AB12,AB5,Z2:Z12)&gt;5000,Z5*0.875,Z5)-0.01</f>
-        <v>492.10765121150985</v>
-      </c>
-      <c r="AB5" s="365" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC5" s="365" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD5" s="370">
-        <v>0.1</v>
-      </c>
-      <c r="AE5" s="370">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B6" s="564"/>
-      <c r="C6" s="320" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" s="320"/>
-      <c r="E6" s="350"/>
-      <c r="F6" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="350"/>
-      <c r="H6" s="556">
-        <v>43208</v>
-      </c>
-      <c r="I6" s="445">
-        <v>10079.1</v>
-      </c>
-      <c r="J6" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="206">
-        <f t="shared" si="2"/>
-        <v>0.30044713387188127</v>
-      </c>
-      <c r="L6" s="437">
-        <f>VLOOKUP(H6,汇率!$B$3:F103,5,0)</f>
-        <v>6.27</v>
-      </c>
-      <c r="M6" s="321"/>
-      <c r="N6" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O6" s="243">
-        <f t="shared" si="3"/>
-        <v>819.61978120249205</v>
-      </c>
-      <c r="P6" s="243"/>
-      <c r="Q6" s="582">
-        <f>I6-O6</f>
-        <v>9259.4802187975074</v>
-      </c>
-      <c r="R6" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S6" s="575"/>
-      <c r="T6" s="323"/>
-      <c r="U6" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V6" s="254">
-        <f>IF(N6="N",L6*1.16/(1.16-0.09)-0.3,IF(N6=0,"错误",IF(I6&gt;N6,N6/I6*(L6*1.16/(1.16-0.13)-0.3)+(1-N6/I6)*(L6*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.4973831775700939</v>
-      </c>
-      <c r="W6" s="256" t="str">
-        <f>IF($D6="","",VLOOKUP(B6,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X6" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y6" s="462"/>
-      <c r="Z6" s="326"/>
-      <c r="AA6" s="326"/>
-      <c r="AB6" s="350"/>
-      <c r="AC6" s="350" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD6" s="327"/>
-      <c r="AE6" s="327"/>
-    </row>
-    <row r="7" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B7" s="564"/>
-      <c r="C7" s="320" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7" s="320"/>
-      <c r="E7" s="445">
-        <v>33597</v>
-      </c>
-      <c r="F7" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="350">
-        <f>I8</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="556">
-        <v>43259</v>
-      </c>
-      <c r="I7" s="445">
-        <v>23467.9</v>
-      </c>
-      <c r="J7" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="206">
-        <f t="shared" si="2"/>
-        <v>0.69955286612811884</v>
-      </c>
-      <c r="L7" s="437">
-        <f>VLOOKUP(H7,汇率!$B$3:F104,5,0)</f>
-        <v>6.39</v>
-      </c>
-      <c r="M7" s="321"/>
-      <c r="N7" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O7" s="243">
-        <f t="shared" si="3"/>
-        <v>1908.3802187975082</v>
-      </c>
-      <c r="P7" s="243"/>
-      <c r="Q7" s="582">
-        <f>I7-O7</f>
-        <v>21559.519781202493</v>
-      </c>
-      <c r="R7" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S7" s="575"/>
-      <c r="T7" s="323"/>
-      <c r="U7" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V7" s="254">
-        <f>IF(N7="N",L7*1.16/(1.16-0.09)-0.3,IF(N7=0,"错误",IF(I7&gt;N7,N7/I7*(L7*1.16/(1.16-0.13)-0.3)+(1-N7/I7)*(L7*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.6274766355140189</v>
-      </c>
-      <c r="W7" s="256" t="str">
-        <f>IF($D7="","",VLOOKUP(B7,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X7" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y7" s="462"/>
-      <c r="Z7" s="326"/>
-      <c r="AA7" s="326"/>
-      <c r="AB7" s="350"/>
-      <c r="AC7" s="350" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD7" s="327"/>
-      <c r="AE7" s="327"/>
-    </row>
-    <row r="8" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A8" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B8" s="565">
-        <v>43191</v>
-      </c>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365">
-        <f>SUMIF(C:C,$D8,E:E)</f>
-        <v>33597</v>
-      </c>
-      <c r="G8" s="365">
-        <f>SUBTOTAL(9,G6:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="557"/>
-      <c r="I8" s="365"/>
-      <c r="J8" s="365">
-        <f t="shared" si="1"/>
-        <v>33547</v>
-      </c>
-      <c r="K8" s="206" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L8" s="438"/>
-      <c r="M8" s="365">
-        <v>151667.70000000001</v>
-      </c>
-      <c r="N8" s="404"/>
-      <c r="O8" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P8" s="368">
-        <v>2728</v>
-      </c>
-      <c r="Q8" s="583"/>
-      <c r="R8" s="368">
-        <f t="shared" si="4"/>
-        <v>30819</v>
-      </c>
-      <c r="S8" s="576">
-        <v>9355</v>
-      </c>
-      <c r="T8" s="369"/>
-      <c r="U8" s="255">
-        <f t="shared" si="6"/>
-        <v>5.2509105908692693</v>
-      </c>
-      <c r="V8" s="255">
-        <f>V6*K6+V7*K7</f>
-        <v>6.5883904289392845</v>
-      </c>
-      <c r="W8" s="256">
-        <f>IF($D8="","",VLOOKUP(B8,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X8" s="252">
-        <f t="shared" si="5"/>
-        <v>1730.42471294798</v>
-      </c>
-      <c r="Y8" s="252"/>
-      <c r="Z8" s="252">
-        <f>X8*0.7+Y8</f>
-        <v>1211.2972990635858</v>
-      </c>
-      <c r="AA8" s="252">
-        <f>IF(SUMIF(AB6:AB23,AB8,Z6:Z23)&gt;5000,Z8*0.875,Z8)</f>
-        <v>1059.8851366806375</v>
-      </c>
-      <c r="AB8" s="365" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC8" s="365" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD8" s="370">
-        <v>0.4</v>
-      </c>
-      <c r="AE8" s="370">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B9" s="564"/>
-      <c r="C9" s="472" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="550"/>
-      <c r="E9" s="466"/>
-      <c r="F9" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="350"/>
-      <c r="H9" s="558">
-        <v>43209</v>
-      </c>
-      <c r="I9" s="465">
-        <v>5419.55</v>
-      </c>
-      <c r="J9" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="206">
-        <f t="shared" si="2"/>
-        <v>9.9296530104279176E-2</v>
-      </c>
-      <c r="L9" s="437">
-        <f>VLOOKUP(H9,汇率!$B$3:F106,5,0)</f>
-        <v>6.26</v>
-      </c>
-      <c r="M9" s="321"/>
-      <c r="N9" s="468" t="s">
-        <v>300</v>
-      </c>
-      <c r="O9" s="243">
-        <f t="shared" si="3"/>
-        <v>495.48968522035307</v>
-      </c>
-      <c r="P9" s="243"/>
-      <c r="Q9" s="582">
-        <f>$I9-$O9</f>
-        <v>4924.0603147796473</v>
-      </c>
-      <c r="R9" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S9" s="575"/>
-      <c r="T9" s="323"/>
-      <c r="U9" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V9" s="254">
-        <f>IF(N9="N",L9*1.16/(1.16-0.09)-0.3,IF(N9=0,"错误",IF(I9&gt;N9,N9/I9*(L9*1.16/(1.16-0.13)-0.3)+(1-N9/I9)*(L9*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.4865420560747671</v>
-      </c>
-      <c r="W9" s="256" t="str">
-        <f>IF($D9="","",VLOOKUP(B9,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X9" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y9" s="462"/>
-      <c r="Z9" s="326"/>
-      <c r="AA9" s="326"/>
-      <c r="AB9" s="350"/>
-      <c r="AC9" s="466" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD9" s="327"/>
-      <c r="AE9" s="327"/>
-    </row>
-    <row r="10" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B10" s="564"/>
-      <c r="C10" s="472" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="550"/>
-      <c r="E10" s="466"/>
-      <c r="F10" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="350"/>
-      <c r="H10" s="558">
-        <v>43237</v>
-      </c>
-      <c r="I10" s="465">
-        <v>13079.5</v>
-      </c>
-      <c r="J10" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="206">
-        <f t="shared" si="2"/>
-        <v>0.23964147678292838</v>
-      </c>
-      <c r="L10" s="437">
-        <f>VLOOKUP(H10,汇率!$B$3:F107,5,0)</f>
-        <v>6.35</v>
-      </c>
-      <c r="M10" s="321"/>
-      <c r="N10" s="468" t="s">
-        <v>300</v>
-      </c>
-      <c r="O10" s="243">
-        <f t="shared" si="3"/>
-        <v>1195.8109691468126</v>
-      </c>
-      <c r="P10" s="243"/>
-      <c r="Q10" s="582">
-        <f t="shared" ref="Q10:Q14" si="7">$I10-$O10</f>
-        <v>11883.689030853187</v>
-      </c>
-      <c r="R10" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S10" s="575"/>
-      <c r="T10" s="323"/>
-      <c r="U10" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V10" s="254">
-        <f>IF(N10="N",L10*1.16/(1.16-0.09)-0.3,IF(N10=0,"错误",IF(I10&gt;N10,N10/I10*(L10*1.16/(1.16-0.13)-0.3)+(1-N10/I10)*(L10*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.58411214953271</v>
-      </c>
-      <c r="W10" s="256" t="str">
-        <f>IF($D10="","",VLOOKUP(B10,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X10" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y10" s="462"/>
-      <c r="Z10" s="326"/>
-      <c r="AA10" s="326"/>
-      <c r="AB10" s="350"/>
-      <c r="AC10" s="466" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD10" s="327"/>
-      <c r="AE10" s="327"/>
-    </row>
-    <row r="11" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B11" s="564"/>
-      <c r="C11" s="472" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="550"/>
-      <c r="E11" s="466"/>
-      <c r="F11" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="350"/>
-      <c r="H11" s="558">
-        <v>43250</v>
-      </c>
-      <c r="I11" s="465">
-        <v>14336.82</v>
-      </c>
-      <c r="J11" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="206">
-        <f t="shared" si="2"/>
-        <v>0.26267798594525965</v>
-      </c>
-      <c r="L11" s="437">
-        <f>VLOOKUP(H11,汇率!$B$3:F108,5,0)</f>
-        <v>6.41</v>
-      </c>
-      <c r="M11" s="321"/>
-      <c r="N11" s="468" t="s">
-        <v>300</v>
-      </c>
-      <c r="O11" s="243">
-        <f t="shared" si="3"/>
-        <v>1310.7631498668457</v>
-      </c>
-      <c r="P11" s="243"/>
-      <c r="Q11" s="582">
-        <f t="shared" si="7"/>
-        <v>13026.056850133155</v>
-      </c>
-      <c r="R11" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S11" s="575"/>
-      <c r="T11" s="323"/>
-      <c r="U11" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V11" s="254">
-        <f>IF(N11="N",L11*1.16/(1.16-0.09)-0.3,IF(N11=0,"错误",IF(I11&gt;N11,N11/I11*(L11*1.16/(1.16-0.13)-0.3)+(1-N11/I11)*(L11*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.6491588785046742</v>
-      </c>
-      <c r="W11" s="256" t="str">
-        <f>IF($D11="","",VLOOKUP(B11,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X11" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y11" s="462"/>
-      <c r="Z11" s="326"/>
-      <c r="AA11" s="326"/>
-      <c r="AB11" s="350"/>
-      <c r="AC11" s="466" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD11" s="327"/>
-      <c r="AE11" s="327"/>
-    </row>
-    <row r="12" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B12" s="564"/>
-      <c r="C12" s="472" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="550"/>
-      <c r="E12" s="466"/>
-      <c r="F12" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="350"/>
-      <c r="H12" s="558">
-        <v>43272</v>
-      </c>
-      <c r="I12" s="465">
-        <v>10456.6</v>
-      </c>
-      <c r="J12" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="206">
-        <f t="shared" si="2"/>
-        <v>0.19158492802694055</v>
-      </c>
-      <c r="L12" s="437">
-        <f>VLOOKUP(H12,汇率!$B$3:F109,5,0)</f>
-        <v>6.48</v>
-      </c>
-      <c r="M12" s="321"/>
-      <c r="N12" s="468" t="s">
-        <v>300</v>
-      </c>
-      <c r="O12" s="243">
-        <f t="shared" si="3"/>
-        <v>956.0087908544333</v>
-      </c>
-      <c r="P12" s="243"/>
-      <c r="Q12" s="582">
-        <f t="shared" si="7"/>
-        <v>9500.5912091455666</v>
-      </c>
-      <c r="R12" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S12" s="575"/>
-      <c r="T12" s="323"/>
-      <c r="U12" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V12" s="254">
-        <f>IF(N12="N",L12*1.16/(1.16-0.09)-0.3,IF(N12=0,"错误",IF(I12&gt;N12,N12/I12*(L12*1.16/(1.16-0.13)-0.3)+(1-N12/I12)*(L12*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.7250467289719635</v>
-      </c>
-      <c r="W12" s="256" t="str">
-        <f>IF($D12="","",VLOOKUP(B12,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X12" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y12" s="462"/>
-      <c r="Z12" s="326"/>
-      <c r="AA12" s="326"/>
-      <c r="AB12" s="350"/>
-      <c r="AC12" s="466" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD12" s="327"/>
-      <c r="AE12" s="327"/>
-    </row>
-    <row r="13" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B13" s="564"/>
-      <c r="C13" s="472" t="s">
-        <v>349</v>
-      </c>
-      <c r="D13" s="550"/>
-      <c r="E13" s="465">
-        <v>54651.45</v>
-      </c>
-      <c r="F13" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="350">
-        <f>I14</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="558">
-        <v>43279</v>
-      </c>
-      <c r="I13" s="465">
-        <v>11286.98</v>
-      </c>
-      <c r="J13" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="206">
-        <f t="shared" ref="K10:K33" si="8">IF(SUMIF(D:D,$C13,J:J)=0,"",$I13/SUMIF(D:D,$C13,J:J))</f>
-        <v>0.20679907914059228</v>
-      </c>
-      <c r="L13" s="437">
-        <f>VLOOKUP(H13,汇率!$B$3:F110,5,0)</f>
-        <v>6.61</v>
-      </c>
-      <c r="M13" s="321"/>
-      <c r="N13" s="468" t="s">
-        <v>300</v>
-      </c>
-      <c r="O13" s="243">
-        <f t="shared" si="3"/>
-        <v>1031.9274049115554</v>
-      </c>
-      <c r="P13" s="243"/>
-      <c r="Q13" s="582">
-        <f t="shared" si="7"/>
-        <v>10255.052595088444</v>
-      </c>
-      <c r="R13" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S13" s="575"/>
-      <c r="T13" s="323"/>
-      <c r="U13" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V13" s="254">
-        <f>IF(N13="N",L13*1.16/(1.16-0.09)-0.3,IF(N13=0,"错误",IF(I13&gt;N13,N13/I13*(L13*1.16/(1.16-0.13)-0.3)+(1-N13/I13)*(L13*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.8659813084112162</v>
-      </c>
-      <c r="W13" s="256" t="str">
-        <f>IF($D13="","",VLOOKUP(B13,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X13" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y13" s="462"/>
-      <c r="Z13" s="326"/>
-      <c r="AA13" s="326"/>
-      <c r="AB13" s="350"/>
-      <c r="AC13" s="466" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD13" s="327"/>
-      <c r="AE13" s="327"/>
-    </row>
-    <row r="14" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A14" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B14" s="566">
-        <v>43191</v>
-      </c>
-      <c r="C14" s="551"/>
-      <c r="D14" s="473" t="s">
-        <v>349</v>
-      </c>
-      <c r="E14" s="354"/>
-      <c r="F14" s="365">
-        <f t="shared" si="0"/>
-        <v>54651.45</v>
-      </c>
-      <c r="G14" s="365">
-        <f>SUBTOTAL(9,G9:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="557"/>
-      <c r="I14" s="365"/>
-      <c r="J14" s="365">
-        <f>SUMIF(C:C,$D14,I:I)</f>
-        <v>54579.45</v>
-      </c>
-      <c r="K14" s="206" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L14" s="438"/>
-      <c r="M14" s="466">
-        <v>262942.3</v>
-      </c>
-      <c r="N14" s="404"/>
-      <c r="O14" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P14" s="471">
-        <v>4990</v>
-      </c>
-      <c r="Q14" s="582"/>
-      <c r="R14" s="368">
-        <f t="shared" si="4"/>
-        <v>49589.45</v>
-      </c>
-      <c r="S14" s="498">
-        <v>10530</v>
-      </c>
-      <c r="T14" s="369"/>
-      <c r="U14" s="255">
-        <f t="shared" si="6"/>
-        <v>5.5423010640368053</v>
-      </c>
-      <c r="V14" s="255">
-        <f>V9*K9+V10*K10+V11*K11+V12*K12+V13*K13</f>
-        <v>6.6768013453216541</v>
-      </c>
-      <c r="W14" s="256">
-        <f>IF($D14="","",VLOOKUP(B14,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X14" s="252">
-        <f t="shared" si="5"/>
-        <v>444.44579434402362</v>
-      </c>
-      <c r="Y14" s="562">
-        <f>下单月成本!O8</f>
-        <v>2287.4179175449608</v>
-      </c>
-      <c r="Z14" s="252">
-        <f>X14*0.7+Y14</f>
-        <v>2598.5299735857775</v>
-      </c>
-      <c r="AA14" s="252">
-        <f>IF(SUMIF(AB9:AB25,AB14,Z9:Z25)&gt;5000,Z14*0.875,Z14)</f>
-        <v>2273.7137268875554</v>
-      </c>
-      <c r="AB14" s="466" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC14" s="466" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD14" s="469">
-        <v>0.1</v>
-      </c>
-      <c r="AE14" s="469">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B15" s="564"/>
-      <c r="C15" s="320" t="s">
-        <v>350</v>
-      </c>
-      <c r="D15" s="320"/>
-      <c r="E15" s="350"/>
-      <c r="F15" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="350"/>
-      <c r="H15" s="556">
-        <v>43218</v>
-      </c>
-      <c r="I15" s="445">
-        <v>21055</v>
-      </c>
-      <c r="J15" s="365">
-        <f t="shared" ref="J15:J33" si="9">SUMIF(C:C,$D15,I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="206">
-        <f t="shared" si="8"/>
-        <v>0.50238606537819142</v>
-      </c>
-      <c r="L15" s="437">
-        <f>VLOOKUP(H15,汇率!$B$3:F112,5,0)</f>
-        <v>6.32</v>
-      </c>
-      <c r="M15" s="321"/>
-      <c r="N15" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O15" s="243">
-        <f t="shared" si="3"/>
-        <v>2431.0461703650681</v>
-      </c>
-      <c r="P15" s="243"/>
-      <c r="Q15" s="582">
-        <f>I15-O15</f>
-        <v>18623.953829634931</v>
-      </c>
-      <c r="R15" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S15" s="575"/>
-      <c r="T15" s="323"/>
-      <c r="U15" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V15" s="254">
-        <f>IF(N15="N",L15*1.16/(1.16-0.09)-0.3,IF(N15=0,"错误",IF(I15&gt;N15,N15/I15*(L15*1.16/(1.16-0.13)-0.3)+(1-N15/I15)*(L15*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.5515887850467305</v>
-      </c>
-      <c r="W15" s="256" t="str">
-        <f>IF($D15="","",VLOOKUP(B15,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X15" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y15" s="462"/>
-      <c r="Z15" s="326"/>
-      <c r="AA15" s="326"/>
-      <c r="AB15" s="350"/>
-      <c r="AC15" s="350" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD15" s="327"/>
-      <c r="AE15" s="327"/>
-    </row>
-    <row r="16" spans="1:31" s="328" customFormat="1" ht="12.6" customHeight="1" outlineLevel="2">
-      <c r="B16" s="564"/>
-      <c r="C16" s="320" t="s">
-        <v>350</v>
-      </c>
-      <c r="D16" s="320"/>
-      <c r="E16" s="445">
-        <v>41930</v>
-      </c>
-      <c r="F16" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="350">
-        <f>I17</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="556">
-        <v>43273</v>
-      </c>
-      <c r="I16" s="445">
-        <v>20855</v>
-      </c>
-      <c r="J16" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="206">
-        <f t="shared" si="8"/>
-        <v>0.49761393462180864</v>
-      </c>
-      <c r="L16" s="437">
-        <f>VLOOKUP(H16,汇率!$B$3:F113,5,0)</f>
-        <v>6.48</v>
-      </c>
-      <c r="M16" s="321"/>
-      <c r="N16" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O16" s="243">
-        <f t="shared" si="3"/>
-        <v>2407.9538296349319</v>
-      </c>
-      <c r="P16" s="243"/>
-      <c r="Q16" s="582">
-        <f>I16-O16</f>
-        <v>18447.046170365069</v>
-      </c>
-      <c r="R16" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S16" s="575"/>
-      <c r="T16" s="323"/>
-      <c r="U16" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V16" s="254">
-        <f>IF(N16="N",L16*1.16/(1.16-0.09)-0.3,IF(N16=0,"错误",IF(I16&gt;N16,N16/I16*(L16*1.16/(1.16-0.13)-0.3)+(1-N16/I16)*(L16*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.7250467289719635</v>
-      </c>
-      <c r="W16" s="256" t="str">
-        <f>IF($D16="","",VLOOKUP(B16,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X16" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y16" s="462"/>
-      <c r="Z16" s="326"/>
-      <c r="AA16" s="326"/>
-      <c r="AB16" s="350"/>
-      <c r="AC16" s="350" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD16" s="327"/>
-      <c r="AE16" s="327"/>
-    </row>
-    <row r="17" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A17" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B17" s="565">
-        <v>43191</v>
-      </c>
-      <c r="C17" s="364"/>
-      <c r="D17" s="364" t="s">
-        <v>350</v>
-      </c>
-      <c r="E17" s="365"/>
-      <c r="F17" s="365">
-        <f t="shared" si="0"/>
-        <v>41930</v>
-      </c>
-      <c r="G17" s="365">
-        <f>SUBTOTAL(9,G15:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="557"/>
-      <c r="I17" s="365"/>
-      <c r="J17" s="365">
-        <f t="shared" si="9"/>
-        <v>41910</v>
-      </c>
-      <c r="K17" s="206" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L17" s="438"/>
-      <c r="M17" s="365">
-        <v>195317.95</v>
-      </c>
-      <c r="N17" s="404"/>
-      <c r="O17" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P17" s="368">
-        <v>4839</v>
-      </c>
-      <c r="Q17" s="583"/>
-      <c r="R17" s="368">
-        <f t="shared" si="4"/>
-        <v>37071</v>
-      </c>
-      <c r="S17" s="576">
-        <v>5730</v>
-      </c>
-      <c r="T17" s="369"/>
-      <c r="U17" s="255">
-        <f t="shared" si="6"/>
-        <v>5.4504380715383993</v>
-      </c>
-      <c r="V17" s="255">
-        <f>V15*K15+V16*K16</f>
-        <v>6.637903875014775</v>
-      </c>
-      <c r="W17" s="256">
-        <f>IF($D17="","",VLOOKUP(B17,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X17" s="252">
-        <f t="shared" si="5"/>
-        <v>3813.3622001681802</v>
-      </c>
-      <c r="Y17" s="252">
-        <v>-2000</v>
-      </c>
-      <c r="Z17" s="252">
-        <f>SUM(X17:Y17)*0.7</f>
-        <v>1269.353540117726</v>
-      </c>
-      <c r="AA17" s="252">
-        <f>IF(SUMIF(AB15:AB36,AB17,Z15:Z36)&gt;5000,Z17*0.875,Z17)</f>
-        <v>1110.6843476030103</v>
-      </c>
-      <c r="AB17" s="365" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC17" s="365" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD17" s="370">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="370">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B18" s="564"/>
-      <c r="C18" s="320" t="s">
-        <v>351</v>
-      </c>
-      <c r="D18" s="320"/>
-      <c r="E18" s="350"/>
-      <c r="F18" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="350"/>
-      <c r="H18" s="556">
-        <v>43242</v>
-      </c>
-      <c r="I18" s="445">
-        <v>10846.5</v>
-      </c>
-      <c r="J18" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="206">
-        <f t="shared" si="8"/>
-        <v>0.24536817102137767</v>
-      </c>
-      <c r="L18" s="437">
-        <f>VLOOKUP(H18,汇率!$B$3:F115,5,0)</f>
-        <v>6.36</v>
-      </c>
-      <c r="M18" s="321"/>
-      <c r="N18" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O18" s="243">
-        <f t="shared" si="3"/>
-        <v>687.03087885985747</v>
-      </c>
-      <c r="P18" s="243"/>
-      <c r="Q18" s="582">
-        <f>I18-O18</f>
-        <v>10159.469121140142</v>
-      </c>
-      <c r="R18" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S18" s="575"/>
-      <c r="T18" s="323"/>
-      <c r="U18" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V18" s="254">
-        <f>IF(N18="N",L18*1.16/(1.16-0.09)-0.3,IF(N18=0,"错误",IF(I18&gt;N18,N18/I18*(L18*1.16/(1.16-0.13)-0.3)+(1-N18/I18)*(L18*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.5949532710280385</v>
-      </c>
-      <c r="W18" s="256" t="str">
-        <f>IF($D18="","",VLOOKUP(B18,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X18" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y18" s="462"/>
-      <c r="Z18" s="326"/>
-      <c r="AA18" s="326"/>
-      <c r="AB18" s="350"/>
-      <c r="AC18" s="350" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD18" s="327"/>
-      <c r="AE18" s="327"/>
-    </row>
-    <row r="19" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B19" s="564"/>
-      <c r="C19" s="320" t="s">
-        <v>351</v>
-      </c>
-      <c r="D19" s="320"/>
-      <c r="E19" s="445">
-        <v>44205</v>
-      </c>
-      <c r="F19" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="350">
-        <f>I20</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="556">
-        <v>43280</v>
-      </c>
-      <c r="I19" s="445">
-        <v>33358.5</v>
-      </c>
-      <c r="J19" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="206">
-        <f t="shared" si="8"/>
-        <v>0.75463182897862235</v>
-      </c>
-      <c r="L19" s="437">
-        <f>VLOOKUP(H19,汇率!$B$3:F116,5,0)</f>
-        <v>6.61</v>
-      </c>
-      <c r="M19" s="321"/>
-      <c r="N19" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O19" s="243">
-        <f t="shared" si="3"/>
-        <v>2112.9691211401428</v>
-      </c>
-      <c r="P19" s="243"/>
-      <c r="Q19" s="582">
-        <f>I19-O19</f>
-        <v>31245.530878859856</v>
-      </c>
-      <c r="R19" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S19" s="575"/>
-      <c r="T19" s="323"/>
-      <c r="U19" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V19" s="254">
-        <f>IF(N19="N",L19*1.16/(1.16-0.09)-0.3,IF(N19=0,"错误",IF(I19&gt;N19,N19/I19*(L19*1.16/(1.16-0.13)-0.3)+(1-N19/I19)*(L19*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.8659813084112162</v>
-      </c>
-      <c r="W19" s="256" t="str">
-        <f>IF($D19="","",VLOOKUP(B19,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X19" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y19" s="462"/>
-      <c r="Z19" s="326"/>
-      <c r="AA19" s="326"/>
-      <c r="AB19" s="350"/>
-      <c r="AC19" s="350" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD19" s="327"/>
-      <c r="AE19" s="327"/>
-    </row>
-    <row r="20" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A20" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B20" s="565">
-        <v>43221</v>
-      </c>
-      <c r="C20" s="364"/>
-      <c r="D20" s="364" t="s">
-        <v>351</v>
-      </c>
-      <c r="E20" s="365"/>
-      <c r="F20" s="365">
-        <f t="shared" si="0"/>
-        <v>44205</v>
-      </c>
-      <c r="G20" s="365">
-        <f>SUBTOTAL(9,G18:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="557"/>
-      <c r="I20" s="365"/>
-      <c r="J20" s="365">
-        <f t="shared" si="9"/>
-        <v>44205</v>
-      </c>
-      <c r="K20" s="206" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L20" s="438"/>
-      <c r="M20" s="365">
-        <v>185505</v>
-      </c>
-      <c r="N20" s="404"/>
-      <c r="O20" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P20" s="368">
-        <v>2800</v>
-      </c>
-      <c r="Q20" s="583"/>
-      <c r="R20" s="368">
-        <f t="shared" si="4"/>
-        <v>41405</v>
-      </c>
-      <c r="S20" s="576">
-        <v>5060</v>
-      </c>
-      <c r="T20" s="369"/>
-      <c r="U20" s="255">
-        <f t="shared" si="6"/>
-        <v>4.6254757879483153</v>
-      </c>
-      <c r="V20" s="255">
-        <f>V18*K18+V19*K19</f>
-        <v>6.799479654582993</v>
-      </c>
-      <c r="W20" s="256">
-        <f>IF($D20="","",VLOOKUP(B20,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="X20" s="252">
-        <f t="shared" si="5"/>
-        <v>1433.6521274502206</v>
-      </c>
-      <c r="Y20" s="252">
-        <v>10000</v>
-      </c>
-      <c r="Z20" s="252">
-        <f>X20*0.7+Y20</f>
-        <v>11003.556489215154</v>
-      </c>
-      <c r="AA20" s="252">
-        <f>IF(SUMIF(AB16:AB39,AB20,Z16:Z39)&gt;5000,Z20*0.875,Z20)</f>
-        <v>9628.1119280632593</v>
-      </c>
-      <c r="AB20" s="365" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC20" s="365" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD20" s="370">
-        <v>0.1</v>
-      </c>
-      <c r="AE20" s="370">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B21" s="564"/>
-      <c r="C21" s="320" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="320"/>
-      <c r="E21" s="445">
-        <v>22345</v>
-      </c>
-      <c r="F21" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="350">
-        <f>I22</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="556">
-        <v>43257</v>
-      </c>
-      <c r="I21" s="445">
-        <v>22320</v>
-      </c>
-      <c r="J21" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="206">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="437">
-        <f>VLOOKUP(H21,汇率!$B$3:F118,5,0)</f>
-        <v>6.39</v>
-      </c>
-      <c r="M21" s="321"/>
-      <c r="N21" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O21" s="243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="243"/>
-      <c r="Q21" s="582">
-        <f>I21-O21</f>
-        <v>22320</v>
-      </c>
-      <c r="R21" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S21" s="575"/>
-      <c r="T21" s="323"/>
-      <c r="U21" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V21" s="254">
-        <f>IF(N21="N",L21*1.16/(1.16-0.09)-0.3,IF(N21=0,"错误",IF(I21&gt;N21,N21/I21*(L21*1.16/(1.16-0.13)-0.3)+(1-N21/I21)*(L21*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.6274766355140189</v>
-      </c>
-      <c r="W21" s="256" t="str">
-        <f>IF($D21="","",VLOOKUP(B21,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X21" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y21" s="462"/>
-      <c r="Z21" s="326"/>
-      <c r="AA21" s="326"/>
-      <c r="AB21" s="350"/>
-      <c r="AC21" s="350" t="s">
-        <v>337</v>
-      </c>
-      <c r="AD21" s="327"/>
-      <c r="AE21" s="327"/>
-    </row>
-    <row r="22" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A22" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B22" s="565">
-        <v>43252</v>
-      </c>
-      <c r="C22" s="364"/>
-      <c r="D22" s="364" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="365"/>
-      <c r="F22" s="365">
-        <f t="shared" si="0"/>
-        <v>22345</v>
-      </c>
-      <c r="G22" s="365">
-        <f>SUBTOTAL(9,G21:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="557"/>
-      <c r="I22" s="365"/>
-      <c r="J22" s="365">
-        <f t="shared" si="9"/>
-        <v>22320</v>
-      </c>
-      <c r="K22" s="206" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L22" s="438"/>
-      <c r="M22" s="365" t="s">
-        <v>357</v>
-      </c>
-      <c r="N22" s="404"/>
-      <c r="O22" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P22" s="368">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="583"/>
-      <c r="R22" s="368">
-        <f t="shared" si="4"/>
-        <v>22320</v>
-      </c>
-      <c r="S22" s="576">
-        <v>3165</v>
-      </c>
-      <c r="T22" s="369"/>
-      <c r="U22" s="255">
-        <f t="shared" si="6"/>
-        <v>0.1425100806451613</v>
-      </c>
-      <c r="V22" s="255">
-        <f>V21*K21</f>
-        <v>6.6274766355140189</v>
-      </c>
-      <c r="W22" s="256">
-        <f>IF($D22="","",VLOOKUP(B22,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="X22" s="252">
-        <f t="shared" si="5"/>
-        <v>3353.561337616823</v>
-      </c>
-      <c r="Y22" s="252"/>
-      <c r="Z22" s="252">
-        <f>X22*0.7+Y22</f>
-        <v>2347.492936331776</v>
-      </c>
-      <c r="AA22" s="252">
-        <f>IF(SUMIF(AB19:AB40,AB22,Z19:Z40)&gt;5000,Z22*0.875,Z22)-0.04</f>
-        <v>2054.0163192903042</v>
-      </c>
-      <c r="AB22" s="365" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC22" s="365" t="s">
-        <v>337</v>
-      </c>
-      <c r="AD22" s="370">
-        <v>0.1</v>
-      </c>
-      <c r="AE22" s="370">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B23" s="564"/>
-      <c r="C23" s="320" t="s">
-        <v>353</v>
-      </c>
-      <c r="D23" s="320"/>
-      <c r="E23" s="350"/>
-      <c r="F23" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="350"/>
-      <c r="H23" s="556">
-        <v>43188</v>
-      </c>
-      <c r="I23" s="445">
-        <v>19865.5</v>
-      </c>
-      <c r="J23" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="206">
-        <f t="shared" si="8"/>
-        <v>0.29971635913761108</v>
-      </c>
-      <c r="L23" s="437">
-        <f>VLOOKUP(H23,汇率!$B$3:F120,5,0)</f>
-        <v>6.28</v>
-      </c>
-      <c r="M23" s="321"/>
-      <c r="N23" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O23" s="243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="243"/>
-      <c r="Q23" s="582">
-        <f>I23-O23</f>
-        <v>19865.5</v>
-      </c>
-      <c r="R23" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S23" s="575"/>
-      <c r="T23" s="323"/>
-      <c r="U23" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V23" s="254">
-        <f>IF(N23="N",L23*1.16/(1.16-0.09)-0.3,IF(N23=0,"错误",IF(I23&gt;N23,N23/I23*(L23*1.16/(1.16-0.13)-0.3)+(1-N23/I23)*(L23*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.5082242990654215</v>
-      </c>
-      <c r="W23" s="256" t="str">
-        <f>IF($D23="","",VLOOKUP(B23,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X23" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y23" s="462"/>
-      <c r="Z23" s="326"/>
-      <c r="AA23" s="326"/>
-      <c r="AB23" s="350"/>
-      <c r="AC23" s="350" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD23" s="327"/>
-      <c r="AE23" s="327"/>
-    </row>
-    <row r="24" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B24" s="564"/>
-      <c r="C24" s="320" t="s">
-        <v>353</v>
-      </c>
-      <c r="D24" s="320"/>
-      <c r="E24" s="445">
-        <v>66375</v>
-      </c>
-      <c r="F24" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="350">
-        <f>I25</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="556">
-        <v>43252</v>
-      </c>
-      <c r="I24" s="445">
-        <v>46415.5</v>
-      </c>
-      <c r="J24" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="206">
-        <f t="shared" si="8"/>
-        <v>0.70028364086238892</v>
-      </c>
-      <c r="L24" s="437">
-        <f>VLOOKUP(H24,汇率!$B$3:F121,5,0)</f>
-        <v>6.4</v>
-      </c>
-      <c r="M24" s="321"/>
-      <c r="N24" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O24" s="243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="243"/>
-      <c r="Q24" s="582">
-        <f>I24-O24</f>
-        <v>46415.5</v>
-      </c>
-      <c r="R24" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S24" s="575"/>
-      <c r="T24" s="323"/>
-      <c r="U24" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V24" s="254">
-        <f>IF(N24="N",L24*1.16/(1.16-0.09)-0.3,IF(N24=0,"错误",IF(I24&gt;N24,N24/I24*(L24*1.16/(1.16-0.13)-0.3)+(1-N24/I24)*(L24*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.6383177570093466</v>
-      </c>
-      <c r="W24" s="256" t="str">
-        <f>IF($D24="","",VLOOKUP(B24,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X24" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y24" s="462"/>
-      <c r="Z24" s="326"/>
-      <c r="AA24" s="326"/>
-      <c r="AB24" s="350"/>
-      <c r="AC24" s="350" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD24" s="327"/>
-      <c r="AE24" s="327"/>
-    </row>
-    <row r="25" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A25" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B25" s="565">
-        <v>43160</v>
-      </c>
-      <c r="C25" s="364"/>
-      <c r="D25" s="364" t="s">
-        <v>353</v>
-      </c>
-      <c r="E25" s="365"/>
-      <c r="F25" s="365">
-        <f t="shared" si="0"/>
-        <v>66375</v>
-      </c>
-      <c r="G25" s="365">
-        <f>SUBTOTAL(9,G23:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="557"/>
-      <c r="I25" s="365"/>
-      <c r="J25" s="365">
-        <f t="shared" si="9"/>
-        <v>66281</v>
-      </c>
-      <c r="K25" s="206" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L25" s="438"/>
-      <c r="M25" s="365">
-        <v>376445</v>
-      </c>
-      <c r="N25" s="404"/>
-      <c r="O25" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P25" s="368">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="583"/>
-      <c r="R25" s="368">
-        <f t="shared" si="4"/>
-        <v>66281</v>
-      </c>
-      <c r="S25" s="576">
-        <v>11890</v>
-      </c>
-      <c r="T25" s="369"/>
-      <c r="U25" s="255">
-        <f t="shared" si="6"/>
-        <v>5.888213439748947</v>
-      </c>
-      <c r="V25" s="255">
-        <f>V23*K23+V24*K24</f>
-        <v>6.5993266194467708</v>
-      </c>
-      <c r="W25" s="256">
-        <f>IF($D25="","",VLOOKUP(B25,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X25" s="252">
-        <f t="shared" si="5"/>
-        <v>266.96856658878647</v>
-      </c>
-      <c r="Y25" s="252"/>
-      <c r="Z25" s="252">
-        <f>X25*0.7+Y25</f>
-        <v>186.87799661215053</v>
-      </c>
-      <c r="AA25" s="252">
-        <f>IF(SUMIF(AB22:AB41,AB25,Z22:Z41)&gt;5000,Z25*0.875,Z25)</f>
-        <v>163.5182470356317</v>
-      </c>
-      <c r="AB25" s="365" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC25" s="365" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD25" s="370">
-        <v>0.1</v>
-      </c>
-      <c r="AE25" s="370">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B26" s="564"/>
-      <c r="C26" s="320" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" s="320"/>
-      <c r="E26" s="350"/>
-      <c r="F26" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="350"/>
-      <c r="H26" s="556">
-        <v>43202</v>
-      </c>
-      <c r="I26" s="445">
-        <v>17465.25</v>
-      </c>
-      <c r="J26" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="206">
-        <f t="shared" si="8"/>
-        <v>0.49028703768685522</v>
-      </c>
-      <c r="L26" s="437">
-        <f>VLOOKUP(H26,汇率!$B$3:F123,5,0)</f>
-        <v>6.27</v>
-      </c>
-      <c r="M26" s="321"/>
-      <c r="N26" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O26" s="243">
-        <f t="shared" si="3"/>
-        <v>1472.3319741736261</v>
-      </c>
-      <c r="P26" s="243"/>
-      <c r="Q26" s="582">
-        <f>I26-O26</f>
-        <v>15992.918025826373</v>
-      </c>
-      <c r="R26" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S26" s="575"/>
-      <c r="T26" s="323"/>
-      <c r="U26" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V26" s="254">
-        <f>IF(N26="N",L26*1.16/(1.16-0.09)-0.3,IF(N26=0,"错误",IF(I26&gt;N26,N26/I26*(L26*1.16/(1.16-0.13)-0.3)+(1-N26/I26)*(L26*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.4973831775700939</v>
-      </c>
-      <c r="W26" s="256" t="str">
-        <f>IF($D26="","",VLOOKUP(B26,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X26" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y26" s="462"/>
-      <c r="Z26" s="326"/>
-      <c r="AA26" s="326"/>
-      <c r="AB26" s="350"/>
-      <c r="AC26" s="350" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD26" s="327"/>
-      <c r="AE26" s="327"/>
-    </row>
-    <row r="27" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B27" s="564"/>
-      <c r="C27" s="320" t="s">
-        <v>354</v>
-      </c>
-      <c r="D27" s="320"/>
-      <c r="E27" s="445">
-        <v>35674.5</v>
-      </c>
-      <c r="F27" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="350">
-        <f>I28</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="556">
-        <v>43272</v>
-      </c>
-      <c r="I27" s="445">
-        <v>18157.25</v>
-      </c>
-      <c r="J27" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="206">
-        <f t="shared" si="8"/>
-        <v>0.50971296231314478</v>
-      </c>
-      <c r="L27" s="437">
-        <f>VLOOKUP(H27,汇率!$B$3:F124,5,0)</f>
-        <v>6.48</v>
-      </c>
-      <c r="M27" s="321"/>
-      <c r="N27" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O27" s="243">
-        <f t="shared" si="3"/>
-        <v>1530.6680258263739</v>
-      </c>
-      <c r="P27" s="243"/>
-      <c r="Q27" s="582">
-        <f>I27-O27</f>
-        <v>16626.581974173627</v>
-      </c>
-      <c r="R27" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S27" s="575"/>
-      <c r="T27" s="323"/>
-      <c r="U27" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V27" s="254">
-        <f>IF(N27="N",L27*1.16/(1.16-0.09)-0.3,IF(N27=0,"错误",IF(I27&gt;N27,N27/I27*(L27*1.16/(1.16-0.13)-0.3)+(1-N27/I27)*(L27*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.7250467289719635</v>
-      </c>
-      <c r="W27" s="256" t="str">
-        <f>IF($D27="","",VLOOKUP(B27,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X27" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y27" s="462"/>
-      <c r="Z27" s="326"/>
-      <c r="AA27" s="326"/>
-      <c r="AB27" s="350"/>
-      <c r="AC27" s="350" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD27" s="327"/>
-      <c r="AE27" s="327"/>
-    </row>
-    <row r="28" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A28" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B28" s="565">
-        <v>43191</v>
-      </c>
-      <c r="C28" s="364"/>
-      <c r="D28" s="364" t="s">
-        <v>354</v>
-      </c>
-      <c r="E28" s="365"/>
-      <c r="F28" s="365">
-        <f t="shared" si="0"/>
-        <v>35674.5</v>
-      </c>
-      <c r="G28" s="365">
-        <f>SUBTOTAL(9,G26:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="557"/>
-      <c r="I28" s="365"/>
-      <c r="J28" s="365">
-        <f t="shared" si="9"/>
-        <v>35622.5</v>
-      </c>
-      <c r="K28" s="206" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L28" s="438"/>
-      <c r="M28" s="365">
-        <v>156922</v>
-      </c>
-      <c r="N28" s="404"/>
-      <c r="O28" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P28" s="368">
-        <v>3003</v>
-      </c>
-      <c r="Q28" s="583"/>
-      <c r="R28" s="368">
-        <f t="shared" si="4"/>
-        <v>32619.5</v>
-      </c>
-      <c r="S28" s="576">
-        <v>4770</v>
-      </c>
-      <c r="T28" s="369"/>
-      <c r="U28" s="255">
-        <f t="shared" si="6"/>
-        <v>4.9816968377810813</v>
-      </c>
-      <c r="V28" s="255">
-        <f>V26*K26+V27*K27</f>
-        <v>6.6134262407658717</v>
-      </c>
-      <c r="W28" s="256">
-        <f>IF($D28="","",VLOOKUP(B28,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X28" s="252">
-        <f t="shared" si="5"/>
-        <v>697.83663151655935</v>
-      </c>
-      <c r="Y28" s="252">
-        <f>下单月成本!O9</f>
-        <v>1459.8164203298688</v>
-      </c>
-      <c r="Z28" s="252">
-        <f>X28*0.7+Y28</f>
-        <v>1948.3020623914604</v>
-      </c>
-      <c r="AA28" s="252">
-        <f>IF(SUMIF(AB27:AB49,AB28,Z27:Z49)&gt;5000,Z28*0.875,Z28)</f>
-        <v>1704.7643045925279</v>
-      </c>
-      <c r="AB28" s="365" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC28" s="365" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD28" s="370">
-        <v>0.1</v>
-      </c>
-      <c r="AE28" s="370">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B29" s="564"/>
-      <c r="C29" s="320" t="s">
-        <v>355</v>
-      </c>
-      <c r="D29" s="320"/>
-      <c r="E29" s="350"/>
-      <c r="F29" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="350"/>
-      <c r="H29" s="556">
-        <v>43226</v>
-      </c>
-      <c r="I29" s="445">
-        <v>19399.7</v>
-      </c>
-      <c r="J29" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="206">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="437">
-        <f>VLOOKUP(H29,汇率!$B$3:F123,5,0)</f>
-        <v>6.35</v>
-      </c>
-      <c r="M29" s="321"/>
-      <c r="N29" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O29" s="243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="243"/>
-      <c r="Q29" s="582">
-        <f>I29-O29</f>
-        <v>19399.7</v>
-      </c>
-      <c r="R29" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S29" s="575"/>
-      <c r="T29" s="323"/>
-      <c r="U29" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V29" s="254">
-        <f>IF(N29="N",L29*1.16/(1.16-0.09)-0.3,IF(N29=0,"错误",IF(I29&gt;N29,N29/I29*(L29*1.16/(1.16-0.13)-0.3)+(1-N29/I29)*(L29*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.58411214953271</v>
-      </c>
-      <c r="W29" s="256" t="str">
-        <f>IF($D29="","",VLOOKUP(B29,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X29" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y29" s="462"/>
-      <c r="Z29" s="326"/>
-      <c r="AA29" s="326"/>
-      <c r="AB29" s="350"/>
-      <c r="AC29" s="350" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD29" s="327"/>
-      <c r="AE29" s="327"/>
-    </row>
-    <row r="30" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B30" s="564"/>
-      <c r="C30" s="320" t="s">
-        <v>355</v>
-      </c>
-      <c r="D30" s="320"/>
-      <c r="E30" s="445">
-        <v>38799.4</v>
-      </c>
-      <c r="F30" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="350">
-        <f>I31</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="556">
-        <v>43280</v>
-      </c>
-      <c r="I30" s="445">
-        <v>19399.7</v>
-      </c>
-      <c r="J30" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="206">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="437">
-        <f>VLOOKUP(H30,汇率!$B$3:F124,5,0)</f>
-        <v>6.61</v>
-      </c>
-      <c r="M30" s="321"/>
-      <c r="N30" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O30" s="243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="243"/>
-      <c r="Q30" s="582">
-        <f>I30-O30</f>
-        <v>19399.7</v>
-      </c>
-      <c r="R30" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S30" s="575"/>
-      <c r="T30" s="323"/>
-      <c r="U30" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V30" s="254">
-        <f>IF(N30="N",L30*1.16/(1.16-0.09)-0.3,IF(N30=0,"错误",IF(I30&gt;N30,N30/I30*(L30*1.16/(1.16-0.13)-0.3)+(1-N30/I30)*(L30*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.8659813084112162</v>
-      </c>
-      <c r="W30" s="256" t="str">
-        <f>IF($D30="","",VLOOKUP(B30,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X30" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y30" s="462"/>
-      <c r="Z30" s="326"/>
-      <c r="AA30" s="326"/>
-      <c r="AB30" s="350"/>
-      <c r="AC30" s="350" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD30" s="327"/>
-      <c r="AE30" s="327"/>
-    </row>
-    <row r="31" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A31" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B31" s="565">
-        <v>43221</v>
-      </c>
-      <c r="C31" s="364"/>
-      <c r="D31" s="364" t="s">
-        <v>355</v>
-      </c>
-      <c r="E31" s="365"/>
-      <c r="F31" s="365">
-        <f t="shared" si="0"/>
-        <v>38799.4</v>
-      </c>
-      <c r="G31" s="365">
-        <f>SUBTOTAL(9,G29:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="557"/>
-      <c r="I31" s="365"/>
-      <c r="J31" s="365">
-        <f t="shared" si="9"/>
-        <v>38799.4</v>
-      </c>
-      <c r="K31" s="206" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L31" s="438"/>
-      <c r="M31" s="365">
-        <v>203937.5</v>
-      </c>
-      <c r="N31" s="404"/>
-      <c r="O31" s="243" t="str">
-        <f t="shared" ref="O9:O31" si="10">IF($K31&lt;&gt;"",$K31*SUMIF(D:D,C31,P:P),"")</f>
-        <v/>
-      </c>
-      <c r="P31" s="368">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="583"/>
-      <c r="R31" s="368">
-        <f t="shared" si="4"/>
-        <v>38799.4</v>
-      </c>
-      <c r="S31" s="576">
-        <v>5968</v>
-      </c>
-      <c r="T31" s="369"/>
-      <c r="U31" s="255">
-        <f t="shared" si="6"/>
-        <v>5.4370693232369565</v>
-      </c>
-      <c r="V31" s="255">
-        <f>V29*K29+V30*K30</f>
-        <v>6.7250467289719627</v>
-      </c>
-      <c r="W31" s="256">
-        <f>IF($D31="","",VLOOKUP(B31,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="X31" s="252">
-        <f t="shared" si="5"/>
-        <v>4840.0059890186994</v>
-      </c>
-      <c r="Y31" s="252">
-        <v>-2400</v>
-      </c>
-      <c r="Z31" s="252">
-        <f>X31*0.7+Y31</f>
-        <v>988.00419231308933</v>
-      </c>
-      <c r="AA31" s="252">
-        <f>IF(SUMIF(AB25:AB49,AB31,Z25:Z49)&gt;5000,Z31*0.875,Z31)</f>
-        <v>864.50366827395317</v>
-      </c>
-      <c r="AB31" s="365" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC31" s="365" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD31" s="370">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="370">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B32" s="564"/>
-      <c r="C32" s="320"/>
-      <c r="D32" s="320"/>
-      <c r="E32" s="445"/>
-      <c r="F32" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="350"/>
-      <c r="H32" s="556"/>
-      <c r="I32" s="445"/>
-      <c r="J32" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="206" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L32" s="437"/>
-      <c r="M32" s="321"/>
-      <c r="N32" s="403"/>
-      <c r="O32" s="243"/>
-      <c r="P32" s="243"/>
-      <c r="Q32" s="582"/>
-      <c r="R32" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S32" s="575"/>
-      <c r="T32" s="323"/>
-      <c r="U32" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V32" s="254"/>
-      <c r="W32" s="256" t="str">
-        <f>IF($D32="","",VLOOKUP(B32,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X32" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y32" s="462"/>
-      <c r="Z32" s="326"/>
-      <c r="AA32" s="326"/>
-      <c r="AB32" s="350"/>
-      <c r="AC32" s="350"/>
-      <c r="AD32" s="327"/>
-      <c r="AE32" s="327"/>
-    </row>
-    <row r="33" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A33" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B33" s="565">
-        <v>43252</v>
-      </c>
-      <c r="C33" s="364"/>
-      <c r="D33" s="364"/>
-      <c r="E33" s="365"/>
-      <c r="F33" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="365"/>
-      <c r="H33" s="557"/>
-      <c r="I33" s="365"/>
-      <c r="J33" s="365">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="206" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L33" s="438"/>
-      <c r="M33" s="365"/>
-      <c r="N33" s="404"/>
-      <c r="O33" s="368"/>
-      <c r="P33" s="368"/>
-      <c r="Q33" s="583"/>
-      <c r="R33" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S33" s="576"/>
-      <c r="T33" s="369"/>
-      <c r="U33" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V33" s="255"/>
-      <c r="W33" s="256" t="str">
-        <f>IF($D33="","",VLOOKUP(B33,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X33" s="252" t="str">
-        <f>IF($D33="","",$R33*(V33-U33-W33)*AD33*AE33)</f>
-        <v/>
-      </c>
-      <c r="Y33" s="252">
-        <f>下单月成本!O7</f>
-        <v>252.76566212517022</v>
-      </c>
-      <c r="Z33" s="252" t="e">
-        <f>X33*0.7+Y33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA33" s="252" t="e">
-        <f>IF(SUMIF(AB27:AB51,AB33,Z27:Z51)&gt;5000,Z33*0.875,Z33)+0.03</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB33" s="365" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC33" s="365"/>
-      <c r="AD33" s="370"/>
-      <c r="AE33" s="370"/>
-    </row>
-    <row r="34" spans="1:31" s="328" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A34" s="385"/>
-      <c r="B34" s="567"/>
-      <c r="C34" s="386"/>
-      <c r="D34" s="386" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="451"/>
-      <c r="F34" s="451">
-        <f>SUBTOTAL(9,F3:F32)</f>
-        <v>376372.75</v>
-      </c>
-      <c r="G34" s="451">
-        <f>SUBTOTAL(9,G3:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="559"/>
-      <c r="I34" s="451"/>
-      <c r="J34" s="451">
-        <f>SUBTOTAL(9,J3:J32)</f>
-        <v>376006.02</v>
-      </c>
-      <c r="K34" s="453"/>
-      <c r="L34" s="454"/>
-      <c r="M34" s="451">
-        <f>SUBTOTAL(9,M3:M33)</f>
-        <v>1696856.49</v>
-      </c>
-      <c r="N34" s="453"/>
-      <c r="O34" s="455">
-        <f>SUM(O5,O8,O14,O17,O20,O22,O25,O28,O33)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="455">
-        <f>SUM(P5,P8,P14,P17,P20,P22,P25,P28,P33)</f>
-        <v>22711</v>
-      </c>
-      <c r="Q34" s="584">
-        <f>SUBTOTAL(9,Q3:Q32)</f>
-        <v>353295.02</v>
-      </c>
-      <c r="R34" s="455">
-        <f>SUBTOTAL(9,R3:R32)</f>
-        <v>353295.02</v>
-      </c>
-      <c r="S34" s="577">
-        <f>SUBTOTAL(9,S3:S33)</f>
-        <v>62138</v>
-      </c>
-      <c r="T34" s="359"/>
-      <c r="U34" s="360"/>
-      <c r="V34" s="361"/>
-      <c r="W34" s="361"/>
-      <c r="X34" s="417">
-        <f>SUM(X3:X33)</f>
-        <v>17283.282575667716</v>
-      </c>
-      <c r="Y34" s="418">
-        <f>SUM(Y3:Y33)</f>
-        <v>9600</v>
-      </c>
-      <c r="Z34" s="417" t="e">
-        <f>SUM(Z3:Z33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA34" s="417" t="e">
-        <f>SUM(AA3:AA33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB34" s="355"/>
-      <c r="AC34" s="362"/>
-      <c r="AD34" s="363"/>
-      <c r="AE34" s="363"/>
-    </row>
-    <row r="35" spans="1:31" s="338" customFormat="1" ht="12.75">
-      <c r="A35" s="331"/>
-      <c r="B35" s="568"/>
-      <c r="C35" s="331"/>
-      <c r="D35" s="331"/>
-      <c r="E35" s="332"/>
-      <c r="F35" s="332"/>
-      <c r="G35" s="332"/>
-      <c r="H35" s="560"/>
-      <c r="I35" s="332"/>
-      <c r="J35" s="332"/>
-      <c r="K35" s="334"/>
-      <c r="L35" s="440"/>
-      <c r="M35" s="335"/>
-      <c r="N35" s="406"/>
-      <c r="O35" s="332"/>
-      <c r="P35" s="332"/>
-      <c r="Q35" s="585"/>
-      <c r="R35" s="332"/>
-      <c r="S35" s="578"/>
-      <c r="T35" s="336"/>
-      <c r="U35" s="335"/>
-      <c r="V35" s="335"/>
-      <c r="W35" s="335"/>
-      <c r="X35" s="335"/>
-      <c r="Y35" s="463"/>
-      <c r="Z35" s="335"/>
-      <c r="AA35" s="335"/>
-      <c r="AB35" s="337"/>
-      <c r="AC35" s="420" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD35" s="337"/>
-      <c r="AE35" s="337"/>
-    </row>
-    <row r="36" spans="1:31" ht="24.95" customHeight="1">
-      <c r="B36" s="569" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="341"/>
-      <c r="D36" s="341"/>
-      <c r="G36" s="387">
-        <f>G34</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="387">
-        <f>I34-G34</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="387">
-        <f>J34-H34</f>
-        <v>376006.02</v>
-      </c>
-      <c r="Z36" s="343">
-        <f>SUMIF(AB3:AB33,AB36,Z3:Z33)</f>
-        <v>16574.854953193753</v>
-      </c>
-      <c r="AA36" s="343">
-        <f>SUMIF(AB3:AB33,AB36,AA3:AA33)</f>
-        <v>14564.502790445973</v>
-      </c>
-      <c r="AB36" s="344" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC36" s="344"/>
-    </row>
-    <row r="37" spans="1:31" ht="24.95" customHeight="1">
-      <c r="B37" s="569" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="341"/>
-      <c r="D37" s="341"/>
-      <c r="G37" s="342">
-        <f>O34</f>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="343">
-        <f>SUMIF(AB3:AB33,AB37,Z3:Z33)</f>
-        <v>5470.6771876484763</v>
-      </c>
-      <c r="AA37" s="343">
-        <f>SUMIF(AB3:AB33,AB37,AA3:AA33)</f>
-        <v>4786.8025391924166</v>
-      </c>
-      <c r="AB37" s="344" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC37" s="344"/>
-    </row>
-    <row r="38" spans="1:31" ht="24.95" customHeight="1">
-      <c r="B38" s="569" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="341"/>
-      <c r="D38" s="341"/>
-      <c r="G38" s="342">
-        <f>G36-G37</f>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="343" t="e">
-        <f>SUMIF(AB3:AB33,AB38,Z3:Z33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA38" s="343" t="e">
-        <f>SUMIF(AB3:AB33,AB38,AA3:AA33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB38" s="365" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC38" s="344"/>
-    </row>
-    <row r="39" spans="1:31" ht="24.95" customHeight="1">
-      <c r="B39" s="569" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="345"/>
-      <c r="D39" s="345"/>
-      <c r="G39" s="346">
-        <f>M34+S34+T34</f>
-        <v>1758994.49</v>
-      </c>
-      <c r="M39" s="225"/>
-      <c r="Z39" s="329" t="e">
-        <f>SUM(Z36:Z38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA39" s="329" t="e">
-        <f>SUM(AA36:AA38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB39" s="330" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC39" s="419"/>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="B40" s="569" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="347"/>
-      <c r="D40" s="347"/>
-      <c r="G40" s="347" t="e">
-        <f>G39/G38*1.005</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31">
-      <c r="B42" s="570" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31">
-      <c r="B43" s="570" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31">
-      <c r="B44" s="570" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31">
-      <c r="B46" s="571"/>
-      <c r="C46" s="400" t="s">
-        <v>297</v>
-      </c>
-      <c r="D46" s="400" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31">
-      <c r="B47" s="572"/>
-      <c r="C47" s="400" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" s="400" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31">
-      <c r="B48" s="573"/>
-      <c r="C48" s="400" t="s">
-        <v>299</v>
-      </c>
-      <c r="D48" s="400" t="s">
-        <v>299</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AE40" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AE40">
-      <sortCondition ref="H2:H40"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="V3:V4">
-    <cfRule type="containsText" dxfId="43" priority="18" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
-      <formula>"提醒"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V23:V24 V21 V18:V19 V15:V16 V9:V10 V6:V7 V12:V13">
-    <cfRule type="containsText" dxfId="41" priority="16" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
-      <formula>"提醒"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X33">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
-      <formula>"提醒"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V27">
-    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V27)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
-      <formula>"提醒"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V32">
-    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V32)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
-      <formula>"提醒"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V26">
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V26)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
-      <formula>"提醒"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V30">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V30)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
-      <formula>"提醒"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V29">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V29)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
-      <formula>"提醒"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Js+IyfH+c8fKCfB9lE7ds2ks9zlEFVEkSCNphZksgktNLo/MJoqBhDVr7qnOrpmCXGoo3/JPoSzeZOwIIldEHA==" saltValue="BiMoT4uNGAEDUCSvvpXrfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFBA7F8-5A23-49D1-96AC-315C19543CF6}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -11932,13 +9310,14 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="eLUvRJwV3mqmDJOH3UKivXs5UaI9LNJ+fNAckKTwJi864AK2c8RR7VnD2DRdSMwL2p05aH99X2xXLFj2X4znDw==" saltValue="+M+29SbWftrJW5XkNqcEqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975010A2-99C9-49C6-8D57-E82F2BE403C0}">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -12034,13 +9413,14 @@
       <c r="M6" s="475"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="pwE3Wa8AyK3EBATbbx1rZ90lPYwqSdT5dcOvC8CzrxJ/06Mil7R3+iARejqCG7hE7I1OYBBBoKsLD/saq+88Fg==" saltValue="X/99zxuYZY8BakBOKWVEvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
@@ -12061,12 +9441,12 @@
     <row r="1" spans="1:6">
       <c r="A1" s="227"/>
       <c r="B1" s="227"/>
-      <c r="C1" s="545" t="s">
+      <c r="C1" s="583" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
+      <c r="D1" s="583"/>
+      <c r="E1" s="583"/>
+      <c r="F1" s="583"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="227"/>
@@ -13276,6 +10656,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="D95QcKxwVBlWPWXGVGb0JrkyAw3ff35T3yAMmjo+effiAXYDSpxOiHRR73ihGZRN0tyoQ1KQslmUxiVlr+3KJg==" saltValue="OYJPAPAOxAYq4zQq/DtXfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:F41" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
@@ -13293,7 +10674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -13327,14 +10708,14 @@
       <c r="C1" s="388" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="546" t="s">
+      <c r="D1" s="584" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="547"/>
-      <c r="F1" s="547"/>
-      <c r="G1" s="547"/>
-      <c r="H1" s="547"/>
-      <c r="I1" s="547"/>
+      <c r="E1" s="585"/>
+      <c r="F1" s="585"/>
+      <c r="G1" s="585"/>
+      <c r="H1" s="585"/>
+      <c r="I1" s="585"/>
       <c r="J1" s="394" t="s">
         <v>295</v>
       </c>
@@ -13583,6 +10964,7 @@
       <c r="L20" s="449"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="MC9wmbGFf3Tiy7D+fbqg1Hy5mGjBRQJI8xYwIf58+hmZGxSyiZjUBU02PmcR2RlWIN8y05AR/Fh3IVmWrdm8FA==" saltValue="q+cJpPLrpZiZTjt/LWrTNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="D1:I1"/>
   </mergeCells>
@@ -13593,7 +10975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -13721,11 +11103,11 @@
       <c r="G5" s="263"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="548">
+      <c r="B6" s="586">
         <f>SUM(B5:C5)</f>
         <v>415468.45999999996</v>
       </c>
-      <c r="C6" s="549"/>
+      <c r="C6" s="587"/>
       <c r="D6" s="267">
         <f>SUM(D2:D5)</f>
         <v>415468.45999999996</v>
@@ -13736,6 +11118,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="xUZI5U9cUGXw9Q0BlIOMS+IbfNQOWpnF4p/YO2YrV+R7cPQ2xrUtjr9dWYW75WHLroMju0p4OnSaMUoXNtxAFw==" saltValue="V8qorOktfoE1zYn4RK7Aiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
@@ -13746,6 +11129,2975 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5965545-87D0-4C63-A8F3-480A3F809E06}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AE47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="225" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="519" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="225" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="225" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="308" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="308" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="308" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="519" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="308" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="308" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="339" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="441" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="308" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="407" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="308" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="308" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="542" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="308" customWidth="1"/>
+    <col min="19" max="19" width="11" style="536" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="225" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="308" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="308" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="308" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="308" customWidth="1"/>
+    <col min="25" max="25" width="10" style="464" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" style="308" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="308" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="225" customWidth="1"/>
+    <col min="29" max="29" width="30.7109375" style="225" customWidth="1"/>
+    <col min="30" max="31" width="5.5703125" style="225" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="225"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="318" customFormat="1" ht="36">
+      <c r="A1" s="316" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="521" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="543" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="317" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="396" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="511" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="408" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="513" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="411" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="512" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" s="409" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" s="436" t="s">
+        <v>257</v>
+      </c>
+      <c r="M1" s="401" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="402" t="s">
+        <v>302</v>
+      </c>
+      <c r="O1" s="396" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="396" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q1" s="537" t="s">
+        <v>229</v>
+      </c>
+      <c r="R1" s="408" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" s="497" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="396" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="410" t="s">
+        <v>258</v>
+      </c>
+      <c r="V1" s="410" t="s">
+        <v>259</v>
+      </c>
+      <c r="W1" s="410" t="s">
+        <v>260</v>
+      </c>
+      <c r="X1" s="410" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y1" s="461" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z1" s="410" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA1" s="410" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB1" s="317" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="316" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="317" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE1" s="316" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="A2" s="412"/>
+      <c r="B2" s="522"/>
+      <c r="C2" s="320" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="320"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="365">
+        <f t="shared" ref="F2:F32" si="0">SUMIF(C:C,$D2,E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="350"/>
+      <c r="H2" s="514">
+        <v>43203</v>
+      </c>
+      <c r="I2" s="445">
+        <v>19878.97</v>
+      </c>
+      <c r="J2" s="365">
+        <f t="shared" ref="J2:J32" si="1">SUMIF(C:C,$D2,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="206">
+        <f t="shared" ref="K2:K32" si="2">IF(SUMIF(D:D,$C2,J:J)=0,"",$I2/SUMIF(D:D,$C2,J:J))</f>
+        <v>0.51311598080309917</v>
+      </c>
+      <c r="L2" s="437">
+        <f>VLOOKUP(H2,汇率!$B$3:F100,5,0)</f>
+        <v>6.27</v>
+      </c>
+      <c r="M2" s="321"/>
+      <c r="N2" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O2" s="243">
+        <f t="shared" ref="O2:O30" si="3">IF($K2&lt;&gt;"",$K2*SUMIF(D:D,C2,P:P),"")</f>
+        <v>2232.5676324742844</v>
+      </c>
+      <c r="P2" s="243"/>
+      <c r="Q2" s="538">
+        <f>I2-O2</f>
+        <v>17646.402367525716</v>
+      </c>
+      <c r="R2" s="368" t="str">
+        <f t="shared" ref="R2:R32" si="4">IF($D2="","",SUMIF(C:C,$D2,Q:Q))</f>
+        <v/>
+      </c>
+      <c r="S2" s="532"/>
+      <c r="T2" s="323"/>
+      <c r="U2" s="255" t="str">
+        <f>IF($R2="","",SUM(M2,S2,T2)/R2*1.005)</f>
+        <v/>
+      </c>
+      <c r="V2" s="254">
+        <f>IF(N2="N",L2*1.16/(1.16-0.09)-0.3,IF(N2=0,"错误",IF(I2&gt;N2,N2/I2*(L2*1.16/(1.16-0.13)-0.3)+(1-N2/I2)*(L2*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.4973831775700939</v>
+      </c>
+      <c r="W2" s="256" t="str">
+        <f>IF($D2="","",VLOOKUP(B2,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X2" s="252" t="str">
+        <f t="shared" ref="X2:X31" si="5">IF($D2="","",$R2*(V2-U2-W2)*AD2*AE2)</f>
+        <v/>
+      </c>
+      <c r="Y2" s="462"/>
+      <c r="Z2" s="326"/>
+      <c r="AA2" s="326"/>
+      <c r="AB2" s="350"/>
+      <c r="AC2" s="446" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+    </row>
+    <row r="3" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B3" s="522"/>
+      <c r="C3" s="320" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="320"/>
+      <c r="E3" s="445">
+        <v>38795.4</v>
+      </c>
+      <c r="F3" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="350">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="514">
+        <v>43258</v>
+      </c>
+      <c r="I3" s="445">
+        <v>18862.7</v>
+      </c>
+      <c r="J3" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="206">
+        <f t="shared" si="2"/>
+        <v>0.48688401919690094</v>
+      </c>
+      <c r="L3" s="437">
+        <f>VLOOKUP(H3,汇率!$B$3:F101,5,0)</f>
+        <v>6.38</v>
+      </c>
+      <c r="M3" s="321"/>
+      <c r="N3" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O3" s="243">
+        <f t="shared" si="3"/>
+        <v>2118.432367525716</v>
+      </c>
+      <c r="P3" s="243"/>
+      <c r="Q3" s="538">
+        <f>I3-O3</f>
+        <v>16744.267632474286</v>
+      </c>
+      <c r="R3" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S3" s="532"/>
+      <c r="T3" s="323"/>
+      <c r="U3" s="255" t="str">
+        <f t="shared" ref="U3:U32" si="6">IF($R3="","",SUM(M3,S3,T3)/R3*1.005)</f>
+        <v/>
+      </c>
+      <c r="V3" s="254">
+        <f>IF(N3="N",L3*1.16/(1.16-0.09)-0.3,IF(N3=0,"错误",IF(I3&gt;N3,N3/I3*(L3*1.16/(1.16-0.13)-0.3)+(1-N3/I3)*(L3*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.6166355140186921</v>
+      </c>
+      <c r="W3" s="256" t="str">
+        <f>IF($D3="","",VLOOKUP(B3,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X3" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y3" s="462"/>
+      <c r="Z3" s="326"/>
+      <c r="AA3" s="326"/>
+      <c r="AB3" s="350"/>
+      <c r="AC3" s="446" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+    </row>
+    <row r="4" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A4" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B4" s="523">
+        <v>43191</v>
+      </c>
+      <c r="C4" s="364"/>
+      <c r="D4" s="364" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365">
+        <f t="shared" si="0"/>
+        <v>38795.4</v>
+      </c>
+      <c r="G4" s="365">
+        <f>SUBTOTAL(9,G2:G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="515"/>
+      <c r="I4" s="365"/>
+      <c r="J4" s="365">
+        <f t="shared" si="1"/>
+        <v>38741.67</v>
+      </c>
+      <c r="K4" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L4" s="438"/>
+      <c r="M4" s="365">
+        <v>164119.04000000001</v>
+      </c>
+      <c r="N4" s="404"/>
+      <c r="O4" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P4" s="368">
+        <v>4351</v>
+      </c>
+      <c r="Q4" s="539"/>
+      <c r="R4" s="368">
+        <f t="shared" si="4"/>
+        <v>34390.67</v>
+      </c>
+      <c r="S4" s="533">
+        <v>5670</v>
+      </c>
+      <c r="T4" s="369"/>
+      <c r="U4" s="255">
+        <f>IF($R4="","",SUM(M4,S4,T4)/R4*1.005)</f>
+        <v>4.9617522775799365</v>
+      </c>
+      <c r="V4" s="255">
+        <f>V2*K2+V3*K3</f>
+        <v>6.5554452344388086</v>
+      </c>
+      <c r="W4" s="256">
+        <f>IF($D4="","",VLOOKUP(B4,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="X4" s="252">
+        <f t="shared" si="5"/>
+        <v>703.02521601644264</v>
+      </c>
+      <c r="Y4" s="252"/>
+      <c r="Z4" s="252">
+        <f>X4*0.7+Y4</f>
+        <v>492.11765121150984</v>
+      </c>
+      <c r="AA4" s="252">
+        <f>IF(SUMIF(AB1:AB11,AB4,Z1:Z11)&gt;5000,Z4*0.875,Z4)-0.01</f>
+        <v>492.10765121150985</v>
+      </c>
+      <c r="AB4" s="365" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="365" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD4" s="370">
+        <v>0.1</v>
+      </c>
+      <c r="AE4" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B5" s="522"/>
+      <c r="C5" s="320" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="320"/>
+      <c r="E5" s="350"/>
+      <c r="F5" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="350"/>
+      <c r="H5" s="514">
+        <v>43208</v>
+      </c>
+      <c r="I5" s="445">
+        <v>10079.1</v>
+      </c>
+      <c r="J5" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="206">
+        <f t="shared" si="2"/>
+        <v>0.30044713387188127</v>
+      </c>
+      <c r="L5" s="437">
+        <f>VLOOKUP(H5,汇率!$B$3:F103,5,0)</f>
+        <v>6.27</v>
+      </c>
+      <c r="M5" s="321"/>
+      <c r="N5" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O5" s="243">
+        <f t="shared" si="3"/>
+        <v>819.61978120249205</v>
+      </c>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="538">
+        <f>I5-O5</f>
+        <v>9259.4802187975074</v>
+      </c>
+      <c r="R5" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S5" s="532"/>
+      <c r="T5" s="323"/>
+      <c r="U5" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V5" s="254">
+        <f>IF(N5="N",L5*1.16/(1.16-0.09)-0.3,IF(N5=0,"错误",IF(I5&gt;N5,N5/I5*(L5*1.16/(1.16-0.13)-0.3)+(1-N5/I5)*(L5*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.4973831775700939</v>
+      </c>
+      <c r="W5" s="256" t="str">
+        <f>IF($D5="","",VLOOKUP(B5,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X5" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y5" s="462"/>
+      <c r="Z5" s="326"/>
+      <c r="AA5" s="326"/>
+      <c r="AB5" s="350"/>
+      <c r="AC5" s="350" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD5" s="327"/>
+      <c r="AE5" s="327"/>
+    </row>
+    <row r="6" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B6" s="522"/>
+      <c r="C6" s="320" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="320"/>
+      <c r="E6" s="445">
+        <v>33597</v>
+      </c>
+      <c r="F6" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="350">
+        <f>I7</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="514">
+        <v>43259</v>
+      </c>
+      <c r="I6" s="445">
+        <v>23467.9</v>
+      </c>
+      <c r="J6" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="206">
+        <f t="shared" si="2"/>
+        <v>0.69955286612811884</v>
+      </c>
+      <c r="L6" s="437">
+        <f>VLOOKUP(H6,汇率!$B$3:F104,5,0)</f>
+        <v>6.39</v>
+      </c>
+      <c r="M6" s="321"/>
+      <c r="N6" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O6" s="243">
+        <f t="shared" si="3"/>
+        <v>1908.3802187975082</v>
+      </c>
+      <c r="P6" s="243"/>
+      <c r="Q6" s="538">
+        <f>I6-O6</f>
+        <v>21559.519781202493</v>
+      </c>
+      <c r="R6" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S6" s="532"/>
+      <c r="T6" s="323"/>
+      <c r="U6" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V6" s="254">
+        <f>IF(N6="N",L6*1.16/(1.16-0.09)-0.3,IF(N6=0,"错误",IF(I6&gt;N6,N6/I6*(L6*1.16/(1.16-0.13)-0.3)+(1-N6/I6)*(L6*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.6274766355140189</v>
+      </c>
+      <c r="W6" s="256" t="str">
+        <f>IF($D6="","",VLOOKUP(B6,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X6" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y6" s="462"/>
+      <c r="Z6" s="326"/>
+      <c r="AA6" s="326"/>
+      <c r="AB6" s="350"/>
+      <c r="AC6" s="350" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD6" s="327"/>
+      <c r="AE6" s="327"/>
+    </row>
+    <row r="7" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A7" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B7" s="523">
+        <v>43191</v>
+      </c>
+      <c r="C7" s="364"/>
+      <c r="D7" s="364" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" s="365"/>
+      <c r="F7" s="365">
+        <f t="shared" si="0"/>
+        <v>33597</v>
+      </c>
+      <c r="G7" s="365">
+        <f>SUBTOTAL(9,G5:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="515"/>
+      <c r="I7" s="365"/>
+      <c r="J7" s="365">
+        <f t="shared" si="1"/>
+        <v>33547</v>
+      </c>
+      <c r="K7" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L7" s="438"/>
+      <c r="M7" s="365">
+        <v>151667.70000000001</v>
+      </c>
+      <c r="N7" s="404"/>
+      <c r="O7" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P7" s="368">
+        <v>2728</v>
+      </c>
+      <c r="Q7" s="539"/>
+      <c r="R7" s="368">
+        <f t="shared" si="4"/>
+        <v>30819</v>
+      </c>
+      <c r="S7" s="533">
+        <v>9355</v>
+      </c>
+      <c r="T7" s="369"/>
+      <c r="U7" s="255">
+        <f t="shared" si="6"/>
+        <v>5.2509105908692693</v>
+      </c>
+      <c r="V7" s="255">
+        <f>V5*K5+V6*K6</f>
+        <v>6.5883904289392845</v>
+      </c>
+      <c r="W7" s="256">
+        <f>IF($D7="","",VLOOKUP(B7,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="X7" s="252">
+        <f t="shared" si="5"/>
+        <v>1730.42471294798</v>
+      </c>
+      <c r="Y7" s="252"/>
+      <c r="Z7" s="252">
+        <f>X7*0.7+Y7</f>
+        <v>1211.2972990635858</v>
+      </c>
+      <c r="AA7" s="252">
+        <f>IF(SUMIF(AB5:AB22,AB7,Z5:Z22)&gt;5000,Z7*0.875,Z7)</f>
+        <v>1059.8851366806375</v>
+      </c>
+      <c r="AB7" s="365" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" s="365" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD7" s="370">
+        <v>0.4</v>
+      </c>
+      <c r="AE7" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B8" s="522"/>
+      <c r="C8" s="472" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="509"/>
+      <c r="E8" s="466"/>
+      <c r="F8" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="350"/>
+      <c r="H8" s="516">
+        <v>43209</v>
+      </c>
+      <c r="I8" s="465">
+        <v>5419.55</v>
+      </c>
+      <c r="J8" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="206">
+        <f t="shared" si="2"/>
+        <v>9.9296530104279176E-2</v>
+      </c>
+      <c r="L8" s="437">
+        <f>VLOOKUP(H8,汇率!$B$3:F106,5,0)</f>
+        <v>6.26</v>
+      </c>
+      <c r="M8" s="321"/>
+      <c r="N8" s="468" t="s">
+        <v>300</v>
+      </c>
+      <c r="O8" s="243">
+        <f t="shared" si="3"/>
+        <v>495.48968522035307</v>
+      </c>
+      <c r="P8" s="243"/>
+      <c r="Q8" s="538">
+        <f>$I8-$O8</f>
+        <v>4924.0603147796473</v>
+      </c>
+      <c r="R8" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S8" s="532"/>
+      <c r="T8" s="323"/>
+      <c r="U8" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V8" s="254">
+        <f>IF(N8="N",L8*1.16/(1.16-0.09)-0.3,IF(N8=0,"错误",IF(I8&gt;N8,N8/I8*(L8*1.16/(1.16-0.13)-0.3)+(1-N8/I8)*(L8*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.4865420560747671</v>
+      </c>
+      <c r="W8" s="256" t="str">
+        <f>IF($D8="","",VLOOKUP(B8,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X8" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y8" s="462"/>
+      <c r="Z8" s="326"/>
+      <c r="AA8" s="326"/>
+      <c r="AB8" s="350"/>
+      <c r="AC8" s="466" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD8" s="327"/>
+      <c r="AE8" s="327"/>
+    </row>
+    <row r="9" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B9" s="522"/>
+      <c r="C9" s="472" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="509"/>
+      <c r="E9" s="466"/>
+      <c r="F9" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="350"/>
+      <c r="H9" s="516">
+        <v>43237</v>
+      </c>
+      <c r="I9" s="465">
+        <v>13079.5</v>
+      </c>
+      <c r="J9" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="206">
+        <f t="shared" si="2"/>
+        <v>0.23964147678292838</v>
+      </c>
+      <c r="L9" s="437">
+        <f>VLOOKUP(H9,汇率!$B$3:F107,5,0)</f>
+        <v>6.35</v>
+      </c>
+      <c r="M9" s="321"/>
+      <c r="N9" s="468" t="s">
+        <v>300</v>
+      </c>
+      <c r="O9" s="243">
+        <f t="shared" si="3"/>
+        <v>1195.8109691468126</v>
+      </c>
+      <c r="P9" s="243"/>
+      <c r="Q9" s="538">
+        <f t="shared" ref="Q9:Q12" si="7">$I9-$O9</f>
+        <v>11883.689030853187</v>
+      </c>
+      <c r="R9" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S9" s="532"/>
+      <c r="T9" s="323"/>
+      <c r="U9" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V9" s="254">
+        <f>IF(N9="N",L9*1.16/(1.16-0.09)-0.3,IF(N9=0,"错误",IF(I9&gt;N9,N9/I9*(L9*1.16/(1.16-0.13)-0.3)+(1-N9/I9)*(L9*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.58411214953271</v>
+      </c>
+      <c r="W9" s="256" t="str">
+        <f>IF($D9="","",VLOOKUP(B9,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X9" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y9" s="462"/>
+      <c r="Z9" s="326"/>
+      <c r="AA9" s="326"/>
+      <c r="AB9" s="350"/>
+      <c r="AC9" s="466" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD9" s="327"/>
+      <c r="AE9" s="327"/>
+    </row>
+    <row r="10" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B10" s="522"/>
+      <c r="C10" s="472" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="509"/>
+      <c r="E10" s="466"/>
+      <c r="F10" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="350"/>
+      <c r="H10" s="516">
+        <v>43250</v>
+      </c>
+      <c r="I10" s="465">
+        <v>14336.82</v>
+      </c>
+      <c r="J10" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="206">
+        <f t="shared" si="2"/>
+        <v>0.26267798594525965</v>
+      </c>
+      <c r="L10" s="437">
+        <f>VLOOKUP(H10,汇率!$B$3:F108,5,0)</f>
+        <v>6.41</v>
+      </c>
+      <c r="M10" s="321"/>
+      <c r="N10" s="468" t="s">
+        <v>300</v>
+      </c>
+      <c r="O10" s="243">
+        <f t="shared" si="3"/>
+        <v>1310.7631498668457</v>
+      </c>
+      <c r="P10" s="243"/>
+      <c r="Q10" s="538">
+        <f t="shared" si="7"/>
+        <v>13026.056850133155</v>
+      </c>
+      <c r="R10" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S10" s="532"/>
+      <c r="T10" s="323"/>
+      <c r="U10" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V10" s="254">
+        <f>IF(N10="N",L10*1.16/(1.16-0.09)-0.3,IF(N10=0,"错误",IF(I10&gt;N10,N10/I10*(L10*1.16/(1.16-0.13)-0.3)+(1-N10/I10)*(L10*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.6491588785046742</v>
+      </c>
+      <c r="W10" s="256" t="str">
+        <f>IF($D10="","",VLOOKUP(B10,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X10" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y10" s="462"/>
+      <c r="Z10" s="326"/>
+      <c r="AA10" s="326"/>
+      <c r="AB10" s="350"/>
+      <c r="AC10" s="466" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD10" s="327"/>
+      <c r="AE10" s="327"/>
+    </row>
+    <row r="11" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B11" s="522"/>
+      <c r="C11" s="472" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="509"/>
+      <c r="E11" s="466"/>
+      <c r="F11" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="350"/>
+      <c r="H11" s="516">
+        <v>43272</v>
+      </c>
+      <c r="I11" s="465">
+        <v>10456.6</v>
+      </c>
+      <c r="J11" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="206">
+        <f t="shared" si="2"/>
+        <v>0.19158492802694055</v>
+      </c>
+      <c r="L11" s="437">
+        <f>VLOOKUP(H11,汇率!$B$3:F109,5,0)</f>
+        <v>6.48</v>
+      </c>
+      <c r="M11" s="321"/>
+      <c r="N11" s="468" t="s">
+        <v>300</v>
+      </c>
+      <c r="O11" s="243">
+        <f t="shared" si="3"/>
+        <v>956.0087908544333</v>
+      </c>
+      <c r="P11" s="243"/>
+      <c r="Q11" s="538">
+        <f t="shared" si="7"/>
+        <v>9500.5912091455666</v>
+      </c>
+      <c r="R11" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S11" s="532"/>
+      <c r="T11" s="323"/>
+      <c r="U11" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V11" s="254">
+        <f>IF(N11="N",L11*1.16/(1.16-0.09)-0.3,IF(N11=0,"错误",IF(I11&gt;N11,N11/I11*(L11*1.16/(1.16-0.13)-0.3)+(1-N11/I11)*(L11*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.7250467289719635</v>
+      </c>
+      <c r="W11" s="256" t="str">
+        <f>IF($D11="","",VLOOKUP(B11,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X11" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y11" s="462"/>
+      <c r="Z11" s="326"/>
+      <c r="AA11" s="326"/>
+      <c r="AB11" s="350"/>
+      <c r="AC11" s="466" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD11" s="327"/>
+      <c r="AE11" s="327"/>
+    </row>
+    <row r="12" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B12" s="522"/>
+      <c r="C12" s="472" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="509"/>
+      <c r="E12" s="465">
+        <v>54651.45</v>
+      </c>
+      <c r="F12" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="350">
+        <f>I13</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="516">
+        <v>43279</v>
+      </c>
+      <c r="I12" s="465">
+        <v>11286.98</v>
+      </c>
+      <c r="J12" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="206">
+        <f t="shared" si="2"/>
+        <v>0.20679907914059228</v>
+      </c>
+      <c r="L12" s="437">
+        <f>VLOOKUP(H12,汇率!$B$3:F110,5,0)</f>
+        <v>6.61</v>
+      </c>
+      <c r="M12" s="321"/>
+      <c r="N12" s="468" t="s">
+        <v>300</v>
+      </c>
+      <c r="O12" s="243">
+        <f t="shared" si="3"/>
+        <v>1031.9274049115554</v>
+      </c>
+      <c r="P12" s="243"/>
+      <c r="Q12" s="538">
+        <f t="shared" si="7"/>
+        <v>10255.052595088444</v>
+      </c>
+      <c r="R12" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S12" s="532"/>
+      <c r="T12" s="323"/>
+      <c r="U12" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V12" s="254">
+        <f>IF(N12="N",L12*1.16/(1.16-0.09)-0.3,IF(N12=0,"错误",IF(I12&gt;N12,N12/I12*(L12*1.16/(1.16-0.13)-0.3)+(1-N12/I12)*(L12*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.8659813084112162</v>
+      </c>
+      <c r="W12" s="256" t="str">
+        <f>IF($D12="","",VLOOKUP(B12,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X12" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y12" s="462"/>
+      <c r="Z12" s="326"/>
+      <c r="AA12" s="326"/>
+      <c r="AB12" s="350"/>
+      <c r="AC12" s="466" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD12" s="327"/>
+      <c r="AE12" s="327"/>
+    </row>
+    <row r="13" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A13" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B13" s="524">
+        <v>43191</v>
+      </c>
+      <c r="C13" s="510"/>
+      <c r="D13" s="473" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="354"/>
+      <c r="F13" s="365">
+        <f t="shared" si="0"/>
+        <v>54651.45</v>
+      </c>
+      <c r="G13" s="365">
+        <f>SUBTOTAL(9,G8:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="515"/>
+      <c r="I13" s="365"/>
+      <c r="J13" s="365">
+        <f t="shared" si="1"/>
+        <v>54579.45</v>
+      </c>
+      <c r="K13" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L13" s="438"/>
+      <c r="M13" s="466">
+        <v>262942.3</v>
+      </c>
+      <c r="N13" s="404"/>
+      <c r="O13" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P13" s="471">
+        <v>4990</v>
+      </c>
+      <c r="Q13" s="538"/>
+      <c r="R13" s="368">
+        <f t="shared" si="4"/>
+        <v>49589.45</v>
+      </c>
+      <c r="S13" s="498">
+        <v>10530</v>
+      </c>
+      <c r="T13" s="369"/>
+      <c r="U13" s="255">
+        <f t="shared" si="6"/>
+        <v>5.5423010640368053</v>
+      </c>
+      <c r="V13" s="255">
+        <f>V8*K8+V9*K9+V10*K10+V11*K11+V12*K12</f>
+        <v>6.6768013453216541</v>
+      </c>
+      <c r="W13" s="256">
+        <f>IF($D13="","",VLOOKUP(B13,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="X13" s="252">
+        <f t="shared" si="5"/>
+        <v>444.44579434402362</v>
+      </c>
+      <c r="Y13" s="520">
+        <f>下单月成本!O8</f>
+        <v>2287.4179175449608</v>
+      </c>
+      <c r="Z13" s="252">
+        <f>X13*0.7+Y13</f>
+        <v>2598.5299735857775</v>
+      </c>
+      <c r="AA13" s="252">
+        <f>IF(SUMIF(AB8:AB24,AB13,Z8:Z24)&gt;5000,Z13*0.875,Z13)</f>
+        <v>2273.7137268875554</v>
+      </c>
+      <c r="AB13" s="466" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="466" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD13" s="469">
+        <v>0.1</v>
+      </c>
+      <c r="AE13" s="469">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B14" s="522"/>
+      <c r="C14" s="320" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="320"/>
+      <c r="E14" s="350"/>
+      <c r="F14" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="350"/>
+      <c r="H14" s="514">
+        <v>43218</v>
+      </c>
+      <c r="I14" s="445">
+        <v>21055</v>
+      </c>
+      <c r="J14" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="206">
+        <f t="shared" si="2"/>
+        <v>0.50238606537819142</v>
+      </c>
+      <c r="L14" s="437">
+        <f>VLOOKUP(H14,汇率!$B$3:F112,5,0)</f>
+        <v>6.32</v>
+      </c>
+      <c r="M14" s="321"/>
+      <c r="N14" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O14" s="243">
+        <f t="shared" si="3"/>
+        <v>2431.0461703650681</v>
+      </c>
+      <c r="P14" s="243"/>
+      <c r="Q14" s="538">
+        <f>I14-O14</f>
+        <v>18623.953829634931</v>
+      </c>
+      <c r="R14" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S14" s="532"/>
+      <c r="T14" s="323"/>
+      <c r="U14" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V14" s="254">
+        <f>IF(N14="N",L14*1.16/(1.16-0.09)-0.3,IF(N14=0,"错误",IF(I14&gt;N14,N14/I14*(L14*1.16/(1.16-0.13)-0.3)+(1-N14/I14)*(L14*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.5515887850467305</v>
+      </c>
+      <c r="W14" s="256" t="str">
+        <f>IF($D14="","",VLOOKUP(B14,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X14" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y14" s="462"/>
+      <c r="Z14" s="326"/>
+      <c r="AA14" s="326"/>
+      <c r="AB14" s="350"/>
+      <c r="AC14" s="350" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD14" s="327"/>
+      <c r="AE14" s="327"/>
+    </row>
+    <row r="15" spans="1:31" s="328" customFormat="1" ht="12.6" customHeight="1" outlineLevel="2">
+      <c r="B15" s="522"/>
+      <c r="C15" s="320" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="320"/>
+      <c r="E15" s="445">
+        <v>41930</v>
+      </c>
+      <c r="F15" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="350">
+        <f>I16</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="514">
+        <v>43273</v>
+      </c>
+      <c r="I15" s="445">
+        <v>20855</v>
+      </c>
+      <c r="J15" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="206">
+        <f t="shared" si="2"/>
+        <v>0.49761393462180864</v>
+      </c>
+      <c r="L15" s="437">
+        <f>VLOOKUP(H15,汇率!$B$3:F113,5,0)</f>
+        <v>6.48</v>
+      </c>
+      <c r="M15" s="321"/>
+      <c r="N15" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O15" s="243">
+        <f t="shared" si="3"/>
+        <v>2407.9538296349319</v>
+      </c>
+      <c r="P15" s="243"/>
+      <c r="Q15" s="538">
+        <f>I15-O15</f>
+        <v>18447.046170365069</v>
+      </c>
+      <c r="R15" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S15" s="532"/>
+      <c r="T15" s="323"/>
+      <c r="U15" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V15" s="254">
+        <f>IF(N15="N",L15*1.16/(1.16-0.09)-0.3,IF(N15=0,"错误",IF(I15&gt;N15,N15/I15*(L15*1.16/(1.16-0.13)-0.3)+(1-N15/I15)*(L15*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.7250467289719635</v>
+      </c>
+      <c r="W15" s="256" t="str">
+        <f>IF($D15="","",VLOOKUP(B15,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X15" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y15" s="462"/>
+      <c r="Z15" s="326"/>
+      <c r="AA15" s="326"/>
+      <c r="AB15" s="350"/>
+      <c r="AC15" s="350" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD15" s="327"/>
+      <c r="AE15" s="327"/>
+    </row>
+    <row r="16" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A16" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B16" s="523">
+        <v>43191</v>
+      </c>
+      <c r="C16" s="364"/>
+      <c r="D16" s="364" t="s">
+        <v>350</v>
+      </c>
+      <c r="E16" s="365"/>
+      <c r="F16" s="365">
+        <f t="shared" si="0"/>
+        <v>41930</v>
+      </c>
+      <c r="G16" s="365">
+        <f>SUBTOTAL(9,G14:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="515"/>
+      <c r="I16" s="365"/>
+      <c r="J16" s="365">
+        <f t="shared" si="1"/>
+        <v>41910</v>
+      </c>
+      <c r="K16" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L16" s="438"/>
+      <c r="M16" s="365">
+        <v>195317.95</v>
+      </c>
+      <c r="N16" s="404"/>
+      <c r="O16" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P16" s="368">
+        <v>4839</v>
+      </c>
+      <c r="Q16" s="539"/>
+      <c r="R16" s="368">
+        <f t="shared" si="4"/>
+        <v>37071</v>
+      </c>
+      <c r="S16" s="533">
+        <v>5730</v>
+      </c>
+      <c r="T16" s="369"/>
+      <c r="U16" s="255">
+        <f t="shared" si="6"/>
+        <v>5.4504380715383993</v>
+      </c>
+      <c r="V16" s="255">
+        <f>V14*K14+V15*K15</f>
+        <v>6.637903875014775</v>
+      </c>
+      <c r="W16" s="256">
+        <f>IF($D16="","",VLOOKUP(B16,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="X16" s="252">
+        <f t="shared" si="5"/>
+        <v>3813.3622001681802</v>
+      </c>
+      <c r="Y16" s="252">
+        <v>-2000</v>
+      </c>
+      <c r="Z16" s="252">
+        <f>SUM(X16:Y16)*0.7</f>
+        <v>1269.353540117726</v>
+      </c>
+      <c r="AA16" s="252">
+        <f>IF(SUMIF(AB14:AB35,AB16,Z14:Z35)&gt;5000,Z16*0.875,Z16)</f>
+        <v>1110.6843476030103</v>
+      </c>
+      <c r="AB16" s="365" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC16" s="365" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD16" s="370">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B17" s="522"/>
+      <c r="C17" s="320" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="320"/>
+      <c r="E17" s="350"/>
+      <c r="F17" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="350"/>
+      <c r="H17" s="514">
+        <v>43242</v>
+      </c>
+      <c r="I17" s="445">
+        <v>10846.5</v>
+      </c>
+      <c r="J17" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="206">
+        <f t="shared" si="2"/>
+        <v>0.24536817102137767</v>
+      </c>
+      <c r="L17" s="437">
+        <f>VLOOKUP(H17,汇率!$B$3:F115,5,0)</f>
+        <v>6.36</v>
+      </c>
+      <c r="M17" s="321"/>
+      <c r="N17" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O17" s="243">
+        <f t="shared" si="3"/>
+        <v>687.03087885985747</v>
+      </c>
+      <c r="P17" s="243"/>
+      <c r="Q17" s="538">
+        <f>I17-O17</f>
+        <v>10159.469121140142</v>
+      </c>
+      <c r="R17" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S17" s="532"/>
+      <c r="T17" s="323"/>
+      <c r="U17" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V17" s="254">
+        <f>IF(N17="N",L17*1.16/(1.16-0.09)-0.3,IF(N17=0,"错误",IF(I17&gt;N17,N17/I17*(L17*1.16/(1.16-0.13)-0.3)+(1-N17/I17)*(L17*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.5949532710280385</v>
+      </c>
+      <c r="W17" s="256" t="str">
+        <f>IF($D17="","",VLOOKUP(B17,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X17" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y17" s="462"/>
+      <c r="Z17" s="326"/>
+      <c r="AA17" s="326"/>
+      <c r="AB17" s="350"/>
+      <c r="AC17" s="350" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD17" s="327"/>
+      <c r="AE17" s="327"/>
+    </row>
+    <row r="18" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B18" s="522"/>
+      <c r="C18" s="320" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="320"/>
+      <c r="E18" s="445">
+        <v>44205</v>
+      </c>
+      <c r="F18" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="350">
+        <f>I19</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="514">
+        <v>43280</v>
+      </c>
+      <c r="I18" s="445">
+        <v>33358.5</v>
+      </c>
+      <c r="J18" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="206">
+        <f t="shared" si="2"/>
+        <v>0.75463182897862235</v>
+      </c>
+      <c r="L18" s="437">
+        <f>VLOOKUP(H18,汇率!$B$3:F116,5,0)</f>
+        <v>6.61</v>
+      </c>
+      <c r="M18" s="321"/>
+      <c r="N18" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O18" s="243">
+        <f t="shared" si="3"/>
+        <v>2112.9691211401428</v>
+      </c>
+      <c r="P18" s="243"/>
+      <c r="Q18" s="538">
+        <f>I18-O18</f>
+        <v>31245.530878859856</v>
+      </c>
+      <c r="R18" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S18" s="532"/>
+      <c r="T18" s="323"/>
+      <c r="U18" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V18" s="254">
+        <f>IF(N18="N",L18*1.16/(1.16-0.09)-0.3,IF(N18=0,"错误",IF(I18&gt;N18,N18/I18*(L18*1.16/(1.16-0.13)-0.3)+(1-N18/I18)*(L18*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.8659813084112162</v>
+      </c>
+      <c r="W18" s="256" t="str">
+        <f>IF($D18="","",VLOOKUP(B18,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X18" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y18" s="462"/>
+      <c r="Z18" s="326"/>
+      <c r="AA18" s="326"/>
+      <c r="AB18" s="350"/>
+      <c r="AC18" s="350" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD18" s="327"/>
+      <c r="AE18" s="327"/>
+    </row>
+    <row r="19" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A19" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B19" s="523">
+        <v>43221</v>
+      </c>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="365"/>
+      <c r="F19" s="365">
+        <f t="shared" si="0"/>
+        <v>44205</v>
+      </c>
+      <c r="G19" s="365">
+        <f>SUBTOTAL(9,G17:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="515"/>
+      <c r="I19" s="365"/>
+      <c r="J19" s="365">
+        <f t="shared" si="1"/>
+        <v>44205</v>
+      </c>
+      <c r="K19" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L19" s="438"/>
+      <c r="M19" s="365">
+        <v>185505</v>
+      </c>
+      <c r="N19" s="404"/>
+      <c r="O19" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P19" s="368">
+        <v>2800</v>
+      </c>
+      <c r="Q19" s="539"/>
+      <c r="R19" s="368">
+        <f t="shared" si="4"/>
+        <v>41405</v>
+      </c>
+      <c r="S19" s="533">
+        <v>5060</v>
+      </c>
+      <c r="T19" s="369"/>
+      <c r="U19" s="255">
+        <f t="shared" si="6"/>
+        <v>4.6254757879483153</v>
+      </c>
+      <c r="V19" s="255">
+        <f>V17*K17+V18*K18</f>
+        <v>6.799479654582993</v>
+      </c>
+      <c r="W19" s="256">
+        <f>IF($D19="","",VLOOKUP(B19,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="X19" s="252">
+        <f t="shared" si="5"/>
+        <v>1433.6521274502206</v>
+      </c>
+      <c r="Y19" s="252">
+        <v>10000</v>
+      </c>
+      <c r="Z19" s="252">
+        <f>X19*0.7+Y19</f>
+        <v>11003.556489215154</v>
+      </c>
+      <c r="AA19" s="252">
+        <f>IF(SUMIF(AB15:AB38,AB19,Z15:Z38)&gt;5000,Z19*0.875,Z19)</f>
+        <v>9628.1119280632593</v>
+      </c>
+      <c r="AB19" s="365" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC19" s="365" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD19" s="370">
+        <v>0.1</v>
+      </c>
+      <c r="AE19" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B20" s="522"/>
+      <c r="C20" s="320" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="320"/>
+      <c r="E20" s="445">
+        <v>22345</v>
+      </c>
+      <c r="F20" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="350">
+        <f>I21</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="514">
+        <v>43257</v>
+      </c>
+      <c r="I20" s="445">
+        <v>22320</v>
+      </c>
+      <c r="J20" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="206">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="437">
+        <f>VLOOKUP(H20,汇率!$B$3:F118,5,0)</f>
+        <v>6.39</v>
+      </c>
+      <c r="M20" s="321"/>
+      <c r="N20" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O20" s="243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="243"/>
+      <c r="Q20" s="538">
+        <f>I20-O20</f>
+        <v>22320</v>
+      </c>
+      <c r="R20" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S20" s="532"/>
+      <c r="T20" s="323"/>
+      <c r="U20" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V20" s="254">
+        <f>IF(N20="N",L20*1.16/(1.16-0.09)-0.3,IF(N20=0,"错误",IF(I20&gt;N20,N20/I20*(L20*1.16/(1.16-0.13)-0.3)+(1-N20/I20)*(L20*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.6274766355140189</v>
+      </c>
+      <c r="W20" s="256" t="str">
+        <f>IF($D20="","",VLOOKUP(B20,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X20" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y20" s="462"/>
+      <c r="Z20" s="326"/>
+      <c r="AA20" s="326"/>
+      <c r="AB20" s="350"/>
+      <c r="AC20" s="350" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD20" s="327"/>
+      <c r="AE20" s="327"/>
+    </row>
+    <row r="21" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A21" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B21" s="523">
+        <v>43252</v>
+      </c>
+      <c r="C21" s="364"/>
+      <c r="D21" s="364" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="365"/>
+      <c r="F21" s="365">
+        <f t="shared" si="0"/>
+        <v>22345</v>
+      </c>
+      <c r="G21" s="365">
+        <f>SUBTOTAL(9,G20:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="515"/>
+      <c r="I21" s="365"/>
+      <c r="J21" s="365">
+        <f t="shared" si="1"/>
+        <v>22320</v>
+      </c>
+      <c r="K21" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L21" s="438"/>
+      <c r="M21" s="365" t="s">
+        <v>357</v>
+      </c>
+      <c r="N21" s="404"/>
+      <c r="O21" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P21" s="368">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="539"/>
+      <c r="R21" s="368">
+        <f t="shared" si="4"/>
+        <v>22320</v>
+      </c>
+      <c r="S21" s="533">
+        <v>3165</v>
+      </c>
+      <c r="T21" s="369"/>
+      <c r="U21" s="255">
+        <f t="shared" si="6"/>
+        <v>0.1425100806451613</v>
+      </c>
+      <c r="V21" s="255">
+        <f>V20*K20</f>
+        <v>6.6274766355140189</v>
+      </c>
+      <c r="W21" s="256">
+        <f>IF($D21="","",VLOOKUP(B21,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="X21" s="252">
+        <f t="shared" si="5"/>
+        <v>3353.561337616823</v>
+      </c>
+      <c r="Y21" s="252"/>
+      <c r="Z21" s="252">
+        <f>X21*0.7+Y21</f>
+        <v>2347.492936331776</v>
+      </c>
+      <c r="AA21" s="252">
+        <f>IF(SUMIF(AB18:AB39,AB21,Z18:Z39)&gt;5000,Z21*0.875,Z21)-0.04</f>
+        <v>2054.0163192903042</v>
+      </c>
+      <c r="AB21" s="365" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC21" s="365" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD21" s="370">
+        <v>0.1</v>
+      </c>
+      <c r="AE21" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B22" s="522"/>
+      <c r="C22" s="320" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="320"/>
+      <c r="E22" s="350"/>
+      <c r="F22" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="350"/>
+      <c r="H22" s="514">
+        <v>43188</v>
+      </c>
+      <c r="I22" s="445">
+        <v>19865.5</v>
+      </c>
+      <c r="J22" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="206">
+        <f t="shared" si="2"/>
+        <v>0.29971635913761108</v>
+      </c>
+      <c r="L22" s="437">
+        <f>VLOOKUP(H22,汇率!$B$3:F120,5,0)</f>
+        <v>6.28</v>
+      </c>
+      <c r="M22" s="321"/>
+      <c r="N22" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O22" s="243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="243"/>
+      <c r="Q22" s="538">
+        <f>I22-O22</f>
+        <v>19865.5</v>
+      </c>
+      <c r="R22" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S22" s="532"/>
+      <c r="T22" s="323"/>
+      <c r="U22" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V22" s="254">
+        <f>IF(N22="N",L22*1.16/(1.16-0.09)-0.3,IF(N22=0,"错误",IF(I22&gt;N22,N22/I22*(L22*1.16/(1.16-0.13)-0.3)+(1-N22/I22)*(L22*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.5082242990654215</v>
+      </c>
+      <c r="W22" s="256" t="str">
+        <f>IF($D22="","",VLOOKUP(B22,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X22" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y22" s="462"/>
+      <c r="Z22" s="326"/>
+      <c r="AA22" s="326"/>
+      <c r="AB22" s="350"/>
+      <c r="AC22" s="350" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD22" s="327"/>
+      <c r="AE22" s="327"/>
+    </row>
+    <row r="23" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B23" s="522"/>
+      <c r="C23" s="320" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="320"/>
+      <c r="E23" s="445">
+        <v>66375</v>
+      </c>
+      <c r="F23" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="350">
+        <f>I24</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="514">
+        <v>43252</v>
+      </c>
+      <c r="I23" s="445">
+        <v>46415.5</v>
+      </c>
+      <c r="J23" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="206">
+        <f t="shared" si="2"/>
+        <v>0.70028364086238892</v>
+      </c>
+      <c r="L23" s="437">
+        <f>VLOOKUP(H23,汇率!$B$3:F121,5,0)</f>
+        <v>6.4</v>
+      </c>
+      <c r="M23" s="321"/>
+      <c r="N23" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O23" s="243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="243"/>
+      <c r="Q23" s="538">
+        <f>I23-O23</f>
+        <v>46415.5</v>
+      </c>
+      <c r="R23" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S23" s="532"/>
+      <c r="T23" s="323"/>
+      <c r="U23" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V23" s="254">
+        <f>IF(N23="N",L23*1.16/(1.16-0.09)-0.3,IF(N23=0,"错误",IF(I23&gt;N23,N23/I23*(L23*1.16/(1.16-0.13)-0.3)+(1-N23/I23)*(L23*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.6383177570093466</v>
+      </c>
+      <c r="W23" s="256" t="str">
+        <f>IF($D23="","",VLOOKUP(B23,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X23" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y23" s="462"/>
+      <c r="Z23" s="326"/>
+      <c r="AA23" s="326"/>
+      <c r="AB23" s="350"/>
+      <c r="AC23" s="350" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD23" s="327"/>
+      <c r="AE23" s="327"/>
+    </row>
+    <row r="24" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A24" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B24" s="523">
+        <v>43160</v>
+      </c>
+      <c r="C24" s="364"/>
+      <c r="D24" s="364" t="s">
+        <v>353</v>
+      </c>
+      <c r="E24" s="365"/>
+      <c r="F24" s="365">
+        <f t="shared" si="0"/>
+        <v>66375</v>
+      </c>
+      <c r="G24" s="365">
+        <f>SUBTOTAL(9,G22:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="515"/>
+      <c r="I24" s="365"/>
+      <c r="J24" s="365">
+        <f t="shared" si="1"/>
+        <v>66281</v>
+      </c>
+      <c r="K24" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L24" s="438"/>
+      <c r="M24" s="365">
+        <v>376445</v>
+      </c>
+      <c r="N24" s="404"/>
+      <c r="O24" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P24" s="368">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="539"/>
+      <c r="R24" s="368">
+        <f t="shared" si="4"/>
+        <v>66281</v>
+      </c>
+      <c r="S24" s="533">
+        <v>11890</v>
+      </c>
+      <c r="T24" s="369"/>
+      <c r="U24" s="255">
+        <f t="shared" si="6"/>
+        <v>5.888213439748947</v>
+      </c>
+      <c r="V24" s="255">
+        <f>V22*K22+V23*K23</f>
+        <v>6.5993266194467708</v>
+      </c>
+      <c r="W24" s="256">
+        <f>IF($D24="","",VLOOKUP(B24,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X24" s="252">
+        <f t="shared" si="5"/>
+        <v>266.96856658878647</v>
+      </c>
+      <c r="Y24" s="252"/>
+      <c r="Z24" s="252">
+        <f>X24*0.7+Y24</f>
+        <v>186.87799661215053</v>
+      </c>
+      <c r="AA24" s="252">
+        <f>IF(SUMIF(AB21:AB40,AB24,Z21:Z40)&gt;5000,Z24*0.875,Z24)</f>
+        <v>163.5182470356317</v>
+      </c>
+      <c r="AB24" s="365" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC24" s="365" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD24" s="370">
+        <v>0.1</v>
+      </c>
+      <c r="AE24" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B25" s="522"/>
+      <c r="C25" s="320" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="320"/>
+      <c r="E25" s="350"/>
+      <c r="F25" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="350"/>
+      <c r="H25" s="514">
+        <v>43202</v>
+      </c>
+      <c r="I25" s="445">
+        <v>17465.25</v>
+      </c>
+      <c r="J25" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="206">
+        <f t="shared" si="2"/>
+        <v>0.49028703768685522</v>
+      </c>
+      <c r="L25" s="437">
+        <f>VLOOKUP(H25,汇率!$B$3:F123,5,0)</f>
+        <v>6.27</v>
+      </c>
+      <c r="M25" s="321"/>
+      <c r="N25" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O25" s="243">
+        <f t="shared" si="3"/>
+        <v>1472.3319741736261</v>
+      </c>
+      <c r="P25" s="243"/>
+      <c r="Q25" s="538">
+        <f>I25-O25</f>
+        <v>15992.918025826373</v>
+      </c>
+      <c r="R25" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S25" s="532"/>
+      <c r="T25" s="323"/>
+      <c r="U25" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V25" s="254">
+        <f>IF(N25="N",L25*1.16/(1.16-0.09)-0.3,IF(N25=0,"错误",IF(I25&gt;N25,N25/I25*(L25*1.16/(1.16-0.13)-0.3)+(1-N25/I25)*(L25*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.4973831775700939</v>
+      </c>
+      <c r="W25" s="256" t="str">
+        <f>IF($D25="","",VLOOKUP(B25,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X25" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y25" s="462"/>
+      <c r="Z25" s="326"/>
+      <c r="AA25" s="326"/>
+      <c r="AB25" s="350"/>
+      <c r="AC25" s="350" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD25" s="327"/>
+      <c r="AE25" s="327"/>
+    </row>
+    <row r="26" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B26" s="522"/>
+      <c r="C26" s="320" t="s">
+        <v>354</v>
+      </c>
+      <c r="D26" s="320"/>
+      <c r="E26" s="445">
+        <v>35674.5</v>
+      </c>
+      <c r="F26" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="350">
+        <f>I27</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="514">
+        <v>43272</v>
+      </c>
+      <c r="I26" s="445">
+        <v>18157.25</v>
+      </c>
+      <c r="J26" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="206">
+        <f t="shared" si="2"/>
+        <v>0.50971296231314478</v>
+      </c>
+      <c r="L26" s="437">
+        <f>VLOOKUP(H26,汇率!$B$3:F124,5,0)</f>
+        <v>6.48</v>
+      </c>
+      <c r="M26" s="321"/>
+      <c r="N26" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O26" s="243">
+        <f t="shared" si="3"/>
+        <v>1530.6680258263739</v>
+      </c>
+      <c r="P26" s="243"/>
+      <c r="Q26" s="538">
+        <f>I26-O26</f>
+        <v>16626.581974173627</v>
+      </c>
+      <c r="R26" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S26" s="532"/>
+      <c r="T26" s="323"/>
+      <c r="U26" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V26" s="254">
+        <f>IF(N26="N",L26*1.16/(1.16-0.09)-0.3,IF(N26=0,"错误",IF(I26&gt;N26,N26/I26*(L26*1.16/(1.16-0.13)-0.3)+(1-N26/I26)*(L26*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.7250467289719635</v>
+      </c>
+      <c r="W26" s="256" t="str">
+        <f>IF($D26="","",VLOOKUP(B26,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X26" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y26" s="462"/>
+      <c r="Z26" s="326"/>
+      <c r="AA26" s="326"/>
+      <c r="AB26" s="350"/>
+      <c r="AC26" s="350" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD26" s="327"/>
+      <c r="AE26" s="327"/>
+    </row>
+    <row r="27" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A27" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B27" s="523">
+        <v>43191</v>
+      </c>
+      <c r="C27" s="364"/>
+      <c r="D27" s="364" t="s">
+        <v>354</v>
+      </c>
+      <c r="E27" s="365"/>
+      <c r="F27" s="365">
+        <f t="shared" si="0"/>
+        <v>35674.5</v>
+      </c>
+      <c r="G27" s="365">
+        <f>SUBTOTAL(9,G25:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="515"/>
+      <c r="I27" s="365"/>
+      <c r="J27" s="365">
+        <f t="shared" si="1"/>
+        <v>35622.5</v>
+      </c>
+      <c r="K27" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L27" s="438"/>
+      <c r="M27" s="365">
+        <v>156922</v>
+      </c>
+      <c r="N27" s="404"/>
+      <c r="O27" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P27" s="368">
+        <v>3003</v>
+      </c>
+      <c r="Q27" s="539"/>
+      <c r="R27" s="368">
+        <f t="shared" si="4"/>
+        <v>32619.5</v>
+      </c>
+      <c r="S27" s="533">
+        <v>4770</v>
+      </c>
+      <c r="T27" s="369"/>
+      <c r="U27" s="255">
+        <f t="shared" si="6"/>
+        <v>4.9816968377810813</v>
+      </c>
+      <c r="V27" s="255">
+        <f>V25*K25+V26*K26</f>
+        <v>6.6134262407658717</v>
+      </c>
+      <c r="W27" s="256">
+        <f>IF($D27="","",VLOOKUP(B27,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="X27" s="252">
+        <f t="shared" si="5"/>
+        <v>697.83663151655935</v>
+      </c>
+      <c r="Y27" s="252">
+        <f>下单月成本!O9</f>
+        <v>1459.8164203298688</v>
+      </c>
+      <c r="Z27" s="252">
+        <f>X27*0.7+Y27</f>
+        <v>1948.3020623914604</v>
+      </c>
+      <c r="AA27" s="252">
+        <f>IF(SUMIF(AB26:AB48,AB27,Z26:Z48)&gt;5000,Z27*0.875,Z27)</f>
+        <v>1704.7643045925279</v>
+      </c>
+      <c r="AB27" s="365" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC27" s="365" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD27" s="370">
+        <v>0.1</v>
+      </c>
+      <c r="AE27" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B28" s="522"/>
+      <c r="C28" s="320" t="s">
+        <v>355</v>
+      </c>
+      <c r="D28" s="320"/>
+      <c r="E28" s="350"/>
+      <c r="F28" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="350"/>
+      <c r="H28" s="514">
+        <v>43226</v>
+      </c>
+      <c r="I28" s="445">
+        <v>19399.7</v>
+      </c>
+      <c r="J28" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="206">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="437">
+        <f>VLOOKUP(H28,汇率!$B$3:F123,5,0)</f>
+        <v>6.35</v>
+      </c>
+      <c r="M28" s="321"/>
+      <c r="N28" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O28" s="243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="243"/>
+      <c r="Q28" s="538">
+        <f>I28-O28</f>
+        <v>19399.7</v>
+      </c>
+      <c r="R28" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S28" s="532"/>
+      <c r="T28" s="323"/>
+      <c r="U28" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V28" s="254">
+        <f>IF(N28="N",L28*1.16/(1.16-0.09)-0.3,IF(N28=0,"错误",IF(I28&gt;N28,N28/I28*(L28*1.16/(1.16-0.13)-0.3)+(1-N28/I28)*(L28*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.58411214953271</v>
+      </c>
+      <c r="W28" s="256" t="str">
+        <f>IF($D28="","",VLOOKUP(B28,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X28" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y28" s="462"/>
+      <c r="Z28" s="326"/>
+      <c r="AA28" s="326"/>
+      <c r="AB28" s="350"/>
+      <c r="AC28" s="350" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD28" s="327"/>
+      <c r="AE28" s="327"/>
+    </row>
+    <row r="29" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B29" s="522"/>
+      <c r="C29" s="320" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="320"/>
+      <c r="E29" s="445">
+        <v>38799.4</v>
+      </c>
+      <c r="F29" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="350">
+        <f>I30</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="514">
+        <v>43280</v>
+      </c>
+      <c r="I29" s="445">
+        <v>19399.7</v>
+      </c>
+      <c r="J29" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="206">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="437">
+        <f>VLOOKUP(H29,汇率!$B$3:F124,5,0)</f>
+        <v>6.61</v>
+      </c>
+      <c r="M29" s="321"/>
+      <c r="N29" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O29" s="243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="243"/>
+      <c r="Q29" s="538">
+        <f>I29-O29</f>
+        <v>19399.7</v>
+      </c>
+      <c r="R29" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S29" s="532"/>
+      <c r="T29" s="323"/>
+      <c r="U29" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V29" s="254">
+        <f>IF(N29="N",L29*1.16/(1.16-0.09)-0.3,IF(N29=0,"错误",IF(I29&gt;N29,N29/I29*(L29*1.16/(1.16-0.13)-0.3)+(1-N29/I29)*(L29*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.8659813084112162</v>
+      </c>
+      <c r="W29" s="256" t="str">
+        <f>IF($D29="","",VLOOKUP(B29,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X29" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y29" s="462"/>
+      <c r="Z29" s="326"/>
+      <c r="AA29" s="326"/>
+      <c r="AB29" s="350"/>
+      <c r="AC29" s="350" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD29" s="327"/>
+      <c r="AE29" s="327"/>
+    </row>
+    <row r="30" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A30" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B30" s="523">
+        <v>43221</v>
+      </c>
+      <c r="C30" s="364"/>
+      <c r="D30" s="364" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" s="365"/>
+      <c r="F30" s="365">
+        <f t="shared" si="0"/>
+        <v>38799.4</v>
+      </c>
+      <c r="G30" s="365">
+        <f>SUBTOTAL(9,G28:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="515"/>
+      <c r="I30" s="365"/>
+      <c r="J30" s="365">
+        <f t="shared" si="1"/>
+        <v>38799.4</v>
+      </c>
+      <c r="K30" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L30" s="438"/>
+      <c r="M30" s="365">
+        <v>203937.5</v>
+      </c>
+      <c r="N30" s="404"/>
+      <c r="O30" s="243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P30" s="368">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="539"/>
+      <c r="R30" s="368">
+        <f t="shared" si="4"/>
+        <v>38799.4</v>
+      </c>
+      <c r="S30" s="533">
+        <v>5968</v>
+      </c>
+      <c r="T30" s="369"/>
+      <c r="U30" s="255">
+        <f t="shared" si="6"/>
+        <v>5.4370693232369565</v>
+      </c>
+      <c r="V30" s="255">
+        <f>V28*K28+V29*K29</f>
+        <v>6.7250467289719627</v>
+      </c>
+      <c r="W30" s="256">
+        <f>IF($D30="","",VLOOKUP(B30,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="X30" s="252">
+        <f t="shared" si="5"/>
+        <v>4840.0059890186994</v>
+      </c>
+      <c r="Y30" s="252">
+        <v>-2400</v>
+      </c>
+      <c r="Z30" s="252">
+        <f>X30*0.7+Y30</f>
+        <v>988.00419231308933</v>
+      </c>
+      <c r="AA30" s="252">
+        <f>IF(SUMIF(AB24:AB48,AB30,Z24:Z48)&gt;5000,Z30*0.875,Z30)</f>
+        <v>864.50366827395317</v>
+      </c>
+      <c r="AB30" s="365" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC30" s="365" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD30" s="370">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B31" s="522"/>
+      <c r="C31" s="320"/>
+      <c r="D31" s="320"/>
+      <c r="E31" s="445"/>
+      <c r="F31" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="350"/>
+      <c r="H31" s="514"/>
+      <c r="I31" s="445"/>
+      <c r="J31" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L31" s="437"/>
+      <c r="M31" s="321"/>
+      <c r="N31" s="403"/>
+      <c r="O31" s="243"/>
+      <c r="P31" s="243"/>
+      <c r="Q31" s="538"/>
+      <c r="R31" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S31" s="532"/>
+      <c r="T31" s="323"/>
+      <c r="U31" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V31" s="254"/>
+      <c r="W31" s="256" t="str">
+        <f>IF($D31="","",VLOOKUP(B31,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X31" s="252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y31" s="462"/>
+      <c r="Z31" s="326"/>
+      <c r="AA31" s="326"/>
+      <c r="AB31" s="350"/>
+      <c r="AC31" s="350"/>
+      <c r="AD31" s="327"/>
+      <c r="AE31" s="327"/>
+    </row>
+    <row r="32" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A32" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B32" s="523">
+        <v>43252</v>
+      </c>
+      <c r="C32" s="364"/>
+      <c r="D32" s="364"/>
+      <c r="E32" s="365"/>
+      <c r="F32" s="365">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="365"/>
+      <c r="H32" s="515"/>
+      <c r="I32" s="365"/>
+      <c r="J32" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L32" s="438"/>
+      <c r="M32" s="365"/>
+      <c r="N32" s="404"/>
+      <c r="O32" s="368"/>
+      <c r="P32" s="368"/>
+      <c r="Q32" s="539"/>
+      <c r="R32" s="368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S32" s="533"/>
+      <c r="T32" s="369"/>
+      <c r="U32" s="255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V32" s="255"/>
+      <c r="W32" s="256" t="str">
+        <f>IF($D32="","",VLOOKUP(B32,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X32" s="252" t="str">
+        <f>IF($D32="","",$R32*(V32-U32-W32)*AD32*AE32)</f>
+        <v/>
+      </c>
+      <c r="Y32" s="252">
+        <f>下单月成本!O7</f>
+        <v>252.76566212517022</v>
+      </c>
+      <c r="Z32" s="252" t="e">
+        <f>X32*0.7+Y32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA32" s="252" t="e">
+        <f>IF(SUMIF(AB26:AB50,AB32,Z26:Z50)&gt;5000,Z32*0.875,Z32)+0.03</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB32" s="365" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC32" s="365"/>
+      <c r="AD32" s="370"/>
+      <c r="AE32" s="370"/>
+    </row>
+    <row r="33" spans="1:31" s="328" customFormat="1" ht="21.6" customHeight="1">
+      <c r="A33" s="385"/>
+      <c r="B33" s="525"/>
+      <c r="C33" s="386"/>
+      <c r="D33" s="386" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="451"/>
+      <c r="F33" s="451">
+        <f>SUBTOTAL(9,F2:F31)</f>
+        <v>376372.75</v>
+      </c>
+      <c r="G33" s="451">
+        <f>SUBTOTAL(9,G2:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="517"/>
+      <c r="I33" s="451"/>
+      <c r="J33" s="451">
+        <f>SUBTOTAL(9,J2:J31)</f>
+        <v>376006.02</v>
+      </c>
+      <c r="K33" s="453"/>
+      <c r="L33" s="454"/>
+      <c r="M33" s="451">
+        <f>SUBTOTAL(9,M2:M32)</f>
+        <v>1696856.49</v>
+      </c>
+      <c r="N33" s="453"/>
+      <c r="O33" s="455">
+        <f>SUM(O4,O7,O13,O16,O19,O21,O24,O27,O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="455">
+        <f>SUM(P4,P7,P13,P16,P19,P21,P24,P27,P32)</f>
+        <v>22711</v>
+      </c>
+      <c r="Q33" s="540">
+        <f>SUBTOTAL(9,Q2:Q31)</f>
+        <v>353295.02</v>
+      </c>
+      <c r="R33" s="455">
+        <f>SUBTOTAL(9,R2:R31)</f>
+        <v>353295.02</v>
+      </c>
+      <c r="S33" s="534">
+        <f>SUBTOTAL(9,S2:S32)</f>
+        <v>62138</v>
+      </c>
+      <c r="T33" s="359"/>
+      <c r="U33" s="360"/>
+      <c r="V33" s="361"/>
+      <c r="W33" s="361"/>
+      <c r="X33" s="417">
+        <f>SUM(X2:X32)</f>
+        <v>17283.282575667716</v>
+      </c>
+      <c r="Y33" s="418">
+        <f>SUM(Y2:Y32)</f>
+        <v>9600</v>
+      </c>
+      <c r="Z33" s="417" t="e">
+        <f>SUM(Z2:Z32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA33" s="417" t="e">
+        <f>SUM(AA2:AA32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB33" s="355"/>
+      <c r="AC33" s="362"/>
+      <c r="AD33" s="363"/>
+      <c r="AE33" s="363"/>
+    </row>
+    <row r="34" spans="1:31" s="338" customFormat="1" ht="12.75">
+      <c r="A34" s="331"/>
+      <c r="B34" s="526"/>
+      <c r="C34" s="331"/>
+      <c r="D34" s="331"/>
+      <c r="E34" s="332"/>
+      <c r="F34" s="332"/>
+      <c r="G34" s="332"/>
+      <c r="H34" s="518"/>
+      <c r="I34" s="332"/>
+      <c r="J34" s="332"/>
+      <c r="K34" s="334"/>
+      <c r="L34" s="440"/>
+      <c r="M34" s="335"/>
+      <c r="N34" s="406"/>
+      <c r="O34" s="332"/>
+      <c r="P34" s="332"/>
+      <c r="Q34" s="541"/>
+      <c r="R34" s="332"/>
+      <c r="S34" s="535"/>
+      <c r="T34" s="336"/>
+      <c r="U34" s="335"/>
+      <c r="V34" s="335"/>
+      <c r="W34" s="335"/>
+      <c r="X34" s="335"/>
+      <c r="Y34" s="463"/>
+      <c r="Z34" s="335"/>
+      <c r="AA34" s="335"/>
+      <c r="AB34" s="337"/>
+      <c r="AC34" s="420" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD34" s="337"/>
+      <c r="AE34" s="337"/>
+    </row>
+    <row r="35" spans="1:31" ht="24.95" customHeight="1">
+      <c r="B35" s="527" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="341"/>
+      <c r="D35" s="341"/>
+      <c r="G35" s="387">
+        <f>G33</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="387">
+        <f>I33-G33</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="387">
+        <f>J33-H33</f>
+        <v>376006.02</v>
+      </c>
+      <c r="Z35" s="343">
+        <f>SUMIF(AB2:AB32,AB35,Z2:Z32)</f>
+        <v>16574.854953193753</v>
+      </c>
+      <c r="AA35" s="343">
+        <f>SUMIF(AB2:AB32,AB35,AA2:AA32)</f>
+        <v>14564.502790445973</v>
+      </c>
+      <c r="AB35" s="344" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC35" s="344"/>
+    </row>
+    <row r="36" spans="1:31" ht="24.95" customHeight="1">
+      <c r="B36" s="527" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="341"/>
+      <c r="D36" s="341"/>
+      <c r="G36" s="342">
+        <f>O33</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="343">
+        <f>SUMIF(AB2:AB32,AB36,Z2:Z32)</f>
+        <v>5470.6771876484763</v>
+      </c>
+      <c r="AA36" s="343">
+        <f>SUMIF(AB2:AB32,AB36,AA2:AA32)</f>
+        <v>4786.8025391924166</v>
+      </c>
+      <c r="AB36" s="344" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC36" s="344"/>
+    </row>
+    <row r="37" spans="1:31" ht="24.95" customHeight="1">
+      <c r="B37" s="527" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="341"/>
+      <c r="D37" s="341"/>
+      <c r="G37" s="342">
+        <f>G35-G36</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="343" t="e">
+        <f>SUMIF(AB2:AB32,AB37,Z2:Z32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA37" s="343" t="e">
+        <f>SUMIF(AB2:AB32,AB37,AA2:AA32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB37" s="365" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC37" s="344"/>
+    </row>
+    <row r="38" spans="1:31" ht="24.95" customHeight="1">
+      <c r="B38" s="527" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="345"/>
+      <c r="D38" s="345"/>
+      <c r="G38" s="346">
+        <f>M33+S33+T33</f>
+        <v>1758994.49</v>
+      </c>
+      <c r="M38" s="225"/>
+      <c r="Z38" s="329" t="e">
+        <f>SUM(Z35:Z37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA38" s="329" t="e">
+        <f>SUM(AA35:AA37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB38" s="330" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC38" s="419"/>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="B39" s="527" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="347"/>
+      <c r="D39" s="347"/>
+      <c r="G39" s="347" t="e">
+        <f>G38/G37*1.005</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="B41" s="528" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="B42" s="528" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="B43" s="528" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="B45" s="529"/>
+      <c r="C45" s="400" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" s="400" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="B46" s="530"/>
+      <c r="C46" s="400" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" s="400" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="B47" s="531"/>
+      <c r="C47" s="400" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" s="400" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AE39" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE39">
+      <sortCondition ref="H1:H39"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="V2:V3">
+    <cfRule type="containsText" dxfId="41" priority="18" operator="containsText" text="错误">
+      <formula>NOT(ISERROR(SEARCH("错误",V2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="19" operator="equal">
+      <formula>"提醒"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22:V23 V20 V17:V18 V14:V15 V8:V9 V5:V6 V11:V12">
+    <cfRule type="containsText" dxfId="39" priority="16" operator="containsText" text="错误">
+      <formula>NOT(ISERROR(SEARCH("错误",V5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
+      <formula>"提醒"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X32">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10">
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="错误">
+      <formula>NOT(ISERROR(SEARCH("错误",V10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
+      <formula>"提醒"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V26">
+    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="错误">
+      <formula>NOT(ISERROR(SEARCH("错误",V26)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+      <formula>"提醒"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V31">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="错误">
+      <formula>NOT(ISERROR(SEARCH("错误",V31)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+      <formula>"提醒"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="错误">
+      <formula>NOT(ISERROR(SEARCH("错误",V25)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+      <formula>"提醒"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V29">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="错误">
+      <formula>NOT(ISERROR(SEARCH("错误",V29)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+      <formula>"提醒"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="错误">
+      <formula>NOT(ISERROR(SEARCH("错误",V28)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+      <formula>"提醒"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
@@ -13767,22 +14119,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="551" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="513"/>
-      <c r="C1" s="513"/>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
-      <c r="K1" s="513"/>
-      <c r="L1" s="513"/>
-      <c r="M1" s="513"/>
-      <c r="N1" s="513"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
+      <c r="K1" s="551"/>
+      <c r="L1" s="551"/>
+      <c r="M1" s="551"/>
+      <c r="N1" s="551"/>
     </row>
     <row r="2" spans="1:14" ht="27">
       <c r="A2" s="163" t="s">
@@ -14020,10 +14372,10 @@
       <c r="G7" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="509">
+      <c r="H7" s="547">
         <v>9773</v>
       </c>
-      <c r="I7" s="511">
+      <c r="I7" s="549">
         <v>11840</v>
       </c>
       <c r="J7" s="91"/>
@@ -14062,8 +14414,8 @@
       <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="510"/>
-      <c r="I8" s="512"/>
+      <c r="H8" s="548"/>
+      <c r="I8" s="550"/>
       <c r="J8" s="72"/>
       <c r="K8" s="70" t="s">
         <v>29</v>
@@ -16003,11 +16355,11 @@
       <c r="N55" s="381"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="514" t="s">
+      <c r="A56" s="552" t="s">
         <v>199</v>
       </c>
-      <c r="B56" s="515"/>
-      <c r="C56" s="516"/>
+      <c r="B56" s="553"/>
+      <c r="C56" s="554"/>
       <c r="D56" s="132">
         <f>SUM(D3:D55)</f>
         <v>3240480.4123961665</v>
@@ -16084,6 +16436,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="fYCKtaCQJjTawgta3j/6N/qJuOffBlqAuvNjuAcbJcgMFj1W5MJb6TcidGRAUB8n9hyFH9ub1yF27JIMo5LNPA==" saltValue="YlctmJ2gDH8ehRtJ2/yYkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B2:N56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="H7:H8"/>
@@ -16098,7 +16451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M120"/>
   <sheetViews>
@@ -16423,10 +16776,10 @@
       <c r="A12" s="39">
         <v>2</v>
       </c>
-      <c r="B12" s="517" t="s">
+      <c r="B12" s="555" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="517"/>
+      <c r="C12" s="555"/>
       <c r="D12" s="41"/>
       <c r="E12" s="39"/>
       <c r="F12" s="42"/>
@@ -16811,10 +17164,10 @@
       <c r="F30" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="526">
+      <c r="G30" s="564">
         <v>9773</v>
       </c>
-      <c r="H30" s="528">
+      <c r="H30" s="566">
         <v>11840</v>
       </c>
       <c r="I30" s="91"/>
@@ -16850,8 +17203,8 @@
       <c r="F31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="527"/>
-      <c r="H31" s="529"/>
+      <c r="G31" s="565"/>
+      <c r="H31" s="567"/>
       <c r="I31" s="72"/>
       <c r="J31" s="92" t="s">
         <v>28</v>
@@ -17079,10 +17432,10 @@
       <c r="A39" s="39">
         <v>2</v>
       </c>
-      <c r="B39" s="517" t="s">
+      <c r="B39" s="555" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="517"/>
+      <c r="C39" s="555"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="42"/>
@@ -17098,7 +17451,7 @@
       <c r="B40" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="520">
+      <c r="C40" s="558">
         <f>(E30+E31+H30)/(D30+D31-G30)*1.005</f>
         <v>6.0944869757812121</v>
       </c>
@@ -17117,7 +17470,7 @@
       <c r="B41" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="521"/>
+      <c r="C41" s="559"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="42"/>
@@ -17247,18 +17600,18 @@
       <c r="B48" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="522">
+      <c r="C48" s="560">
         <f>(6.88-C40-F48)*(D30+D31-G30)*0.1*0.2</f>
         <v>228.05985000000015</v>
       </c>
-      <c r="D48" s="524">
+      <c r="D48" s="562">
         <v>0.45500000000000002</v>
       </c>
-      <c r="E48" s="524">
+      <c r="E48" s="562">
         <f t="shared" ref="E48:E53" si="1">0.75</f>
         <v>0.75</v>
       </c>
-      <c r="F48" s="524">
+      <c r="F48" s="562">
         <f t="shared" ref="F48:F53" si="2">(E48+D48)/2</f>
         <v>0.60250000000000004</v>
       </c>
@@ -17274,10 +17627,10 @@
       <c r="B49" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="523"/>
-      <c r="D49" s="525"/>
-      <c r="E49" s="525"/>
-      <c r="F49" s="525"/>
+      <c r="C49" s="561"/>
+      <c r="D49" s="563"/>
+      <c r="E49" s="563"/>
+      <c r="F49" s="563"/>
       <c r="G49" s="41"/>
       <c r="H49" s="43"/>
       <c r="I49" s="89"/>
@@ -17332,10 +17685,10 @@
         <f t="shared" si="2"/>
         <v>0.60250000000000004</v>
       </c>
-      <c r="G51" s="518" t="s">
+      <c r="G51" s="556" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="518"/>
+      <c r="H51" s="556"/>
       <c r="I51" s="89"/>
       <c r="J51" s="45"/>
       <c r="K51" s="90"/>
@@ -18041,10 +18394,10 @@
       <c r="F84" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="526">
+      <c r="G84" s="564">
         <v>9773</v>
       </c>
-      <c r="H84" s="528">
+      <c r="H84" s="566">
         <v>11840</v>
       </c>
       <c r="I84" s="91"/>
@@ -18080,8 +18433,8 @@
       <c r="F85" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G85" s="527"/>
-      <c r="H85" s="529"/>
+      <c r="G85" s="565"/>
+      <c r="H85" s="567"/>
       <c r="I85" s="72"/>
       <c r="J85" s="92" t="s">
         <v>28</v>
@@ -18334,10 +18687,10 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="519" t="s">
+      <c r="A92" s="557" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="519"/>
+      <c r="B92" s="557"/>
       <c r="C92" s="156">
         <f>SUM(C80:C91)</f>
         <v>606511.86</v>
@@ -18457,6 +18810,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="cdWfyybpcXgf7p5AT2r5ieLQ2MC3B6ogpDa4xYiKxZCSFhR2Uhb9t7fCK2Po9Dw2IDWwthCk6XKCi8NrEaveUQ==" saltValue="jKAk8PQfsBwBFQ9HHPFR2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B39:C39"/>
@@ -18480,7 +18834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
@@ -18719,10 +19073,10 @@
       <c r="A10" s="39">
         <v>2</v>
       </c>
-      <c r="B10" s="517" t="s">
+      <c r="B10" s="555" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="517"/>
+      <c r="C10" s="555"/>
       <c r="D10" s="40"/>
       <c r="E10" s="39"/>
       <c r="F10" s="42"/>
@@ -19132,10 +19486,10 @@
       <c r="A29" s="39">
         <v>2</v>
       </c>
-      <c r="B29" s="517" t="s">
+      <c r="B29" s="555" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="517"/>
+      <c r="C29" s="555"/>
       <c r="D29" s="40"/>
       <c r="E29" s="39"/>
       <c r="F29" s="42"/>
@@ -19536,10 +19890,10 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="519" t="s">
+      <c r="A51" s="557" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="530"/>
+      <c r="B51" s="568"/>
       <c r="C51" s="132">
         <f>SUM(C47:C50)</f>
         <v>137949.41999999998</v>
@@ -19702,6 +20056,7 @@
     </row>
     <row r="60" spans="1:13" ht="24" customHeight="1"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="KZ7g50soDcz8h2dsm8Z8ovGzO7e4rm18v85LxRr+td2m/rPeab06f8ihs42c3u7Ht1qsriYb6odWQYzfgASawg==" saltValue="IqsVxYXfrplaEgOBeSCLdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B29:C29"/>
@@ -19714,7 +20069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P108"/>
   <sheetViews>
@@ -20039,10 +20394,10 @@
       <c r="M9" s="84">
         <v>0.3</v>
       </c>
-      <c r="N9" s="531" t="s">
+      <c r="N9" s="569" t="s">
         <v>125</v>
       </c>
-      <c r="O9" s="531"/>
+      <c r="O9" s="569"/>
       <c r="P9" s="85"/>
     </row>
     <row r="10" spans="1:16">
@@ -20232,10 +20587,10 @@
       <c r="A16" s="39">
         <v>2</v>
       </c>
-      <c r="B16" s="517" t="s">
+      <c r="B16" s="555" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="517"/>
+      <c r="C16" s="555"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="42"/>
@@ -20601,11 +20956,11 @@
         <f>(D11-G11)*(6.8-C23-E33)*L11*M11</f>
         <v>131.23884375000017</v>
       </c>
-      <c r="D33" s="532"/>
+      <c r="D33" s="570"/>
       <c r="E33" s="54">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F33" s="537"/>
+      <c r="F33" s="575"/>
       <c r="G33" s="41"/>
       <c r="H33" s="43"/>
       <c r="I33" s="89"/>
@@ -20622,11 +20977,11 @@
         <f>(D12-G12)*(6.8-C24-E34)*L12*M12</f>
         <v>4256.685975000004</v>
       </c>
-      <c r="D34" s="533"/>
+      <c r="D34" s="571"/>
       <c r="E34" s="54">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F34" s="538"/>
+      <c r="F34" s="576"/>
       <c r="G34" s="41"/>
       <c r="H34" s="43"/>
       <c r="I34" s="89"/>
@@ -20963,10 +21318,10 @@
       <c r="A49" s="39">
         <v>2</v>
       </c>
-      <c r="B49" s="517" t="s">
+      <c r="B49" s="555" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="517"/>
+      <c r="C49" s="555"/>
       <c r="D49" s="41"/>
       <c r="E49" s="39"/>
       <c r="F49" s="42"/>
@@ -21108,11 +21463,11 @@
         <f>(D44-G44)*(6.8-C51-E56)*L44*M44</f>
         <v>143.33321249999995</v>
       </c>
-      <c r="D56" s="524"/>
+      <c r="D56" s="562"/>
       <c r="E56" s="54">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F56" s="524"/>
+      <c r="F56" s="562"/>
       <c r="G56" s="41"/>
       <c r="H56" s="43"/>
       <c r="I56" s="89"/>
@@ -21129,11 +21484,11 @@
         <f>(D45-G45)*(6.8-C52-E57)*L45*M45</f>
         <v>15711.576824999996</v>
       </c>
-      <c r="D57" s="525"/>
+      <c r="D57" s="563"/>
       <c r="E57" s="54">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F57" s="525"/>
+      <c r="F57" s="563"/>
       <c r="G57" s="41"/>
       <c r="H57" s="43"/>
       <c r="I57" s="89"/>
@@ -21517,11 +21872,11 @@
         <v>137</v>
       </c>
       <c r="C74" s="97"/>
-      <c r="D74" s="534"/>
+      <c r="D74" s="572"/>
       <c r="E74" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="539"/>
+      <c r="F74" s="577"/>
       <c r="G74" s="9"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -21538,11 +21893,11 @@
         <f>(D64-G64)*(6.8-C71-E75)*L64*M64</f>
         <v>186.57518250000064</v>
       </c>
-      <c r="D75" s="535"/>
+      <c r="D75" s="573"/>
       <c r="E75" s="98">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F75" s="540"/>
+      <c r="F75" s="578"/>
       <c r="G75" s="9"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -21559,11 +21914,11 @@
         <f>(D65-G65)*(6.6-C72-E76)*L65*M65</f>
         <v>82.790599041533596</v>
       </c>
-      <c r="D76" s="535"/>
+      <c r="D76" s="573"/>
       <c r="E76" s="100">
         <v>0.7</v>
       </c>
-      <c r="F76" s="540"/>
+      <c r="F76" s="578"/>
       <c r="G76" s="9"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -21580,11 +21935,11 @@
         <f>(D66-G66)*(6.6-C73-E77)*L66*M66</f>
         <v>94.501250000000184</v>
       </c>
-      <c r="D77" s="536"/>
+      <c r="D77" s="574"/>
       <c r="E77" s="100">
         <v>0.7</v>
       </c>
-      <c r="F77" s="541"/>
+      <c r="F77" s="579"/>
       <c r="G77" s="9"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -22245,10 +22600,10 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="530" t="s">
+      <c r="A102" s="568" t="s">
         <v>84</v>
       </c>
-      <c r="B102" s="530"/>
+      <c r="B102" s="568"/>
       <c r="C102" s="109">
         <f t="shared" ref="C102:I102" si="3">SUM(C88:C101)</f>
         <v>1228974.6923961663</v>
@@ -22325,6 +22680,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="k9bSImjySsDgFjiZs2me4ZDCWP5pU8MjoyVBBb+0BDOl8oqAM/8YNuZaNUHgZ4nafeAUvcku1J+yDWzRtt/4OQ==" saltValue="ltcZX+6gmace6icIksQLLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="B16:C16"/>
@@ -22344,7 +22700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
@@ -24223,11 +24579,11 @@
       <c r="AA32" s="195"/>
     </row>
     <row r="33" spans="1:28" s="195" customFormat="1" ht="12.75">
-      <c r="A33" s="542" t="s">
+      <c r="A33" s="580" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="543"/>
-      <c r="C33" s="544"/>
+      <c r="B33" s="581"/>
+      <c r="C33" s="582"/>
       <c r="D33" s="240">
         <f>SUM(D10:D32)</f>
         <v>306394.8</v>
@@ -24505,6 +24861,7 @@
       <c r="G45" s="242"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="DVHpr3phhC7ly6lg3BcOfRSQJgUWQL3ut+hEOaLorDxnufDTqs2+nEE8fyAV6yKmbPpEfndrSCJwww5Zhl8C4w==" saltValue="yTArEedFtt7KcbIFSqMsHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B5:Z33" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A33:C33"/>
@@ -24516,7 +24873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -28397,31 +28754,32 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="DhAKofykSzyIOLNcBEQsoTd1nRYyYOZWDZiUPh9Wm8TnIzjffz5RLJho5L+RcLx+RFcP6vqKNmmt3i/ruo7Pzg==" saltValue="qPILTcEHS+4vG86Sfm+3OA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:Z55" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="错误">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="错误">
       <formula>NOT(ISERROR(SEARCH("错误",Q3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53:Q54 Q50:Q51 Q47:Q48 Q44:Q45 Q41:Q42 Q38:Q39 Q35:Q36 Q31:Q33 Q26:Q29 Q23:Q24 Q19:Q21 Q15:Q17 Q11:Q13 Q7:Q9 Q4:Q5">
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="错误">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="错误">
       <formula>NOT(ISERROR(SEARCH("错误",Q4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55 S52 S49 S46 S43 S40 S37 S34 S30 S25 S22 S18 S14 S10">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28431,7 +28789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -30718,6 +31076,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="tg4VGzLtheY2IIVb8G/pXrJEXNbX3pthT8sTGRWRQ0d114iAWwQLqaA0pyy5YIzbyfEMzy/ComA7KbcYnEq1kQ==" saltValue="3ZSMKCh/jQlO6vnzRVKGSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:Z40" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z40">
       <sortCondition ref="F2:F40"/>
@@ -30725,81 +31084,81 @@
   </autoFilter>
   <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="Q3:Q4">
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="错误">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="错误">
       <formula>NOT(ISERROR(SEARCH("错误",Q3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23:Q24 Q21 Q18:Q19 Q15:Q16 Q9:Q10 Q6:Q7 Q12:Q13">
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="错误">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="错误">
       <formula>NOT(ISERROR(SEARCH("错误",Q6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33 S28 S25 S22 S20 S14 S8 S17">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="错误">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="错误">
       <formula>NOT(ISERROR(SEARCH("错误",Q11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="错误">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="错误">
       <formula>NOT(ISERROR(SEARCH("错误",Q27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="错误">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="错误">
       <formula>NOT(ISERROR(SEARCH("错误",Q32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="错误">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="错误">
       <formula>NOT(ISERROR(SEARCH("错误",Q26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="错误">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="错误">
       <formula>NOT(ISERROR(SEARCH("错误",Q30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="错误">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="错误">
       <formula>NOT(ISERROR(SEARCH("错误",Q29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30807,125 +31166,4 @@
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E02172-7BDF-40AB-8428-CD8A59BEFAD8}">
-  <dimension ref="A1:AB1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="10.42578125" style="481" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="475" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="483"/>
-    <col min="7" max="7" width="10.42578125" style="481" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="483"/>
-    <col min="9" max="9" width="17.5703125" style="483" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="483"/>
-    <col min="12" max="12" width="9.5703125" style="483" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="475"/>
-    <col min="14" max="24" width="9.140625" style="483"/>
-    <col min="25" max="25" width="9.140625" style="475"/>
-    <col min="26" max="26" width="23" style="475" customWidth="1"/>
-    <col min="27" max="28" width="9.140625" style="505"/>
-    <col min="29" max="16384" width="9.140625" style="475"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" s="478" customFormat="1" ht="36">
-      <c r="A1" s="479" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="480" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="477" t="s">
-        <v>358</v>
-      </c>
-      <c r="D1" s="477" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1" s="485" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="484" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="488" t="s">
-        <v>361</v>
-      </c>
-      <c r="H1" s="482" t="s">
-        <v>359</v>
-      </c>
-      <c r="I1" s="483" t="str">
-        <f>IF(ROW($I1)=1,"收款金额（自动）",SUMIF(C:C,$D1,H:H))</f>
-        <v>收款金额（自动）</v>
-      </c>
-      <c r="J1" s="508" t="str">
-        <f>IF(ROW($J1)=1,"收款比例",IF(SUMIF(D:D,$C1,I:I)=0,"",$H1/SUMIF(D:D,$C1,I:I)))</f>
-        <v>收款比例</v>
-      </c>
-      <c r="K1" s="484" t="s">
-        <v>257</v>
-      </c>
-      <c r="L1" s="486" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="476" t="s">
-        <v>302</v>
-      </c>
-      <c r="N1" s="485" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="484" t="s">
-        <v>229</v>
-      </c>
-      <c r="P1" s="485" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="485" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="484" t="s">
-        <v>258</v>
-      </c>
-      <c r="S1" s="484" t="s">
-        <v>259</v>
-      </c>
-      <c r="T1" s="484" t="s">
-        <v>260</v>
-      </c>
-      <c r="U1" s="484" t="s">
-        <v>261</v>
-      </c>
-      <c r="V1" s="487" t="s">
-        <v>304</v>
-      </c>
-      <c r="W1" s="484" t="s">
-        <v>262</v>
-      </c>
-      <c r="X1" s="484" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y1" s="477" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="476" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="506" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="503" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/6月份 销售结算V1.xlsx
+++ b/6月份 销售结算V1.xlsx
@@ -8,8 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XLS_ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC30160-AF5B-43D9-95FB-FB3C78FC1F33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="UnnfDSDcZSZsVJGbKQ1cOpKmodePE+QB4za7IAfs5MivTuEgeKp39NgHz/yHCpL0M5r0ZtWqqFR3lBtFZhu5qg==" workbookSaltValue="/ogyHR4vV95Q43XNEOfbaw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D03563-AC79-428D-B85E-9AC58CE3D081}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">APR!$B$5:$Z$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">JUN!$A$2:$Z$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'JUN2'!$A$1:$AE$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'JUN2'!$A$3:$AE$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">MAY!$A$2:$Z$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">汇总!$B$2:$N$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">汇率!$A$1:$F$41</definedName>
@@ -57,7 +56,7 @@
     <author>Helina</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D4DDFD40-33F4-4F1A-B567-03D106A246A8}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D4DDFD40-33F4-4F1A-B567-03D106A246A8}">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{ED862384-BDC7-49F3-B6A4-AC20303D2EE2}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{ED862384-BDC7-49F3-B6A4-AC20303D2EE2}">
       <text>
         <r>
           <rPr>
@@ -111,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{097F4363-AA8A-4969-BC45-4AE03860572E}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{097F4363-AA8A-4969-BC45-4AE03860572E}">
       <text>
         <r>
           <rPr>
@@ -138,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{10BD7990-A085-4AF2-9CF4-F862BFC90F92}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{10BD7990-A085-4AF2-9CF4-F862BFC90F92}">
       <text>
         <r>
           <rPr>
@@ -165,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BCD27960-8B7E-4DA0-B8D5-EDCBB42F30EE}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{BCD27960-8B7E-4DA0-B8D5-EDCBB42F30EE}">
       <text>
         <r>
           <rPr>
@@ -192,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{BCC5980A-CA55-4B2A-BCBC-39833DDB3F12}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{BCC5980A-CA55-4B2A-BCBC-39833DDB3F12}">
       <text>
         <r>
           <rPr>
@@ -217,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{3C3F856D-1307-43AE-A4DB-756F35AF71E2}">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{3C3F856D-1307-43AE-A4DB-756F35AF71E2}">
       <text>
         <r>
           <rPr>
@@ -247,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{63969948-17E5-4D6E-8769-8F6CE4210646}">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{63969948-17E5-4D6E-8769-8F6CE4210646}">
       <text>
         <r>
           <rPr>
@@ -2210,7 +2209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="402">
   <si>
     <t>2018年销售结算汇总</t>
   </si>
@@ -5505,6 +5504,69 @@
   </si>
   <si>
     <t>ReadOnly</t>
+  </si>
+  <si>
+    <t>i=（d+g+h) /f*1.005</t>
+  </si>
+  <si>
+    <t>j=(c*1.16)/(1.16-0.09)-0.3</t>
+  </si>
+  <si>
+    <t>l=f*(j-i-k) *p*q</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n=l*0.7+m</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">o=n*0.875   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(&gt;5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时扣税</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>o=n*0.875   (&gt;5000时扣税)</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
   </si>
 </sst>
 </file>
@@ -6329,7 +6391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="588">
+  <cellXfs count="607">
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8093,6 +8155,63 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -9033,7 +9152,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5eKxfRF3q0x9bAayEWJXysqALT4NkxG/BPUdFQKpYvI5rWVRGFkGaGQP5l3d39anfpDdBgdf/Z/GV4UhS5TkjA==" saltValue="NqC+aUYzS+ZGSjB0f1t/Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{0781A6D0-4C0F-4084-8289-10E0C4404B7D}">
       <formula1>"Mutable,Inmutable"</formula1>
@@ -9165,7 +9283,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Js+IyfH+c8fKCfB9lE7ds2ks9zlEFVEkSCNphZksgktNLo/MJoqBhDVr7qnOrpmCXGoo3/JPoSzeZOwIIldEHA==" saltValue="BiMoT4uNGAEDUCSvvpXrfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -9310,7 +9427,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eLUvRJwV3mqmDJOH3UKivXs5UaI9LNJ+fNAckKTwJi864AK2c8RR7VnD2DRdSMwL2p05aH99X2xXLFj2X4znDw==" saltValue="+M+29SbWftrJW5XkNqcEqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -9413,7 +9529,6 @@
       <c r="M6" s="475"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pwE3Wa8AyK3EBATbbx1rZ90lPYwqSdT5dcOvC8CzrxJ/06Mil7R3+iARejqCG7hE7I1OYBBBoKsLD/saq+88Fg==" saltValue="X/99zxuYZY8BakBOKWVEvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -10656,7 +10771,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D95QcKxwVBlWPWXGVGb0JrkyAw3ff35T3yAMmjo+effiAXYDSpxOiHRR73ihGZRN0tyoQ1KQslmUxiVlr+3KJg==" saltValue="OYJPAPAOxAYq4zQq/DtXfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:F41" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
@@ -10964,7 +11078,6 @@
       <c r="L20" s="449"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MC9wmbGFf3Tiy7D+fbqg1Hy5mGjBRQJI8xYwIf58+hmZGxSyiZjUBU02PmcR2RlWIN8y05AR/Fh3IVmWrdm8FA==" saltValue="q+cJpPLrpZiZTjt/LWrTNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="D1:I1"/>
   </mergeCells>
@@ -11118,7 +11231,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xUZI5U9cUGXw9Q0BlIOMS+IbfNQOWpnF4p/YO2YrV+R7cPQ2xrUtjr9dWYW75WHLroMju0p4OnSaMUoXNtxAFw==" saltValue="V8qorOktfoE1zYn4RK7Aiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
@@ -11133,783 +11245,786 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE47"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="225" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="519" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="225" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="225" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="308" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="308" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="308" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="519" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="308" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="308" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="339" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="441" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="308" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="407" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="308" customWidth="1"/>
+    <col min="1" max="1" width="16" style="225" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="519" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="225" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="225" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="308" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="308" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="519" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="308" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="308" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="339" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="441" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="308" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="407" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="308" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.7109375" style="308" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="542" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="308" customWidth="1"/>
-    <col min="19" max="19" width="11" style="536" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="225" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="308" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="308" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="308" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="308" customWidth="1"/>
-    <col min="25" max="25" width="10" style="464" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" style="308" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="308" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" style="225" customWidth="1"/>
-    <col min="29" max="29" width="30.7109375" style="225" customWidth="1"/>
-    <col min="30" max="31" width="5.5703125" style="225" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="542" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="308" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="536" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="225" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" style="308" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" style="308" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="308" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="308" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" style="464" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="308" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" style="308" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="225" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.42578125" style="225" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" style="225" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.28515625" style="225" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9" style="225"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="318" customFormat="1" ht="36">
-      <c r="A1" s="316" t="s">
+    <row r="1" spans="1:31" s="599" customFormat="1">
+      <c r="A1" s="597" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="598" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="599" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1" s="599" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" s="599" t="s">
+        <v>401</v>
+      </c>
+      <c r="G1" s="599" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="598" t="s">
+        <v>401</v>
+      </c>
+      <c r="I1" s="599" t="s">
+        <v>401</v>
+      </c>
+      <c r="J1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="K1" s="600" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" s="601" t="s">
+        <v>401</v>
+      </c>
+      <c r="M1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="N1" s="602" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1" s="599" t="s">
+        <v>401</v>
+      </c>
+      <c r="P1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q1" s="603" t="s">
+        <v>401</v>
+      </c>
+      <c r="R1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="S1" s="604" t="s">
+        <v>400</v>
+      </c>
+      <c r="T1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="U1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="V1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="W1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="X1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y1" s="605" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD1" s="599" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE1" s="599" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="590" customFormat="1" ht="45">
+      <c r="A2" s="588"/>
+      <c r="B2" s="589"/>
+      <c r="H2" s="589"/>
+      <c r="J2" s="590" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" s="591" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" s="592" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="590" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="593"/>
+      <c r="P2" s="590" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q2" s="594"/>
+      <c r="R2" s="590" t="s">
+        <v>223</v>
+      </c>
+      <c r="S2" s="595" t="s">
+        <v>224</v>
+      </c>
+      <c r="T2" s="590" t="s">
+        <v>225</v>
+      </c>
+      <c r="U2" s="606" t="s">
+        <v>391</v>
+      </c>
+      <c r="V2" s="606" t="s">
+        <v>392</v>
+      </c>
+      <c r="W2" s="590" t="s">
+        <v>226</v>
+      </c>
+      <c r="X2" s="590" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y2" s="596" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z2" s="590" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA2" s="606" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD2" s="590" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE2" s="590" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="318" customFormat="1" ht="25.5">
+      <c r="A3" s="316" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="521" t="s">
+      <c r="B3" s="521" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="543" t="s">
+      <c r="C3" s="543" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="317" t="s">
+      <c r="D3" s="317" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="396" t="s">
+      <c r="E3" s="396" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="511" t="s">
+      <c r="F3" s="511" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="408" t="s">
+      <c r="G3" s="408" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="513" t="s">
+      <c r="H3" s="513" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="411" t="s">
+      <c r="I3" s="411" t="s">
         <v>255</v>
       </c>
-      <c r="J1" s="512" t="s">
+      <c r="J3" s="512" t="s">
         <v>363</v>
       </c>
-      <c r="K1" s="409" t="s">
+      <c r="K3" s="409" t="s">
         <v>256</v>
       </c>
-      <c r="L1" s="436" t="s">
+      <c r="L3" s="436" t="s">
         <v>257</v>
       </c>
-      <c r="M1" s="401" t="s">
+      <c r="M3" s="401" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="402" t="s">
+      <c r="N3" s="402" t="s">
         <v>302</v>
       </c>
-      <c r="O1" s="396" t="s">
+      <c r="O3" s="396" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="396" t="s">
+      <c r="P3" s="396" t="s">
         <v>364</v>
       </c>
-      <c r="Q1" s="537" t="s">
+      <c r="Q3" s="537" t="s">
         <v>229</v>
       </c>
-      <c r="R1" s="408" t="s">
+      <c r="R3" s="408" t="s">
         <v>229</v>
       </c>
-      <c r="S1" s="497" t="s">
+      <c r="S3" s="497" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="396" t="s">
+      <c r="T3" s="396" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="410" t="s">
+      <c r="U3" s="410" t="s">
         <v>258</v>
       </c>
-      <c r="V1" s="410" t="s">
+      <c r="V3" s="410" t="s">
         <v>259</v>
       </c>
-      <c r="W1" s="410" t="s">
+      <c r="W3" s="410" t="s">
         <v>260</v>
       </c>
-      <c r="X1" s="410" t="s">
+      <c r="X3" s="410" t="s">
         <v>261</v>
       </c>
-      <c r="Y1" s="461" t="s">
+      <c r="Y3" s="461" t="s">
         <v>304</v>
       </c>
-      <c r="Z1" s="410" t="s">
+      <c r="Z3" s="410" t="s">
         <v>262</v>
       </c>
-      <c r="AA1" s="410" t="s">
+      <c r="AA3" s="410" t="s">
         <v>263</v>
       </c>
-      <c r="AB1" s="317" t="s">
+      <c r="AB3" s="317" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="316" t="s">
+      <c r="AC3" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="317" t="s">
+      <c r="AD3" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="316" t="s">
+      <c r="AE3" s="316" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="A2" s="412"/>
-      <c r="B2" s="522"/>
-      <c r="C2" s="320" t="s">
+    <row r="4" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="A4" s="412"/>
+      <c r="B4" s="522"/>
+      <c r="C4" s="320" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="320"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="365">
-        <f t="shared" ref="F2:F32" si="0">SUMIF(C:C,$D2,E:E)</f>
+      <c r="D4" s="320"/>
+      <c r="E4" s="350"/>
+      <c r="F4" s="365">
+        <f>SUMIF(C:C,$D4,E:E)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="350"/>
-      <c r="H2" s="514">
+      <c r="G4" s="350"/>
+      <c r="H4" s="514">
         <v>43203</v>
       </c>
-      <c r="I2" s="445">
+      <c r="I4" s="445">
         <v>19878.97</v>
       </c>
-      <c r="J2" s="365">
-        <f t="shared" ref="J2:J32" si="1">SUMIF(C:C,$D2,I:I)</f>
+      <c r="J4" s="365">
+        <f>SUMIF(C:C,$D4,I:I)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="206">
-        <f t="shared" ref="K2:K32" si="2">IF(SUMIF(D:D,$C2,J:J)=0,"",$I2/SUMIF(D:D,$C2,J:J))</f>
+      <c r="K4" s="206">
+        <f>IF(SUMIF(D:D,$C4,J:J)=0,"",$I4/SUMIF(D:D,$C4,J:J))</f>
         <v>0.51311598080309917</v>
       </c>
-      <c r="L2" s="437">
-        <f>VLOOKUP(H2,汇率!$B$3:F100,5,0)</f>
+      <c r="L4" s="437">
+        <f>VLOOKUP(H4,汇率!$B$3:F100,5,0)</f>
         <v>6.27</v>
       </c>
-      <c r="M2" s="321"/>
-      <c r="N2" s="403" t="s">
+      <c r="M4" s="321"/>
+      <c r="N4" s="403" t="s">
         <v>300</v>
       </c>
-      <c r="O2" s="243">
-        <f t="shared" ref="O2:O30" si="3">IF($K2&lt;&gt;"",$K2*SUMIF(D:D,C2,P:P),"")</f>
+      <c r="O4" s="243">
+        <f>IF($K4&lt;&gt;"",$K4*SUMIF(D:D,C4,P:P),"")</f>
         <v>2232.5676324742844</v>
       </c>
-      <c r="P2" s="243"/>
-      <c r="Q2" s="538">
-        <f>I2-O2</f>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="538">
+        <f>I4-O4</f>
         <v>17646.402367525716</v>
       </c>
-      <c r="R2" s="368" t="str">
-        <f t="shared" ref="R2:R32" si="4">IF($D2="","",SUMIF(C:C,$D2,Q:Q))</f>
+      <c r="R4" s="368" t="str">
+        <f>IF($D4="","",SUMIF(C:C,$D4,Q:Q))</f>
         <v/>
       </c>
-      <c r="S2" s="532"/>
-      <c r="T2" s="323"/>
-      <c r="U2" s="255" t="str">
-        <f>IF($R2="","",SUM(M2,S2,T2)/R2*1.005)</f>
+      <c r="S4" s="532"/>
+      <c r="T4" s="323"/>
+      <c r="U4" s="255" t="str">
+        <f>IF($R4="","",SUM(M4,S4,T4)/R4*1.005)</f>
         <v/>
       </c>
-      <c r="V2" s="254">
-        <f>IF(N2="N",L2*1.16/(1.16-0.09)-0.3,IF(N2=0,"错误",IF(I2&gt;N2,N2/I2*(L2*1.16/(1.16-0.13)-0.3)+(1-N2/I2)*(L2*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+      <c r="V4" s="254">
+        <f>IF(N4="N",L4*1.16/(1.16-0.09)-0.3,IF(N4=0,"错误",IF(I4&gt;N4,N4/I4*(L4*1.16/(1.16-0.13)-0.3)+(1-N4/I4)*(L4*1.16/(1.16-0.09)-0.3),"提醒")))</f>
         <v>6.4973831775700939</v>
       </c>
-      <c r="W2" s="256" t="str">
-        <f>IF($D2="","",VLOOKUP(B2,下单月成本!$A$2:$B$13,2,0))</f>
+      <c r="W4" s="256" t="str">
+        <f>IF($D4="","",VLOOKUP(B4,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="X2" s="252" t="str">
-        <f t="shared" ref="X2:X31" si="5">IF($D2="","",$R2*(V2-U2-W2)*AD2*AE2)</f>
+      <c r="X4" s="252" t="str">
+        <f t="shared" ref="X4:X33" si="0">IF($D4="","",$R4*(V4-U4-W4)*AD4*AE4)</f>
         <v/>
       </c>
-      <c r="Y2" s="462"/>
-      <c r="Z2" s="326"/>
-      <c r="AA2" s="326"/>
-      <c r="AB2" s="350"/>
-      <c r="AC2" s="446" t="s">
+      <c r="Y4" s="462"/>
+      <c r="Z4" s="326"/>
+      <c r="AA4" s="326"/>
+      <c r="AB4" s="350"/>
+      <c r="AC4" s="446" t="s">
         <v>327</v>
       </c>
-      <c r="AD2" s="327"/>
-      <c r="AE2" s="327"/>
-    </row>
-    <row r="3" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B3" s="522"/>
-      <c r="C3" s="320" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="320"/>
-      <c r="E3" s="445">
-        <v>38795.4</v>
-      </c>
-      <c r="F3" s="365">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="350">
-        <f>I4</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="514">
-        <v>43258</v>
-      </c>
-      <c r="I3" s="445">
-        <v>18862.7</v>
-      </c>
-      <c r="J3" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="206">
-        <f t="shared" si="2"/>
-        <v>0.48688401919690094</v>
-      </c>
-      <c r="L3" s="437">
-        <f>VLOOKUP(H3,汇率!$B$3:F101,5,0)</f>
-        <v>6.38</v>
-      </c>
-      <c r="M3" s="321"/>
-      <c r="N3" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O3" s="243">
-        <f t="shared" si="3"/>
-        <v>2118.432367525716</v>
-      </c>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="538">
-        <f>I3-O3</f>
-        <v>16744.267632474286</v>
-      </c>
-      <c r="R3" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S3" s="532"/>
-      <c r="T3" s="323"/>
-      <c r="U3" s="255" t="str">
-        <f t="shared" ref="U3:U32" si="6">IF($R3="","",SUM(M3,S3,T3)/R3*1.005)</f>
-        <v/>
-      </c>
-      <c r="V3" s="254">
-        <f>IF(N3="N",L3*1.16/(1.16-0.09)-0.3,IF(N3=0,"错误",IF(I3&gt;N3,N3/I3*(L3*1.16/(1.16-0.13)-0.3)+(1-N3/I3)*(L3*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.6166355140186921</v>
-      </c>
-      <c r="W3" s="256" t="str">
-        <f>IF($D3="","",VLOOKUP(B3,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X3" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y3" s="462"/>
-      <c r="Z3" s="326"/>
-      <c r="AA3" s="326"/>
-      <c r="AB3" s="350"/>
-      <c r="AC3" s="446" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD3" s="327"/>
-      <c r="AE3" s="327"/>
-    </row>
-    <row r="4" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A4" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B4" s="523">
-        <v>43191</v>
-      </c>
-      <c r="C4" s="364"/>
-      <c r="D4" s="364" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365">
-        <f t="shared" si="0"/>
-        <v>38795.4</v>
-      </c>
-      <c r="G4" s="365">
-        <f>SUBTOTAL(9,G2:G3)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="515"/>
-      <c r="I4" s="365"/>
-      <c r="J4" s="365">
-        <f t="shared" si="1"/>
-        <v>38741.67</v>
-      </c>
-      <c r="K4" s="206" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L4" s="438"/>
-      <c r="M4" s="365">
-        <v>164119.04000000001</v>
-      </c>
-      <c r="N4" s="404"/>
-      <c r="O4" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P4" s="368">
-        <v>4351</v>
-      </c>
-      <c r="Q4" s="539"/>
-      <c r="R4" s="368">
-        <f t="shared" si="4"/>
-        <v>34390.67</v>
-      </c>
-      <c r="S4" s="533">
-        <v>5670</v>
-      </c>
-      <c r="T4" s="369"/>
-      <c r="U4" s="255">
-        <f>IF($R4="","",SUM(M4,S4,T4)/R4*1.005)</f>
-        <v>4.9617522775799365</v>
-      </c>
-      <c r="V4" s="255">
-        <f>V2*K2+V3*K3</f>
-        <v>6.5554452344388086</v>
-      </c>
-      <c r="W4" s="256">
-        <f>IF($D4="","",VLOOKUP(B4,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X4" s="252">
-        <f t="shared" si="5"/>
-        <v>703.02521601644264</v>
-      </c>
-      <c r="Y4" s="252"/>
-      <c r="Z4" s="252">
-        <f>X4*0.7+Y4</f>
-        <v>492.11765121150984</v>
-      </c>
-      <c r="AA4" s="252">
-        <f>IF(SUMIF(AB1:AB11,AB4,Z1:Z11)&gt;5000,Z4*0.875,Z4)-0.01</f>
-        <v>492.10765121150985</v>
-      </c>
-      <c r="AB4" s="365" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC4" s="365" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD4" s="370">
-        <v>0.1</v>
-      </c>
-      <c r="AE4" s="370">
-        <v>0.25</v>
-      </c>
+      <c r="AD4" s="327"/>
+      <c r="AE4" s="327"/>
     </row>
     <row r="5" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
       <c r="B5" s="522"/>
       <c r="C5" s="320" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D5" s="320"/>
-      <c r="E5" s="350"/>
+      <c r="E5" s="445">
+        <v>38795.4</v>
+      </c>
       <c r="F5" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D5,E:E)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="350"/>
+      <c r="G5" s="350">
+        <f>I6</f>
+        <v>0</v>
+      </c>
       <c r="H5" s="514">
-        <v>43208</v>
+        <v>43258</v>
       </c>
       <c r="I5" s="445">
-        <v>10079.1</v>
+        <v>18862.7</v>
       </c>
       <c r="J5" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D5,I:I)</f>
         <v>0</v>
       </c>
       <c r="K5" s="206">
-        <f t="shared" si="2"/>
-        <v>0.30044713387188127</v>
+        <f>IF(SUMIF(D:D,$C5,J:J)=0,"",$I5/SUMIF(D:D,$C5,J:J))</f>
+        <v>0.48688401919690094</v>
       </c>
       <c r="L5" s="437">
-        <f>VLOOKUP(H5,汇率!$B$3:F103,5,0)</f>
-        <v>6.27</v>
+        <f>VLOOKUP(H5,汇率!$B$3:F101,5,0)</f>
+        <v>6.38</v>
       </c>
       <c r="M5" s="321"/>
       <c r="N5" s="403" t="s">
         <v>300</v>
       </c>
       <c r="O5" s="243">
-        <f t="shared" si="3"/>
-        <v>819.61978120249205</v>
+        <f>IF($K5&lt;&gt;"",$K5*SUMIF(D:D,C5,P:P),"")</f>
+        <v>2118.432367525716</v>
       </c>
       <c r="P5" s="243"/>
       <c r="Q5" s="538">
         <f>I5-O5</f>
-        <v>9259.4802187975074</v>
+        <v>16744.267632474286</v>
       </c>
       <c r="R5" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D5="","",SUMIF(C:C,$D5,Q:Q))</f>
         <v/>
       </c>
       <c r="S5" s="532"/>
       <c r="T5" s="323"/>
       <c r="U5" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U5:U34" si="1">IF($R5="","",SUM(M5,S5,T5)/R5*1.005)</f>
         <v/>
       </c>
       <c r="V5" s="254">
         <f>IF(N5="N",L5*1.16/(1.16-0.09)-0.3,IF(N5=0,"错误",IF(I5&gt;N5,N5/I5*(L5*1.16/(1.16-0.13)-0.3)+(1-N5/I5)*(L5*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.4973831775700939</v>
+        <v>6.6166355140186921</v>
       </c>
       <c r="W5" s="256" t="str">
         <f>IF($D5="","",VLOOKUP(B5,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X5" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y5" s="462"/>
       <c r="Z5" s="326"/>
       <c r="AA5" s="326"/>
       <c r="AB5" s="350"/>
-      <c r="AC5" s="350" t="s">
-        <v>328</v>
+      <c r="AC5" s="446" t="s">
+        <v>327</v>
       </c>
       <c r="AD5" s="327"/>
       <c r="AE5" s="327"/>
     </row>
-    <row r="6" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B6" s="522"/>
-      <c r="C6" s="320" t="s">
+    <row r="6" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A6" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B6" s="523">
+        <v>43191</v>
+      </c>
+      <c r="C6" s="364"/>
+      <c r="D6" s="364" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="365"/>
+      <c r="F6" s="365">
+        <f>SUMIF(C:C,$D6,E:E)</f>
+        <v>38795.4</v>
+      </c>
+      <c r="G6" s="365">
+        <f>SUBTOTAL(9,G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="515"/>
+      <c r="I6" s="365"/>
+      <c r="J6" s="365">
+        <f>SUMIF(C:C,$D6,I:I)</f>
+        <v>38741.67</v>
+      </c>
+      <c r="K6" s="206" t="str">
+        <f>IF(SUMIF(D:D,$C6,J:J)=0,"",$I6/SUMIF(D:D,$C6,J:J))</f>
+        <v/>
+      </c>
+      <c r="L6" s="438"/>
+      <c r="M6" s="365">
+        <v>164119.04000000001</v>
+      </c>
+      <c r="N6" s="404"/>
+      <c r="O6" s="243" t="str">
+        <f>IF($K6&lt;&gt;"",$K6*SUMIF(D:D,C6,P:P),"")</f>
+        <v/>
+      </c>
+      <c r="P6" s="368">
+        <v>4351</v>
+      </c>
+      <c r="Q6" s="539"/>
+      <c r="R6" s="368">
+        <f>IF($D6="","",SUMIF(C:C,$D6,Q:Q))</f>
+        <v>34390.67</v>
+      </c>
+      <c r="S6" s="533">
+        <v>5670</v>
+      </c>
+      <c r="T6" s="369"/>
+      <c r="U6" s="255">
+        <f>IF($R6="","",SUM(M6,S6,T6)/R6*1.005)</f>
+        <v>4.9617522775799365</v>
+      </c>
+      <c r="V6" s="255">
+        <f>V4*K4+V5*K5</f>
+        <v>6.5554452344388086</v>
+      </c>
+      <c r="W6" s="256">
+        <f>IF($D6="","",VLOOKUP(B6,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="X6" s="252">
+        <f t="shared" si="0"/>
+        <v>703.02521601644264</v>
+      </c>
+      <c r="Y6" s="252"/>
+      <c r="Z6" s="252">
+        <f>X6*0.7+Y6</f>
+        <v>492.11765121150984</v>
+      </c>
+      <c r="AA6" s="252">
+        <f>IF(SUMIF(AB3:AB13,AB6,Z3:Z13)&gt;5000,Z6*0.875,Z6)-0.01</f>
+        <v>492.10765121150985</v>
+      </c>
+      <c r="AB6" s="365" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" s="365" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD6" s="370">
+        <v>0.1</v>
+      </c>
+      <c r="AE6" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B7" s="522"/>
+      <c r="C7" s="320" t="s">
         <v>348</v>
       </c>
-      <c r="D6" s="320"/>
-      <c r="E6" s="445">
-        <v>33597</v>
-      </c>
-      <c r="F6" s="365">
+      <c r="D7" s="320"/>
+      <c r="E7" s="350"/>
+      <c r="F7" s="365">
+        <f>SUMIF(C:C,$D7,E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="350"/>
+      <c r="H7" s="514">
+        <v>43208</v>
+      </c>
+      <c r="I7" s="445">
+        <v>10079.1</v>
+      </c>
+      <c r="J7" s="365">
+        <f>SUMIF(C:C,$D7,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="206">
+        <f>IF(SUMIF(D:D,$C7,J:J)=0,"",$I7/SUMIF(D:D,$C7,J:J))</f>
+        <v>0.30044713387188127</v>
+      </c>
+      <c r="L7" s="437">
+        <f>VLOOKUP(H7,汇率!$B$3:F103,5,0)</f>
+        <v>6.27</v>
+      </c>
+      <c r="M7" s="321"/>
+      <c r="N7" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O7" s="243">
+        <f>IF($K7&lt;&gt;"",$K7*SUMIF(D:D,C7,P:P),"")</f>
+        <v>819.61978120249205</v>
+      </c>
+      <c r="P7" s="243"/>
+      <c r="Q7" s="538">
+        <f>I7-O7</f>
+        <v>9259.4802187975074</v>
+      </c>
+      <c r="R7" s="368" t="str">
+        <f>IF($D7="","",SUMIF(C:C,$D7,Q:Q))</f>
+        <v/>
+      </c>
+      <c r="S7" s="532"/>
+      <c r="T7" s="323"/>
+      <c r="U7" s="255" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V7" s="254">
+        <f>IF(N7="N",L7*1.16/(1.16-0.09)-0.3,IF(N7=0,"错误",IF(I7&gt;N7,N7/I7*(L7*1.16/(1.16-0.13)-0.3)+(1-N7/I7)*(L7*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.4973831775700939</v>
+      </c>
+      <c r="W7" s="256" t="str">
+        <f>IF($D7="","",VLOOKUP(B7,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X7" s="252" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="350">
-        <f>I7</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="514">
-        <v>43259</v>
-      </c>
-      <c r="I6" s="445">
-        <v>23467.9</v>
-      </c>
-      <c r="J6" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="206">
-        <f t="shared" si="2"/>
-        <v>0.69955286612811884</v>
-      </c>
-      <c r="L6" s="437">
-        <f>VLOOKUP(H6,汇率!$B$3:F104,5,0)</f>
-        <v>6.39</v>
-      </c>
-      <c r="M6" s="321"/>
-      <c r="N6" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O6" s="243">
-        <f t="shared" si="3"/>
-        <v>1908.3802187975082</v>
-      </c>
-      <c r="P6" s="243"/>
-      <c r="Q6" s="538">
-        <f>I6-O6</f>
-        <v>21559.519781202493</v>
-      </c>
-      <c r="R6" s="368" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S6" s="532"/>
-      <c r="T6" s="323"/>
-      <c r="U6" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V6" s="254">
-        <f>IF(N6="N",L6*1.16/(1.16-0.09)-0.3,IF(N6=0,"错误",IF(I6&gt;N6,N6/I6*(L6*1.16/(1.16-0.13)-0.3)+(1-N6/I6)*(L6*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.6274766355140189</v>
-      </c>
-      <c r="W6" s="256" t="str">
-        <f>IF($D6="","",VLOOKUP(B6,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X6" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y6" s="462"/>
-      <c r="Z6" s="326"/>
-      <c r="AA6" s="326"/>
-      <c r="AB6" s="350"/>
-      <c r="AC6" s="350" t="s">
+      <c r="Y7" s="462"/>
+      <c r="Z7" s="326"/>
+      <c r="AA7" s="326"/>
+      <c r="AB7" s="350"/>
+      <c r="AC7" s="350" t="s">
         <v>328</v>
       </c>
-      <c r="AD6" s="327"/>
-      <c r="AE6" s="327"/>
-    </row>
-    <row r="7" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A7" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B7" s="523">
-        <v>43191</v>
-      </c>
-      <c r="C7" s="364"/>
-      <c r="D7" s="364" t="s">
-        <v>348</v>
-      </c>
-      <c r="E7" s="365"/>
-      <c r="F7" s="365">
-        <f t="shared" si="0"/>
-        <v>33597</v>
-      </c>
-      <c r="G7" s="365">
-        <f>SUBTOTAL(9,G5:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="515"/>
-      <c r="I7" s="365"/>
-      <c r="J7" s="365">
-        <f t="shared" si="1"/>
-        <v>33547</v>
-      </c>
-      <c r="K7" s="206" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L7" s="438"/>
-      <c r="M7" s="365">
-        <v>151667.70000000001</v>
-      </c>
-      <c r="N7" s="404"/>
-      <c r="O7" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P7" s="368">
-        <v>2728</v>
-      </c>
-      <c r="Q7" s="539"/>
-      <c r="R7" s="368">
-        <f t="shared" si="4"/>
-        <v>30819</v>
-      </c>
-      <c r="S7" s="533">
-        <v>9355</v>
-      </c>
-      <c r="T7" s="369"/>
-      <c r="U7" s="255">
-        <f t="shared" si="6"/>
-        <v>5.2509105908692693</v>
-      </c>
-      <c r="V7" s="255">
-        <f>V5*K5+V6*K6</f>
-        <v>6.5883904289392845</v>
-      </c>
-      <c r="W7" s="256">
-        <f>IF($D7="","",VLOOKUP(B7,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X7" s="252">
-        <f t="shared" si="5"/>
-        <v>1730.42471294798</v>
-      </c>
-      <c r="Y7" s="252"/>
-      <c r="Z7" s="252">
-        <f>X7*0.7+Y7</f>
-        <v>1211.2972990635858</v>
-      </c>
-      <c r="AA7" s="252">
-        <f>IF(SUMIF(AB5:AB22,AB7,Z5:Z22)&gt;5000,Z7*0.875,Z7)</f>
-        <v>1059.8851366806375</v>
-      </c>
-      <c r="AB7" s="365" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC7" s="365" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD7" s="370">
-        <v>0.4</v>
-      </c>
-      <c r="AE7" s="370">
-        <v>0.25</v>
-      </c>
+      <c r="AD7" s="327"/>
+      <c r="AE7" s="327"/>
     </row>
     <row r="8" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
       <c r="B8" s="522"/>
-      <c r="C8" s="472" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="509"/>
-      <c r="E8" s="466"/>
+      <c r="C8" s="320" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="320"/>
+      <c r="E8" s="445">
+        <v>33597</v>
+      </c>
       <c r="F8" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D8,E:E)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="350"/>
-      <c r="H8" s="516">
-        <v>43209</v>
-      </c>
-      <c r="I8" s="465">
-        <v>5419.55</v>
+      <c r="G8" s="350">
+        <f>I9</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="514">
+        <v>43259</v>
+      </c>
+      <c r="I8" s="445">
+        <v>23467.9</v>
       </c>
       <c r="J8" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D8,I:I)</f>
         <v>0</v>
       </c>
       <c r="K8" s="206">
-        <f t="shared" si="2"/>
-        <v>9.9296530104279176E-2</v>
+        <f>IF(SUMIF(D:D,$C8,J:J)=0,"",$I8/SUMIF(D:D,$C8,J:J))</f>
+        <v>0.69955286612811884</v>
       </c>
       <c r="L8" s="437">
-        <f>VLOOKUP(H8,汇率!$B$3:F106,5,0)</f>
-        <v>6.26</v>
+        <f>VLOOKUP(H8,汇率!$B$3:F104,5,0)</f>
+        <v>6.39</v>
       </c>
       <c r="M8" s="321"/>
-      <c r="N8" s="468" t="s">
+      <c r="N8" s="403" t="s">
         <v>300</v>
       </c>
       <c r="O8" s="243">
-        <f t="shared" si="3"/>
-        <v>495.48968522035307</v>
+        <f>IF($K8&lt;&gt;"",$K8*SUMIF(D:D,C8,P:P),"")</f>
+        <v>1908.3802187975082</v>
       </c>
       <c r="P8" s="243"/>
       <c r="Q8" s="538">
-        <f>$I8-$O8</f>
-        <v>4924.0603147796473</v>
+        <f>I8-O8</f>
+        <v>21559.519781202493</v>
       </c>
       <c r="R8" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D8="","",SUMIF(C:C,$D8,Q:Q))</f>
         <v/>
       </c>
       <c r="S8" s="532"/>
       <c r="T8" s="323"/>
       <c r="U8" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V8" s="254">
         <f>IF(N8="N",L8*1.16/(1.16-0.09)-0.3,IF(N8=0,"错误",IF(I8&gt;N8,N8/I8*(L8*1.16/(1.16-0.13)-0.3)+(1-N8/I8)*(L8*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.4865420560747671</v>
+        <v>6.6274766355140189</v>
       </c>
       <c r="W8" s="256" t="str">
         <f>IF($D8="","",VLOOKUP(B8,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X8" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y8" s="462"/>
       <c r="Z8" s="326"/>
       <c r="AA8" s="326"/>
       <c r="AB8" s="350"/>
-      <c r="AC8" s="466" t="s">
-        <v>329</v>
+      <c r="AC8" s="350" t="s">
+        <v>328</v>
       </c>
       <c r="AD8" s="327"/>
       <c r="AE8" s="327"/>
     </row>
-    <row r="9" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B9" s="522"/>
-      <c r="C9" s="472" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="509"/>
-      <c r="E9" s="466"/>
+    <row r="9" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A9" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B9" s="523">
+        <v>43191</v>
+      </c>
+      <c r="C9" s="364"/>
+      <c r="D9" s="364" t="s">
+        <v>348</v>
+      </c>
+      <c r="E9" s="365"/>
       <c r="F9" s="365">
+        <f>SUMIF(C:C,$D9,E:E)</f>
+        <v>33597</v>
+      </c>
+      <c r="G9" s="365">
+        <f>SUBTOTAL(9,G7:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="515"/>
+      <c r="I9" s="365"/>
+      <c r="J9" s="365">
+        <f>SUMIF(C:C,$D9,I:I)</f>
+        <v>33547</v>
+      </c>
+      <c r="K9" s="206" t="str">
+        <f>IF(SUMIF(D:D,$C9,J:J)=0,"",$I9/SUMIF(D:D,$C9,J:J))</f>
+        <v/>
+      </c>
+      <c r="L9" s="438"/>
+      <c r="M9" s="365">
+        <v>151667.70000000001</v>
+      </c>
+      <c r="N9" s="404"/>
+      <c r="O9" s="243" t="str">
+        <f>IF($K9&lt;&gt;"",$K9*SUMIF(D:D,C9,P:P),"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="368">
+        <v>2728</v>
+      </c>
+      <c r="Q9" s="539"/>
+      <c r="R9" s="368">
+        <f>IF($D9="","",SUMIF(C:C,$D9,Q:Q))</f>
+        <v>30819</v>
+      </c>
+      <c r="S9" s="533">
+        <v>9355</v>
+      </c>
+      <c r="T9" s="369"/>
+      <c r="U9" s="255">
+        <f t="shared" si="1"/>
+        <v>5.2509105908692693</v>
+      </c>
+      <c r="V9" s="255">
+        <f>V7*K7+V8*K8</f>
+        <v>6.5883904289392845</v>
+      </c>
+      <c r="W9" s="256">
+        <f>IF($D9="","",VLOOKUP(B9,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="X9" s="252">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="350"/>
-      <c r="H9" s="516">
-        <v>43237</v>
-      </c>
-      <c r="I9" s="465">
-        <v>13079.5</v>
-      </c>
-      <c r="J9" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="206">
-        <f t="shared" si="2"/>
-        <v>0.23964147678292838</v>
-      </c>
-      <c r="L9" s="437">
-        <f>VLOOKUP(H9,汇率!$B$3:F107,5,0)</f>
-        <v>6.35</v>
-      </c>
-      <c r="M9" s="321"/>
-      <c r="N9" s="468" t="s">
-        <v>300</v>
-      </c>
-      <c r="O9" s="243">
-        <f t="shared" si="3"/>
-        <v>1195.8109691468126</v>
-      </c>
-      <c r="P9" s="243"/>
-      <c r="Q9" s="538">
-        <f t="shared" ref="Q9:Q12" si="7">$I9-$O9</f>
-        <v>11883.689030853187</v>
-      </c>
-      <c r="R9" s="368" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S9" s="532"/>
-      <c r="T9" s="323"/>
-      <c r="U9" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V9" s="254">
-        <f>IF(N9="N",L9*1.16/(1.16-0.09)-0.3,IF(N9=0,"错误",IF(I9&gt;N9,N9/I9*(L9*1.16/(1.16-0.13)-0.3)+(1-N9/I9)*(L9*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.58411214953271</v>
-      </c>
-      <c r="W9" s="256" t="str">
-        <f>IF($D9="","",VLOOKUP(B9,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X9" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y9" s="462"/>
-      <c r="Z9" s="326"/>
-      <c r="AA9" s="326"/>
-      <c r="AB9" s="350"/>
-      <c r="AC9" s="466" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD9" s="327"/>
-      <c r="AE9" s="327"/>
+        <v>1730.42471294798</v>
+      </c>
+      <c r="Y9" s="252"/>
+      <c r="Z9" s="252">
+        <f>X9*0.7+Y9</f>
+        <v>1211.2972990635858</v>
+      </c>
+      <c r="AA9" s="252">
+        <f>IF(SUMIF(AB7:AB24,AB9,Z7:Z24)&gt;5000,Z9*0.875,Z9)</f>
+        <v>1059.8851366806375</v>
+      </c>
+      <c r="AB9" s="365" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="365" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD9" s="370">
+        <v>0.4</v>
+      </c>
+      <c r="AE9" s="370">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
       <c r="B10" s="522"/>
@@ -11919,61 +12034,61 @@
       <c r="D10" s="509"/>
       <c r="E10" s="466"/>
       <c r="F10" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D10,E:E)</f>
         <v>0</v>
       </c>
       <c r="G10" s="350"/>
       <c r="H10" s="516">
-        <v>43250</v>
+        <v>43209</v>
       </c>
       <c r="I10" s="465">
-        <v>14336.82</v>
+        <v>5419.55</v>
       </c>
       <c r="J10" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D10,I:I)</f>
         <v>0</v>
       </c>
       <c r="K10" s="206">
-        <f t="shared" si="2"/>
-        <v>0.26267798594525965</v>
+        <f>IF(SUMIF(D:D,$C10,J:J)=0,"",$I10/SUMIF(D:D,$C10,J:J))</f>
+        <v>9.9296530104279176E-2</v>
       </c>
       <c r="L10" s="437">
-        <f>VLOOKUP(H10,汇率!$B$3:F108,5,0)</f>
-        <v>6.41</v>
+        <f>VLOOKUP(H10,汇率!$B$3:F106,5,0)</f>
+        <v>6.26</v>
       </c>
       <c r="M10" s="321"/>
       <c r="N10" s="468" t="s">
         <v>300</v>
       </c>
       <c r="O10" s="243">
-        <f t="shared" si="3"/>
-        <v>1310.7631498668457</v>
+        <f>IF($K10&lt;&gt;"",$K10*SUMIF(D:D,C10,P:P),"")</f>
+        <v>495.48968522035307</v>
       </c>
       <c r="P10" s="243"/>
       <c r="Q10" s="538">
-        <f t="shared" si="7"/>
-        <v>13026.056850133155</v>
+        <f>$I10-$O10</f>
+        <v>4924.0603147796473</v>
       </c>
       <c r="R10" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D10="","",SUMIF(C:C,$D10,Q:Q))</f>
         <v/>
       </c>
       <c r="S10" s="532"/>
       <c r="T10" s="323"/>
       <c r="U10" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V10" s="254">
         <f>IF(N10="N",L10*1.16/(1.16-0.09)-0.3,IF(N10=0,"错误",IF(I10&gt;N10,N10/I10*(L10*1.16/(1.16-0.13)-0.3)+(1-N10/I10)*(L10*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.6491588785046742</v>
+        <v>6.4865420560747671</v>
       </c>
       <c r="W10" s="256" t="str">
         <f>IF($D10="","",VLOOKUP(B10,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X10" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y10" s="462"/>
@@ -11994,61 +12109,61 @@
       <c r="D11" s="509"/>
       <c r="E11" s="466"/>
       <c r="F11" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D11,E:E)</f>
         <v>0</v>
       </c>
       <c r="G11" s="350"/>
       <c r="H11" s="516">
-        <v>43272</v>
+        <v>43237</v>
       </c>
       <c r="I11" s="465">
-        <v>10456.6</v>
+        <v>13079.5</v>
       </c>
       <c r="J11" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D11,I:I)</f>
         <v>0</v>
       </c>
       <c r="K11" s="206">
-        <f t="shared" si="2"/>
-        <v>0.19158492802694055</v>
+        <f>IF(SUMIF(D:D,$C11,J:J)=0,"",$I11/SUMIF(D:D,$C11,J:J))</f>
+        <v>0.23964147678292838</v>
       </c>
       <c r="L11" s="437">
-        <f>VLOOKUP(H11,汇率!$B$3:F109,5,0)</f>
-        <v>6.48</v>
+        <f>VLOOKUP(H11,汇率!$B$3:F107,5,0)</f>
+        <v>6.35</v>
       </c>
       <c r="M11" s="321"/>
       <c r="N11" s="468" t="s">
         <v>300</v>
       </c>
       <c r="O11" s="243">
-        <f t="shared" si="3"/>
-        <v>956.0087908544333</v>
+        <f>IF($K11&lt;&gt;"",$K11*SUMIF(D:D,C11,P:P),"")</f>
+        <v>1195.8109691468126</v>
       </c>
       <c r="P11" s="243"/>
       <c r="Q11" s="538">
-        <f t="shared" si="7"/>
-        <v>9500.5912091455666</v>
+        <f t="shared" ref="Q11:Q14" si="2">$I11-$O11</f>
+        <v>11883.689030853187</v>
       </c>
       <c r="R11" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D11="","",SUMIF(C:C,$D11,Q:Q))</f>
         <v/>
       </c>
       <c r="S11" s="532"/>
       <c r="T11" s="323"/>
       <c r="U11" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V11" s="254">
         <f>IF(N11="N",L11*1.16/(1.16-0.09)-0.3,IF(N11=0,"错误",IF(I11&gt;N11,N11/I11*(L11*1.16/(1.16-0.13)-0.3)+(1-N11/I11)*(L11*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.7250467289719635</v>
+        <v>6.58411214953271</v>
       </c>
       <c r="W11" s="256" t="str">
         <f>IF($D11="","",VLOOKUP(B11,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X11" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y11" s="462"/>
@@ -12067,68 +12182,63 @@
         <v>349</v>
       </c>
       <c r="D12" s="509"/>
-      <c r="E12" s="465">
-        <v>54651.45</v>
-      </c>
+      <c r="E12" s="466"/>
       <c r="F12" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D12,E:E)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="350">
-        <f>I13</f>
+      <c r="G12" s="350"/>
+      <c r="H12" s="516">
+        <v>43250</v>
+      </c>
+      <c r="I12" s="465">
+        <v>14336.82</v>
+      </c>
+      <c r="J12" s="365">
+        <f>SUMIF(C:C,$D12,I:I)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="516">
-        <v>43279</v>
-      </c>
-      <c r="I12" s="465">
-        <v>11286.98</v>
-      </c>
-      <c r="J12" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K12" s="206">
-        <f t="shared" si="2"/>
-        <v>0.20679907914059228</v>
+        <f>IF(SUMIF(D:D,$C12,J:J)=0,"",$I12/SUMIF(D:D,$C12,J:J))</f>
+        <v>0.26267798594525965</v>
       </c>
       <c r="L12" s="437">
-        <f>VLOOKUP(H12,汇率!$B$3:F110,5,0)</f>
-        <v>6.61</v>
+        <f>VLOOKUP(H12,汇率!$B$3:F108,5,0)</f>
+        <v>6.41</v>
       </c>
       <c r="M12" s="321"/>
       <c r="N12" s="468" t="s">
         <v>300</v>
       </c>
       <c r="O12" s="243">
-        <f t="shared" si="3"/>
-        <v>1031.9274049115554</v>
+        <f>IF($K12&lt;&gt;"",$K12*SUMIF(D:D,C12,P:P),"")</f>
+        <v>1310.7631498668457</v>
       </c>
       <c r="P12" s="243"/>
       <c r="Q12" s="538">
-        <f t="shared" si="7"/>
-        <v>10255.052595088444</v>
+        <f t="shared" si="2"/>
+        <v>13026.056850133155</v>
       </c>
       <c r="R12" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D12="","",SUMIF(C:C,$D12,Q:Q))</f>
         <v/>
       </c>
       <c r="S12" s="532"/>
       <c r="T12" s="323"/>
       <c r="U12" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V12" s="254">
         <f>IF(N12="N",L12*1.16/(1.16-0.09)-0.3,IF(N12=0,"错误",IF(I12&gt;N12,N12/I12*(L12*1.16/(1.16-0.13)-0.3)+(1-N12/I12)*(L12*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.8659813084112162</v>
+        <v>6.6491588785046742</v>
       </c>
       <c r="W12" s="256" t="str">
         <f>IF($D12="","",VLOOKUP(B12,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X12" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y12" s="462"/>
@@ -12141,407 +12251,396 @@
       <c r="AD12" s="327"/>
       <c r="AE12" s="327"/>
     </row>
-    <row r="13" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A13" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B13" s="524">
-        <v>43191</v>
-      </c>
-      <c r="C13" s="510"/>
-      <c r="D13" s="473" t="s">
+    <row r="13" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B13" s="522"/>
+      <c r="C13" s="472" t="s">
         <v>349</v>
       </c>
-      <c r="E13" s="354"/>
+      <c r="D13" s="509"/>
+      <c r="E13" s="466"/>
       <c r="F13" s="365">
+        <f>SUMIF(C:C,$D13,E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="350"/>
+      <c r="H13" s="516">
+        <v>43272</v>
+      </c>
+      <c r="I13" s="465">
+        <v>10456.6</v>
+      </c>
+      <c r="J13" s="365">
+        <f>SUMIF(C:C,$D13,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="206">
+        <f>IF(SUMIF(D:D,$C13,J:J)=0,"",$I13/SUMIF(D:D,$C13,J:J))</f>
+        <v>0.19158492802694055</v>
+      </c>
+      <c r="L13" s="437">
+        <f>VLOOKUP(H13,汇率!$B$3:F109,5,0)</f>
+        <v>6.48</v>
+      </c>
+      <c r="M13" s="321"/>
+      <c r="N13" s="468" t="s">
+        <v>300</v>
+      </c>
+      <c r="O13" s="243">
+        <f>IF($K13&lt;&gt;"",$K13*SUMIF(D:D,C13,P:P),"")</f>
+        <v>956.0087908544333</v>
+      </c>
+      <c r="P13" s="243"/>
+      <c r="Q13" s="538">
+        <f t="shared" si="2"/>
+        <v>9500.5912091455666</v>
+      </c>
+      <c r="R13" s="368" t="str">
+        <f>IF($D13="","",SUMIF(C:C,$D13,Q:Q))</f>
+        <v/>
+      </c>
+      <c r="S13" s="532"/>
+      <c r="T13" s="323"/>
+      <c r="U13" s="255" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V13" s="254">
+        <f>IF(N13="N",L13*1.16/(1.16-0.09)-0.3,IF(N13=0,"错误",IF(I13&gt;N13,N13/I13*(L13*1.16/(1.16-0.13)-0.3)+(1-N13/I13)*(L13*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.7250467289719635</v>
+      </c>
+      <c r="W13" s="256" t="str">
+        <f>IF($D13="","",VLOOKUP(B13,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X13" s="252" t="str">
         <f t="shared" si="0"/>
-        <v>54651.45</v>
-      </c>
-      <c r="G13" s="365">
-        <f>SUBTOTAL(9,G8:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="515"/>
-      <c r="I13" s="365"/>
-      <c r="J13" s="365">
-        <f t="shared" si="1"/>
-        <v>54579.45</v>
-      </c>
-      <c r="K13" s="206" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="438"/>
-      <c r="M13" s="466">
-        <v>262942.3</v>
-      </c>
-      <c r="N13" s="404"/>
-      <c r="O13" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P13" s="471">
-        <v>4990</v>
-      </c>
-      <c r="Q13" s="538"/>
-      <c r="R13" s="368">
-        <f t="shared" si="4"/>
-        <v>49589.45</v>
-      </c>
-      <c r="S13" s="498">
-        <v>10530</v>
-      </c>
-      <c r="T13" s="369"/>
-      <c r="U13" s="255">
-        <f t="shared" si="6"/>
-        <v>5.5423010640368053</v>
-      </c>
-      <c r="V13" s="255">
-        <f>V8*K8+V9*K9+V10*K10+V11*K11+V12*K12</f>
-        <v>6.6768013453216541</v>
-      </c>
-      <c r="W13" s="256">
-        <f>IF($D13="","",VLOOKUP(B13,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X13" s="252">
-        <f t="shared" si="5"/>
-        <v>444.44579434402362</v>
-      </c>
-      <c r="Y13" s="520">
-        <f>下单月成本!O8</f>
-        <v>2287.4179175449608</v>
-      </c>
-      <c r="Z13" s="252">
-        <f>X13*0.7+Y13</f>
-        <v>2598.5299735857775</v>
-      </c>
-      <c r="AA13" s="252">
-        <f>IF(SUMIF(AB8:AB24,AB13,Z8:Z24)&gt;5000,Z13*0.875,Z13)</f>
-        <v>2273.7137268875554</v>
-      </c>
-      <c r="AB13" s="466" t="s">
-        <v>18</v>
-      </c>
+      <c r="Y13" s="462"/>
+      <c r="Z13" s="326"/>
+      <c r="AA13" s="326"/>
+      <c r="AB13" s="350"/>
       <c r="AC13" s="466" t="s">
         <v>329</v>
       </c>
-      <c r="AD13" s="469">
-        <v>0.1</v>
-      </c>
-      <c r="AE13" s="469">
-        <v>0.25</v>
-      </c>
+      <c r="AD13" s="327"/>
+      <c r="AE13" s="327"/>
     </row>
     <row r="14" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
       <c r="B14" s="522"/>
-      <c r="C14" s="320" t="s">
-        <v>350</v>
-      </c>
-      <c r="D14" s="320"/>
-      <c r="E14" s="350"/>
+      <c r="C14" s="472" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="509"/>
+      <c r="E14" s="465">
+        <v>54651.45</v>
+      </c>
       <c r="F14" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D14,E:E)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="350"/>
-      <c r="H14" s="514">
-        <v>43218</v>
-      </c>
-      <c r="I14" s="445">
-        <v>21055</v>
+      <c r="G14" s="350">
+        <f>I15</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="516">
+        <v>43279</v>
+      </c>
+      <c r="I14" s="465">
+        <v>11286.98</v>
       </c>
       <c r="J14" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D14,I:I)</f>
         <v>0</v>
       </c>
       <c r="K14" s="206">
-        <f t="shared" si="2"/>
-        <v>0.50238606537819142</v>
+        <f>IF(SUMIF(D:D,$C14,J:J)=0,"",$I14/SUMIF(D:D,$C14,J:J))</f>
+        <v>0.20679907914059228</v>
       </c>
       <c r="L14" s="437">
-        <f>VLOOKUP(H14,汇率!$B$3:F112,5,0)</f>
-        <v>6.32</v>
+        <f>VLOOKUP(H14,汇率!$B$3:F110,5,0)</f>
+        <v>6.61</v>
       </c>
       <c r="M14" s="321"/>
-      <c r="N14" s="403" t="s">
+      <c r="N14" s="468" t="s">
         <v>300</v>
       </c>
       <c r="O14" s="243">
-        <f t="shared" si="3"/>
-        <v>2431.0461703650681</v>
+        <f>IF($K14&lt;&gt;"",$K14*SUMIF(D:D,C14,P:P),"")</f>
+        <v>1031.9274049115554</v>
       </c>
       <c r="P14" s="243"/>
       <c r="Q14" s="538">
-        <f>I14-O14</f>
-        <v>18623.953829634931</v>
+        <f t="shared" si="2"/>
+        <v>10255.052595088444</v>
       </c>
       <c r="R14" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D14="","",SUMIF(C:C,$D14,Q:Q))</f>
         <v/>
       </c>
       <c r="S14" s="532"/>
       <c r="T14" s="323"/>
       <c r="U14" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V14" s="254">
         <f>IF(N14="N",L14*1.16/(1.16-0.09)-0.3,IF(N14=0,"错误",IF(I14&gt;N14,N14/I14*(L14*1.16/(1.16-0.13)-0.3)+(1-N14/I14)*(L14*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.5515887850467305</v>
+        <v>6.8659813084112162</v>
       </c>
       <c r="W14" s="256" t="str">
         <f>IF($D14="","",VLOOKUP(B14,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X14" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y14" s="462"/>
       <c r="Z14" s="326"/>
       <c r="AA14" s="326"/>
       <c r="AB14" s="350"/>
-      <c r="AC14" s="350" t="s">
-        <v>330</v>
+      <c r="AC14" s="466" t="s">
+        <v>329</v>
       </c>
       <c r="AD14" s="327"/>
       <c r="AE14" s="327"/>
     </row>
-    <row r="15" spans="1:31" s="328" customFormat="1" ht="12.6" customHeight="1" outlineLevel="2">
-      <c r="B15" s="522"/>
-      <c r="C15" s="320" t="s">
+    <row r="15" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A15" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B15" s="524">
+        <v>43191</v>
+      </c>
+      <c r="C15" s="510"/>
+      <c r="D15" s="473" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15" s="354"/>
+      <c r="F15" s="365">
+        <f>SUMIF(C:C,$D15,E:E)</f>
+        <v>54651.45</v>
+      </c>
+      <c r="G15" s="365">
+        <f>SUBTOTAL(9,G10:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="515"/>
+      <c r="I15" s="365"/>
+      <c r="J15" s="365">
+        <f>SUMIF(C:C,$D15,I:I)</f>
+        <v>54579.45</v>
+      </c>
+      <c r="K15" s="206" t="str">
+        <f>IF(SUMIF(D:D,$C15,J:J)=0,"",$I15/SUMIF(D:D,$C15,J:J))</f>
+        <v/>
+      </c>
+      <c r="L15" s="438"/>
+      <c r="M15" s="466">
+        <v>262942.3</v>
+      </c>
+      <c r="N15" s="404"/>
+      <c r="O15" s="243" t="str">
+        <f>IF($K15&lt;&gt;"",$K15*SUMIF(D:D,C15,P:P),"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="471">
+        <v>4990</v>
+      </c>
+      <c r="Q15" s="538"/>
+      <c r="R15" s="368">
+        <f>IF($D15="","",SUMIF(C:C,$D15,Q:Q))</f>
+        <v>49589.45</v>
+      </c>
+      <c r="S15" s="498">
+        <v>10530</v>
+      </c>
+      <c r="T15" s="369"/>
+      <c r="U15" s="255">
+        <f t="shared" si="1"/>
+        <v>5.5423010640368053</v>
+      </c>
+      <c r="V15" s="255">
+        <f>V10*K10+V11*K11+V12*K12+V13*K13+V14*K14</f>
+        <v>6.6768013453216541</v>
+      </c>
+      <c r="W15" s="256">
+        <f>IF($D15="","",VLOOKUP(B15,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="X15" s="252">
+        <f t="shared" si="0"/>
+        <v>444.44579434402362</v>
+      </c>
+      <c r="Y15" s="520">
+        <f>下单月成本!O8</f>
+        <v>2287.4179175449608</v>
+      </c>
+      <c r="Z15" s="252">
+        <f>X15*0.7+Y15</f>
+        <v>2598.5299735857775</v>
+      </c>
+      <c r="AA15" s="252">
+        <f>IF(SUMIF(AB10:AB26,AB15,Z10:Z26)&gt;5000,Z15*0.875,Z15)</f>
+        <v>2273.7137268875554</v>
+      </c>
+      <c r="AB15" s="466" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="466" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD15" s="469">
+        <v>0.1</v>
+      </c>
+      <c r="AE15" s="469">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B16" s="522"/>
+      <c r="C16" s="320" t="s">
         <v>350</v>
       </c>
-      <c r="D15" s="320"/>
-      <c r="E15" s="445">
-        <v>41930</v>
-      </c>
-      <c r="F15" s="365">
+      <c r="D16" s="320"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="365">
+        <f>SUMIF(C:C,$D16,E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="350"/>
+      <c r="H16" s="514">
+        <v>43218</v>
+      </c>
+      <c r="I16" s="445">
+        <v>21055</v>
+      </c>
+      <c r="J16" s="365">
+        <f>SUMIF(C:C,$D16,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="206">
+        <f>IF(SUMIF(D:D,$C16,J:J)=0,"",$I16/SUMIF(D:D,$C16,J:J))</f>
+        <v>0.50238606537819142</v>
+      </c>
+      <c r="L16" s="437">
+        <f>VLOOKUP(H16,汇率!$B$3:F112,5,0)</f>
+        <v>6.32</v>
+      </c>
+      <c r="M16" s="321"/>
+      <c r="N16" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O16" s="243">
+        <f>IF($K16&lt;&gt;"",$K16*SUMIF(D:D,C16,P:P),"")</f>
+        <v>2431.0461703650681</v>
+      </c>
+      <c r="P16" s="243"/>
+      <c r="Q16" s="538">
+        <f>I16-O16</f>
+        <v>18623.953829634931</v>
+      </c>
+      <c r="R16" s="368" t="str">
+        <f>IF($D16="","",SUMIF(C:C,$D16,Q:Q))</f>
+        <v/>
+      </c>
+      <c r="S16" s="532"/>
+      <c r="T16" s="323"/>
+      <c r="U16" s="255" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V16" s="254">
+        <f>IF(N16="N",L16*1.16/(1.16-0.09)-0.3,IF(N16=0,"错误",IF(I16&gt;N16,N16/I16*(L16*1.16/(1.16-0.13)-0.3)+(1-N16/I16)*(L16*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.5515887850467305</v>
+      </c>
+      <c r="W16" s="256" t="str">
+        <f>IF($D16="","",VLOOKUP(B16,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X16" s="252" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="350">
-        <f>I16</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="514">
-        <v>43273</v>
-      </c>
-      <c r="I15" s="445">
-        <v>20855</v>
-      </c>
-      <c r="J15" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="206">
-        <f t="shared" si="2"/>
-        <v>0.49761393462180864</v>
-      </c>
-      <c r="L15" s="437">
-        <f>VLOOKUP(H15,汇率!$B$3:F113,5,0)</f>
-        <v>6.48</v>
-      </c>
-      <c r="M15" s="321"/>
-      <c r="N15" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O15" s="243">
-        <f t="shared" si="3"/>
-        <v>2407.9538296349319</v>
-      </c>
-      <c r="P15" s="243"/>
-      <c r="Q15" s="538">
-        <f>I15-O15</f>
-        <v>18447.046170365069</v>
-      </c>
-      <c r="R15" s="368" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S15" s="532"/>
-      <c r="T15" s="323"/>
-      <c r="U15" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V15" s="254">
-        <f>IF(N15="N",L15*1.16/(1.16-0.09)-0.3,IF(N15=0,"错误",IF(I15&gt;N15,N15/I15*(L15*1.16/(1.16-0.13)-0.3)+(1-N15/I15)*(L15*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.7250467289719635</v>
-      </c>
-      <c r="W15" s="256" t="str">
-        <f>IF($D15="","",VLOOKUP(B15,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X15" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y15" s="462"/>
-      <c r="Z15" s="326"/>
-      <c r="AA15" s="326"/>
-      <c r="AB15" s="350"/>
-      <c r="AC15" s="350" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD15" s="327"/>
-      <c r="AE15" s="327"/>
-    </row>
-    <row r="16" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A16" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B16" s="523">
-        <v>43191</v>
-      </c>
-      <c r="C16" s="364"/>
-      <c r="D16" s="364" t="s">
-        <v>350</v>
-      </c>
-      <c r="E16" s="365"/>
-      <c r="F16" s="365">
-        <f t="shared" si="0"/>
-        <v>41930</v>
-      </c>
-      <c r="G16" s="365">
-        <f>SUBTOTAL(9,G14:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="515"/>
-      <c r="I16" s="365"/>
-      <c r="J16" s="365">
-        <f t="shared" si="1"/>
-        <v>41910</v>
-      </c>
-      <c r="K16" s="206" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L16" s="438"/>
-      <c r="M16" s="365">
-        <v>195317.95</v>
-      </c>
-      <c r="N16" s="404"/>
-      <c r="O16" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P16" s="368">
-        <v>4839</v>
-      </c>
-      <c r="Q16" s="539"/>
-      <c r="R16" s="368">
-        <f t="shared" si="4"/>
-        <v>37071</v>
-      </c>
-      <c r="S16" s="533">
-        <v>5730</v>
-      </c>
-      <c r="T16" s="369"/>
-      <c r="U16" s="255">
-        <f t="shared" si="6"/>
-        <v>5.4504380715383993</v>
-      </c>
-      <c r="V16" s="255">
-        <f>V14*K14+V15*K15</f>
-        <v>6.637903875014775</v>
-      </c>
-      <c r="W16" s="256">
-        <f>IF($D16="","",VLOOKUP(B16,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X16" s="252">
-        <f t="shared" si="5"/>
-        <v>3813.3622001681802</v>
-      </c>
-      <c r="Y16" s="252">
-        <v>-2000</v>
-      </c>
-      <c r="Z16" s="252">
-        <f>SUM(X16:Y16)*0.7</f>
-        <v>1269.353540117726</v>
-      </c>
-      <c r="AA16" s="252">
-        <f>IF(SUMIF(AB14:AB35,AB16,Z14:Z35)&gt;5000,Z16*0.875,Z16)</f>
-        <v>1110.6843476030103</v>
-      </c>
-      <c r="AB16" s="365" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC16" s="365" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD16" s="370">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="370">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="Y16" s="462"/>
+      <c r="Z16" s="326"/>
+      <c r="AA16" s="326"/>
+      <c r="AB16" s="350"/>
+      <c r="AC16" s="350" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD16" s="327"/>
+      <c r="AE16" s="327"/>
+    </row>
+    <row r="17" spans="1:31" s="328" customFormat="1" ht="12.6" customHeight="1" outlineLevel="2">
       <c r="B17" s="522"/>
       <c r="C17" s="320" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D17" s="320"/>
-      <c r="E17" s="350"/>
+      <c r="E17" s="445">
+        <v>41930</v>
+      </c>
       <c r="F17" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D17,E:E)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="350"/>
+      <c r="G17" s="350">
+        <f>I18</f>
+        <v>0</v>
+      </c>
       <c r="H17" s="514">
-        <v>43242</v>
+        <v>43273</v>
       </c>
       <c r="I17" s="445">
-        <v>10846.5</v>
+        <v>20855</v>
       </c>
       <c r="J17" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D17,I:I)</f>
         <v>0</v>
       </c>
       <c r="K17" s="206">
-        <f t="shared" si="2"/>
-        <v>0.24536817102137767</v>
+        <f>IF(SUMIF(D:D,$C17,J:J)=0,"",$I17/SUMIF(D:D,$C17,J:J))</f>
+        <v>0.49761393462180864</v>
       </c>
       <c r="L17" s="437">
-        <f>VLOOKUP(H17,汇率!$B$3:F115,5,0)</f>
-        <v>6.36</v>
+        <f>VLOOKUP(H17,汇率!$B$3:F113,5,0)</f>
+        <v>6.48</v>
       </c>
       <c r="M17" s="321"/>
       <c r="N17" s="403" t="s">
         <v>300</v>
       </c>
       <c r="O17" s="243">
-        <f t="shared" si="3"/>
-        <v>687.03087885985747</v>
+        <f>IF($K17&lt;&gt;"",$K17*SUMIF(D:D,C17,P:P),"")</f>
+        <v>2407.9538296349319</v>
       </c>
       <c r="P17" s="243"/>
       <c r="Q17" s="538">
         <f>I17-O17</f>
-        <v>10159.469121140142</v>
+        <v>18447.046170365069</v>
       </c>
       <c r="R17" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D17="","",SUMIF(C:C,$D17,Q:Q))</f>
         <v/>
       </c>
       <c r="S17" s="532"/>
       <c r="T17" s="323"/>
       <c r="U17" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V17" s="254">
         <f>IF(N17="N",L17*1.16/(1.16-0.09)-0.3,IF(N17=0,"错误",IF(I17&gt;N17,N17/I17*(L17*1.16/(1.16-0.13)-0.3)+(1-N17/I17)*(L17*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.5949532710280385</v>
+        <v>6.7250467289719635</v>
       </c>
       <c r="W17" s="256" t="str">
         <f>IF($D17="","",VLOOKUP(B17,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X17" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y17" s="462"/>
@@ -12549,193 +12648,188 @@
       <c r="AA17" s="326"/>
       <c r="AB17" s="350"/>
       <c r="AC17" s="350" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AD17" s="327"/>
       <c r="AE17" s="327"/>
     </row>
-    <row r="18" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B18" s="522"/>
-      <c r="C18" s="320" t="s">
+    <row r="18" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A18" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B18" s="523">
+        <v>43191</v>
+      </c>
+      <c r="C18" s="364"/>
+      <c r="D18" s="364" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="365"/>
+      <c r="F18" s="365">
+        <f>SUMIF(C:C,$D18,E:E)</f>
+        <v>41930</v>
+      </c>
+      <c r="G18" s="365">
+        <f>SUBTOTAL(9,G16:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="515"/>
+      <c r="I18" s="365"/>
+      <c r="J18" s="365">
+        <f>SUMIF(C:C,$D18,I:I)</f>
+        <v>41910</v>
+      </c>
+      <c r="K18" s="206" t="str">
+        <f>IF(SUMIF(D:D,$C18,J:J)=0,"",$I18/SUMIF(D:D,$C18,J:J))</f>
+        <v/>
+      </c>
+      <c r="L18" s="438"/>
+      <c r="M18" s="365">
+        <v>195317.95</v>
+      </c>
+      <c r="N18" s="404"/>
+      <c r="O18" s="243" t="str">
+        <f>IF($K18&lt;&gt;"",$K18*SUMIF(D:D,C18,P:P),"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="368">
+        <v>4839</v>
+      </c>
+      <c r="Q18" s="539"/>
+      <c r="R18" s="368">
+        <f>IF($D18="","",SUMIF(C:C,$D18,Q:Q))</f>
+        <v>37071</v>
+      </c>
+      <c r="S18" s="533">
+        <v>5730</v>
+      </c>
+      <c r="T18" s="369"/>
+      <c r="U18" s="255">
+        <f t="shared" si="1"/>
+        <v>5.4504380715383993</v>
+      </c>
+      <c r="V18" s="255">
+        <f>V16*K16+V17*K17</f>
+        <v>6.637903875014775</v>
+      </c>
+      <c r="W18" s="256">
+        <f>IF($D18="","",VLOOKUP(B18,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="X18" s="252">
+        <f t="shared" si="0"/>
+        <v>3813.3622001681802</v>
+      </c>
+      <c r="Y18" s="252">
+        <v>-2000</v>
+      </c>
+      <c r="Z18" s="252">
+        <f>SUM(X18:Y18)*0.7</f>
+        <v>1269.353540117726</v>
+      </c>
+      <c r="AA18" s="252">
+        <f>IF(SUMIF(AB16:AB37,AB18,Z16:Z37)&gt;5000,Z18*0.875,Z18)</f>
+        <v>1110.6843476030103</v>
+      </c>
+      <c r="AB18" s="365" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC18" s="365" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD18" s="370">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B19" s="522"/>
+      <c r="C19" s="320" t="s">
         <v>351</v>
       </c>
-      <c r="D18" s="320"/>
-      <c r="E18" s="445">
-        <v>44205</v>
-      </c>
-      <c r="F18" s="365">
+      <c r="D19" s="320"/>
+      <c r="E19" s="350"/>
+      <c r="F19" s="365">
+        <f>SUMIF(C:C,$D19,E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="350"/>
+      <c r="H19" s="514">
+        <v>43242</v>
+      </c>
+      <c r="I19" s="445">
+        <v>10846.5</v>
+      </c>
+      <c r="J19" s="365">
+        <f>SUMIF(C:C,$D19,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="206">
+        <f>IF(SUMIF(D:D,$C19,J:J)=0,"",$I19/SUMIF(D:D,$C19,J:J))</f>
+        <v>0.24536817102137767</v>
+      </c>
+      <c r="L19" s="437">
+        <f>VLOOKUP(H19,汇率!$B$3:F115,5,0)</f>
+        <v>6.36</v>
+      </c>
+      <c r="M19" s="321"/>
+      <c r="N19" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O19" s="243">
+        <f>IF($K19&lt;&gt;"",$K19*SUMIF(D:D,C19,P:P),"")</f>
+        <v>687.03087885985747</v>
+      </c>
+      <c r="P19" s="243"/>
+      <c r="Q19" s="538">
+        <f>I19-O19</f>
+        <v>10159.469121140142</v>
+      </c>
+      <c r="R19" s="368" t="str">
+        <f>IF($D19="","",SUMIF(C:C,$D19,Q:Q))</f>
+        <v/>
+      </c>
+      <c r="S19" s="532"/>
+      <c r="T19" s="323"/>
+      <c r="U19" s="255" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V19" s="254">
+        <f>IF(N19="N",L19*1.16/(1.16-0.09)-0.3,IF(N19=0,"错误",IF(I19&gt;N19,N19/I19*(L19*1.16/(1.16-0.13)-0.3)+(1-N19/I19)*(L19*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.5949532710280385</v>
+      </c>
+      <c r="W19" s="256" t="str">
+        <f>IF($D19="","",VLOOKUP(B19,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X19" s="252" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="350">
-        <f>I19</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="514">
-        <v>43280</v>
-      </c>
-      <c r="I18" s="445">
-        <v>33358.5</v>
-      </c>
-      <c r="J18" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="206">
-        <f t="shared" si="2"/>
-        <v>0.75463182897862235</v>
-      </c>
-      <c r="L18" s="437">
-        <f>VLOOKUP(H18,汇率!$B$3:F116,5,0)</f>
-        <v>6.61</v>
-      </c>
-      <c r="M18" s="321"/>
-      <c r="N18" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O18" s="243">
-        <f t="shared" si="3"/>
-        <v>2112.9691211401428</v>
-      </c>
-      <c r="P18" s="243"/>
-      <c r="Q18" s="538">
-        <f>I18-O18</f>
-        <v>31245.530878859856</v>
-      </c>
-      <c r="R18" s="368" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S18" s="532"/>
-      <c r="T18" s="323"/>
-      <c r="U18" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V18" s="254">
-        <f>IF(N18="N",L18*1.16/(1.16-0.09)-0.3,IF(N18=0,"错误",IF(I18&gt;N18,N18/I18*(L18*1.16/(1.16-0.13)-0.3)+(1-N18/I18)*(L18*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.8659813084112162</v>
-      </c>
-      <c r="W18" s="256" t="str">
-        <f>IF($D18="","",VLOOKUP(B18,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X18" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y18" s="462"/>
-      <c r="Z18" s="326"/>
-      <c r="AA18" s="326"/>
-      <c r="AB18" s="350"/>
-      <c r="AC18" s="350" t="s">
+      <c r="Y19" s="462"/>
+      <c r="Z19" s="326"/>
+      <c r="AA19" s="326"/>
+      <c r="AB19" s="350"/>
+      <c r="AC19" s="350" t="s">
         <v>331</v>
       </c>
-      <c r="AD18" s="327"/>
-      <c r="AE18" s="327"/>
-    </row>
-    <row r="19" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A19" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B19" s="523">
-        <v>43221</v>
-      </c>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364" t="s">
-        <v>351</v>
-      </c>
-      <c r="E19" s="365"/>
-      <c r="F19" s="365">
-        <f t="shared" si="0"/>
-        <v>44205</v>
-      </c>
-      <c r="G19" s="365">
-        <f>SUBTOTAL(9,G17:G18)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="515"/>
-      <c r="I19" s="365"/>
-      <c r="J19" s="365">
-        <f t="shared" si="1"/>
-        <v>44205</v>
-      </c>
-      <c r="K19" s="206" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L19" s="438"/>
-      <c r="M19" s="365">
-        <v>185505</v>
-      </c>
-      <c r="N19" s="404"/>
-      <c r="O19" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P19" s="368">
-        <v>2800</v>
-      </c>
-      <c r="Q19" s="539"/>
-      <c r="R19" s="368">
-        <f t="shared" si="4"/>
-        <v>41405</v>
-      </c>
-      <c r="S19" s="533">
-        <v>5060</v>
-      </c>
-      <c r="T19" s="369"/>
-      <c r="U19" s="255">
-        <f t="shared" si="6"/>
-        <v>4.6254757879483153</v>
-      </c>
-      <c r="V19" s="255">
-        <f>V17*K17+V18*K18</f>
-        <v>6.799479654582993</v>
-      </c>
-      <c r="W19" s="256">
-        <f>IF($D19="","",VLOOKUP(B19,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="X19" s="252">
-        <f t="shared" si="5"/>
-        <v>1433.6521274502206</v>
-      </c>
-      <c r="Y19" s="252">
-        <v>10000</v>
-      </c>
-      <c r="Z19" s="252">
-        <f>X19*0.7+Y19</f>
-        <v>11003.556489215154</v>
-      </c>
-      <c r="AA19" s="252">
-        <f>IF(SUMIF(AB15:AB38,AB19,Z15:Z38)&gt;5000,Z19*0.875,Z19)</f>
-        <v>9628.1119280632593</v>
-      </c>
-      <c r="AB19" s="365" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC19" s="365" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD19" s="370">
-        <v>0.1</v>
-      </c>
-      <c r="AE19" s="370">
-        <v>0.25</v>
-      </c>
+      <c r="AD19" s="327"/>
+      <c r="AE19" s="327"/>
     </row>
     <row r="20" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
       <c r="B20" s="522"/>
       <c r="C20" s="320" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D20" s="320"/>
       <c r="E20" s="445">
-        <v>22345</v>
+        <v>44205</v>
       </c>
       <c r="F20" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D20,E:E)</f>
         <v>0</v>
       </c>
       <c r="G20" s="350">
@@ -12743,56 +12837,56 @@
         <v>0</v>
       </c>
       <c r="H20" s="514">
-        <v>43257</v>
+        <v>43280</v>
       </c>
       <c r="I20" s="445">
-        <v>22320</v>
+        <v>33358.5</v>
       </c>
       <c r="J20" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D20,I:I)</f>
         <v>0</v>
       </c>
       <c r="K20" s="206">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(SUMIF(D:D,$C20,J:J)=0,"",$I20/SUMIF(D:D,$C20,J:J))</f>
+        <v>0.75463182897862235</v>
       </c>
       <c r="L20" s="437">
-        <f>VLOOKUP(H20,汇率!$B$3:F118,5,0)</f>
-        <v>6.39</v>
+        <f>VLOOKUP(H20,汇率!$B$3:F116,5,0)</f>
+        <v>6.61</v>
       </c>
       <c r="M20" s="321"/>
       <c r="N20" s="403" t="s">
         <v>300</v>
       </c>
       <c r="O20" s="243">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF($K20&lt;&gt;"",$K20*SUMIF(D:D,C20,P:P),"")</f>
+        <v>2112.9691211401428</v>
       </c>
       <c r="P20" s="243"/>
       <c r="Q20" s="538">
         <f>I20-O20</f>
-        <v>22320</v>
+        <v>31245.530878859856</v>
       </c>
       <c r="R20" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D20="","",SUMIF(C:C,$D20,Q:Q))</f>
         <v/>
       </c>
       <c r="S20" s="532"/>
       <c r="T20" s="323"/>
       <c r="U20" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V20" s="254">
         <f>IF(N20="N",L20*1.16/(1.16-0.09)-0.3,IF(N20=0,"错误",IF(I20&gt;N20,N20/I20*(L20*1.16/(1.16-0.13)-0.3)+(1-N20/I20)*(L20*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.6274766355140189</v>
+        <v>6.8659813084112162</v>
       </c>
       <c r="W20" s="256" t="str">
         <f>IF($D20="","",VLOOKUP(B20,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X20" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y20" s="462"/>
@@ -12800,7 +12894,7 @@
       <c r="AA20" s="326"/>
       <c r="AB20" s="350"/>
       <c r="AC20" s="350" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AD20" s="327"/>
       <c r="AE20" s="327"/>
@@ -12810,82 +12904,84 @@
         <v>43252</v>
       </c>
       <c r="B21" s="523">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="C21" s="364"/>
       <c r="D21" s="364" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E21" s="365"/>
       <c r="F21" s="365">
-        <f t="shared" si="0"/>
-        <v>22345</v>
+        <f>SUMIF(C:C,$D21,E:E)</f>
+        <v>44205</v>
       </c>
       <c r="G21" s="365">
-        <f>SUBTOTAL(9,G20:G20)</f>
+        <f>SUBTOTAL(9,G19:G20)</f>
         <v>0</v>
       </c>
       <c r="H21" s="515"/>
       <c r="I21" s="365"/>
       <c r="J21" s="365">
-        <f t="shared" si="1"/>
-        <v>22320</v>
+        <f>SUMIF(C:C,$D21,I:I)</f>
+        <v>44205</v>
       </c>
       <c r="K21" s="206" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(SUMIF(D:D,$C21,J:J)=0,"",$I21/SUMIF(D:D,$C21,J:J))</f>
         <v/>
       </c>
       <c r="L21" s="438"/>
-      <c r="M21" s="365" t="s">
-        <v>357</v>
+      <c r="M21" s="365">
+        <v>185505</v>
       </c>
       <c r="N21" s="404"/>
       <c r="O21" s="243" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($K21&lt;&gt;"",$K21*SUMIF(D:D,C21,P:P),"")</f>
         <v/>
       </c>
       <c r="P21" s="368">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="Q21" s="539"/>
       <c r="R21" s="368">
-        <f t="shared" si="4"/>
-        <v>22320</v>
+        <f>IF($D21="","",SUMIF(C:C,$D21,Q:Q))</f>
+        <v>41405</v>
       </c>
       <c r="S21" s="533">
-        <v>3165</v>
+        <v>5060</v>
       </c>
       <c r="T21" s="369"/>
       <c r="U21" s="255">
-        <f t="shared" si="6"/>
-        <v>0.1425100806451613</v>
+        <f t="shared" si="1"/>
+        <v>4.6254757879483153</v>
       </c>
       <c r="V21" s="255">
-        <f>V20*K20</f>
-        <v>6.6274766355140189</v>
+        <f>V19*K19+V20*K20</f>
+        <v>6.799479654582993</v>
       </c>
       <c r="W21" s="256">
         <f>IF($D21="","",VLOOKUP(B21,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.47499999999999998</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="X21" s="252">
-        <f t="shared" si="5"/>
-        <v>3353.561337616823</v>
-      </c>
-      <c r="Y21" s="252"/>
+        <f t="shared" si="0"/>
+        <v>1433.6521274502206</v>
+      </c>
+      <c r="Y21" s="252">
+        <v>10000</v>
+      </c>
       <c r="Z21" s="252">
         <f>X21*0.7+Y21</f>
-        <v>2347.492936331776</v>
+        <v>11003.556489215154</v>
       </c>
       <c r="AA21" s="252">
-        <f>IF(SUMIF(AB18:AB39,AB21,Z18:Z39)&gt;5000,Z21*0.875,Z21)-0.04</f>
-        <v>2054.0163192903042</v>
+        <f>IF(SUMIF(AB17:AB40,AB21,Z17:Z40)&gt;5000,Z21*0.875,Z21)</f>
+        <v>9628.1119280632593</v>
       </c>
       <c r="AB21" s="365" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AC21" s="365" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AD21" s="370">
         <v>0.1</v>
@@ -12897,66 +12993,71 @@
     <row r="22" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
       <c r="B22" s="522"/>
       <c r="C22" s="320" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D22" s="320"/>
-      <c r="E22" s="350"/>
+      <c r="E22" s="445">
+        <v>22345</v>
+      </c>
       <c r="F22" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D22,E:E)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="350"/>
+      <c r="G22" s="350">
+        <f>I23</f>
+        <v>0</v>
+      </c>
       <c r="H22" s="514">
-        <v>43188</v>
+        <v>43257</v>
       </c>
       <c r="I22" s="445">
-        <v>19865.5</v>
+        <v>22320</v>
       </c>
       <c r="J22" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D22,I:I)</f>
         <v>0</v>
       </c>
       <c r="K22" s="206">
-        <f t="shared" si="2"/>
-        <v>0.29971635913761108</v>
+        <f>IF(SUMIF(D:D,$C22,J:J)=0,"",$I22/SUMIF(D:D,$C22,J:J))</f>
+        <v>1</v>
       </c>
       <c r="L22" s="437">
-        <f>VLOOKUP(H22,汇率!$B$3:F120,5,0)</f>
-        <v>6.28</v>
+        <f>VLOOKUP(H22,汇率!$B$3:F118,5,0)</f>
+        <v>6.39</v>
       </c>
       <c r="M22" s="321"/>
       <c r="N22" s="403" t="s">
         <v>300</v>
       </c>
       <c r="O22" s="243">
-        <f t="shared" si="3"/>
+        <f>IF($K22&lt;&gt;"",$K22*SUMIF(D:D,C22,P:P),"")</f>
         <v>0</v>
       </c>
       <c r="P22" s="243"/>
       <c r="Q22" s="538">
         <f>I22-O22</f>
-        <v>19865.5</v>
+        <v>22320</v>
       </c>
       <c r="R22" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D22="","",SUMIF(C:C,$D22,Q:Q))</f>
         <v/>
       </c>
       <c r="S22" s="532"/>
       <c r="T22" s="323"/>
       <c r="U22" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V22" s="254">
         <f>IF(N22="N",L22*1.16/(1.16-0.09)-0.3,IF(N22=0,"错误",IF(I22&gt;N22,N22/I22*(L22*1.16/(1.16-0.13)-0.3)+(1-N22/I22)*(L22*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.5082242990654215</v>
+        <v>6.6274766355140189</v>
       </c>
       <c r="W22" s="256" t="str">
         <f>IF($D22="","",VLOOKUP(B22,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X22" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y22" s="462"/>
@@ -12964,243 +13065,243 @@
       <c r="AA22" s="326"/>
       <c r="AB22" s="350"/>
       <c r="AC22" s="350" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AD22" s="327"/>
       <c r="AE22" s="327"/>
     </row>
-    <row r="23" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B23" s="522"/>
-      <c r="C23" s="320" t="s">
+    <row r="23" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A23" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B23" s="523">
+        <v>43252</v>
+      </c>
+      <c r="C23" s="364"/>
+      <c r="D23" s="364" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="365"/>
+      <c r="F23" s="365">
+        <f>SUMIF(C:C,$D23,E:E)</f>
+        <v>22345</v>
+      </c>
+      <c r="G23" s="365">
+        <f>SUBTOTAL(9,G22:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="515"/>
+      <c r="I23" s="365"/>
+      <c r="J23" s="365">
+        <f>SUMIF(C:C,$D23,I:I)</f>
+        <v>22320</v>
+      </c>
+      <c r="K23" s="206" t="str">
+        <f>IF(SUMIF(D:D,$C23,J:J)=0,"",$I23/SUMIF(D:D,$C23,J:J))</f>
+        <v/>
+      </c>
+      <c r="L23" s="438"/>
+      <c r="M23" s="365" t="s">
+        <v>357</v>
+      </c>
+      <c r="N23" s="404"/>
+      <c r="O23" s="243" t="str">
+        <f>IF($K23&lt;&gt;"",$K23*SUMIF(D:D,C23,P:P),"")</f>
+        <v/>
+      </c>
+      <c r="P23" s="368">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="539"/>
+      <c r="R23" s="368">
+        <f>IF($D23="","",SUMIF(C:C,$D23,Q:Q))</f>
+        <v>22320</v>
+      </c>
+      <c r="S23" s="533">
+        <v>3165</v>
+      </c>
+      <c r="T23" s="369"/>
+      <c r="U23" s="255">
+        <f t="shared" si="1"/>
+        <v>0.1425100806451613</v>
+      </c>
+      <c r="V23" s="255">
+        <f>V22*K22</f>
+        <v>6.6274766355140189</v>
+      </c>
+      <c r="W23" s="256">
+        <f>IF($D23="","",VLOOKUP(B23,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="X23" s="252">
+        <f t="shared" si="0"/>
+        <v>3353.561337616823</v>
+      </c>
+      <c r="Y23" s="252"/>
+      <c r="Z23" s="252">
+        <f>X23*0.7+Y23</f>
+        <v>2347.492936331776</v>
+      </c>
+      <c r="AA23" s="252">
+        <f>IF(SUMIF(AB20:AB41,AB23,Z20:Z41)&gt;5000,Z23*0.875,Z23)-0.04</f>
+        <v>2054.0163192903042</v>
+      </c>
+      <c r="AB23" s="365" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC23" s="365" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD23" s="370">
+        <v>0.1</v>
+      </c>
+      <c r="AE23" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B24" s="522"/>
+      <c r="C24" s="320" t="s">
         <v>353</v>
       </c>
-      <c r="D23" s="320"/>
-      <c r="E23" s="445">
-        <v>66375</v>
-      </c>
-      <c r="F23" s="365">
+      <c r="D24" s="320"/>
+      <c r="E24" s="350"/>
+      <c r="F24" s="365">
+        <f>SUMIF(C:C,$D24,E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="350"/>
+      <c r="H24" s="514">
+        <v>43188</v>
+      </c>
+      <c r="I24" s="445">
+        <v>19865.5</v>
+      </c>
+      <c r="J24" s="365">
+        <f>SUMIF(C:C,$D24,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="206">
+        <f>IF(SUMIF(D:D,$C24,J:J)=0,"",$I24/SUMIF(D:D,$C24,J:J))</f>
+        <v>0.29971635913761108</v>
+      </c>
+      <c r="L24" s="437">
+        <f>VLOOKUP(H24,汇率!$B$3:F120,5,0)</f>
+        <v>6.28</v>
+      </c>
+      <c r="M24" s="321"/>
+      <c r="N24" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O24" s="243">
+        <f>IF($K24&lt;&gt;"",$K24*SUMIF(D:D,C24,P:P),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="243"/>
+      <c r="Q24" s="538">
+        <f>I24-O24</f>
+        <v>19865.5</v>
+      </c>
+      <c r="R24" s="368" t="str">
+        <f>IF($D24="","",SUMIF(C:C,$D24,Q:Q))</f>
+        <v/>
+      </c>
+      <c r="S24" s="532"/>
+      <c r="T24" s="323"/>
+      <c r="U24" s="255" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V24" s="254">
+        <f>IF(N24="N",L24*1.16/(1.16-0.09)-0.3,IF(N24=0,"错误",IF(I24&gt;N24,N24/I24*(L24*1.16/(1.16-0.13)-0.3)+(1-N24/I24)*(L24*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.5082242990654215</v>
+      </c>
+      <c r="W24" s="256" t="str">
+        <f>IF($D24="","",VLOOKUP(B24,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X24" s="252" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="350">
-        <f>I24</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="514">
-        <v>43252</v>
-      </c>
-      <c r="I23" s="445">
-        <v>46415.5</v>
-      </c>
-      <c r="J23" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="206">
-        <f t="shared" si="2"/>
-        <v>0.70028364086238892</v>
-      </c>
-      <c r="L23" s="437">
-        <f>VLOOKUP(H23,汇率!$B$3:F121,5,0)</f>
-        <v>6.4</v>
-      </c>
-      <c r="M23" s="321"/>
-      <c r="N23" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O23" s="243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="243"/>
-      <c r="Q23" s="538">
-        <f>I23-O23</f>
-        <v>46415.5</v>
-      </c>
-      <c r="R23" s="368" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S23" s="532"/>
-      <c r="T23" s="323"/>
-      <c r="U23" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V23" s="254">
-        <f>IF(N23="N",L23*1.16/(1.16-0.09)-0.3,IF(N23=0,"错误",IF(I23&gt;N23,N23/I23*(L23*1.16/(1.16-0.13)-0.3)+(1-N23/I23)*(L23*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.6383177570093466</v>
-      </c>
-      <c r="W23" s="256" t="str">
-        <f>IF($D23="","",VLOOKUP(B23,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X23" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y23" s="462"/>
-      <c r="Z23" s="326"/>
-      <c r="AA23" s="326"/>
-      <c r="AB23" s="350"/>
-      <c r="AC23" s="350" t="s">
+      <c r="Y24" s="462"/>
+      <c r="Z24" s="326"/>
+      <c r="AA24" s="326"/>
+      <c r="AB24" s="350"/>
+      <c r="AC24" s="350" t="s">
         <v>338</v>
       </c>
-      <c r="AD23" s="327"/>
-      <c r="AE23" s="327"/>
-    </row>
-    <row r="24" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A24" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B24" s="523">
-        <v>43160</v>
-      </c>
-      <c r="C24" s="364"/>
-      <c r="D24" s="364" t="s">
-        <v>353</v>
-      </c>
-      <c r="E24" s="365"/>
-      <c r="F24" s="365">
-        <f t="shared" si="0"/>
-        <v>66375</v>
-      </c>
-      <c r="G24" s="365">
-        <f>SUBTOTAL(9,G22:G23)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="515"/>
-      <c r="I24" s="365"/>
-      <c r="J24" s="365">
-        <f t="shared" si="1"/>
-        <v>66281</v>
-      </c>
-      <c r="K24" s="206" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L24" s="438"/>
-      <c r="M24" s="365">
-        <v>376445</v>
-      </c>
-      <c r="N24" s="404"/>
-      <c r="O24" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P24" s="368">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="539"/>
-      <c r="R24" s="368">
-        <f t="shared" si="4"/>
-        <v>66281</v>
-      </c>
-      <c r="S24" s="533">
-        <v>11890</v>
-      </c>
-      <c r="T24" s="369"/>
-      <c r="U24" s="255">
-        <f t="shared" si="6"/>
-        <v>5.888213439748947</v>
-      </c>
-      <c r="V24" s="255">
-        <f>V22*K22+V23*K23</f>
-        <v>6.5993266194467708</v>
-      </c>
-      <c r="W24" s="256">
-        <f>IF($D24="","",VLOOKUP(B24,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X24" s="252">
-        <f t="shared" si="5"/>
-        <v>266.96856658878647</v>
-      </c>
-      <c r="Y24" s="252"/>
-      <c r="Z24" s="252">
-        <f>X24*0.7+Y24</f>
-        <v>186.87799661215053</v>
-      </c>
-      <c r="AA24" s="252">
-        <f>IF(SUMIF(AB21:AB40,AB24,Z21:Z40)&gt;5000,Z24*0.875,Z24)</f>
-        <v>163.5182470356317</v>
-      </c>
-      <c r="AB24" s="365" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC24" s="365" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD24" s="370">
-        <v>0.1</v>
-      </c>
-      <c r="AE24" s="370">
-        <v>0.25</v>
-      </c>
+      <c r="AD24" s="327"/>
+      <c r="AE24" s="327"/>
     </row>
     <row r="25" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
       <c r="B25" s="522"/>
       <c r="C25" s="320" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D25" s="320"/>
-      <c r="E25" s="350"/>
+      <c r="E25" s="445">
+        <v>66375</v>
+      </c>
       <c r="F25" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D25,E:E)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="350"/>
+      <c r="G25" s="350">
+        <f>I26</f>
+        <v>0</v>
+      </c>
       <c r="H25" s="514">
-        <v>43202</v>
+        <v>43252</v>
       </c>
       <c r="I25" s="445">
-        <v>17465.25</v>
+        <v>46415.5</v>
       </c>
       <c r="J25" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D25,I:I)</f>
         <v>0</v>
       </c>
       <c r="K25" s="206">
-        <f t="shared" si="2"/>
-        <v>0.49028703768685522</v>
+        <f>IF(SUMIF(D:D,$C25,J:J)=0,"",$I25/SUMIF(D:D,$C25,J:J))</f>
+        <v>0.70028364086238892</v>
       </c>
       <c r="L25" s="437">
-        <f>VLOOKUP(H25,汇率!$B$3:F123,5,0)</f>
-        <v>6.27</v>
+        <f>VLOOKUP(H25,汇率!$B$3:F121,5,0)</f>
+        <v>6.4</v>
       </c>
       <c r="M25" s="321"/>
       <c r="N25" s="403" t="s">
         <v>300</v>
       </c>
       <c r="O25" s="243">
-        <f t="shared" si="3"/>
-        <v>1472.3319741736261</v>
+        <f>IF($K25&lt;&gt;"",$K25*SUMIF(D:D,C25,P:P),"")</f>
+        <v>0</v>
       </c>
       <c r="P25" s="243"/>
       <c r="Q25" s="538">
         <f>I25-O25</f>
-        <v>15992.918025826373</v>
+        <v>46415.5</v>
       </c>
       <c r="R25" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D25="","",SUMIF(C:C,$D25,Q:Q))</f>
         <v/>
       </c>
       <c r="S25" s="532"/>
       <c r="T25" s="323"/>
       <c r="U25" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V25" s="254">
         <f>IF(N25="N",L25*1.16/(1.16-0.09)-0.3,IF(N25=0,"错误",IF(I25&gt;N25,N25/I25*(L25*1.16/(1.16-0.13)-0.3)+(1-N25/I25)*(L25*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.4973831775700939</v>
+        <v>6.6383177570093466</v>
       </c>
       <c r="W25" s="256" t="str">
         <f>IF($D25="","",VLOOKUP(B25,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X25" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y25" s="462"/>
@@ -13208,246 +13309,243 @@
       <c r="AA25" s="326"/>
       <c r="AB25" s="350"/>
       <c r="AC25" s="350" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AD25" s="327"/>
       <c r="AE25" s="327"/>
     </row>
-    <row r="26" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B26" s="522"/>
-      <c r="C26" s="320" t="s">
+    <row r="26" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A26" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B26" s="523">
+        <v>43160</v>
+      </c>
+      <c r="C26" s="364"/>
+      <c r="D26" s="364" t="s">
+        <v>353</v>
+      </c>
+      <c r="E26" s="365"/>
+      <c r="F26" s="365">
+        <f>SUMIF(C:C,$D26,E:E)</f>
+        <v>66375</v>
+      </c>
+      <c r="G26" s="365">
+        <f>SUBTOTAL(9,G24:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="515"/>
+      <c r="I26" s="365"/>
+      <c r="J26" s="365">
+        <f>SUMIF(C:C,$D26,I:I)</f>
+        <v>66281</v>
+      </c>
+      <c r="K26" s="206" t="str">
+        <f>IF(SUMIF(D:D,$C26,J:J)=0,"",$I26/SUMIF(D:D,$C26,J:J))</f>
+        <v/>
+      </c>
+      <c r="L26" s="438"/>
+      <c r="M26" s="365">
+        <v>376445</v>
+      </c>
+      <c r="N26" s="404"/>
+      <c r="O26" s="243" t="str">
+        <f>IF($K26&lt;&gt;"",$K26*SUMIF(D:D,C26,P:P),"")</f>
+        <v/>
+      </c>
+      <c r="P26" s="368">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="539"/>
+      <c r="R26" s="368">
+        <f>IF($D26="","",SUMIF(C:C,$D26,Q:Q))</f>
+        <v>66281</v>
+      </c>
+      <c r="S26" s="533">
+        <v>11890</v>
+      </c>
+      <c r="T26" s="369"/>
+      <c r="U26" s="255">
+        <f t="shared" si="1"/>
+        <v>5.888213439748947</v>
+      </c>
+      <c r="V26" s="255">
+        <f>V24*K24+V25*K25</f>
+        <v>6.5993266194467708</v>
+      </c>
+      <c r="W26" s="256">
+        <f>IF($D26="","",VLOOKUP(B26,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X26" s="252">
+        <f t="shared" si="0"/>
+        <v>266.96856658878647</v>
+      </c>
+      <c r="Y26" s="252"/>
+      <c r="Z26" s="252">
+        <f>X26*0.7+Y26</f>
+        <v>186.87799661215053</v>
+      </c>
+      <c r="AA26" s="252">
+        <f>IF(SUMIF(AB23:AB42,AB26,Z23:Z42)&gt;5000,Z26*0.875,Z26)</f>
+        <v>163.5182470356317</v>
+      </c>
+      <c r="AB26" s="365" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC26" s="365" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD26" s="370">
+        <v>0.1</v>
+      </c>
+      <c r="AE26" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B27" s="522"/>
+      <c r="C27" s="320" t="s">
         <v>354</v>
       </c>
-      <c r="D26" s="320"/>
-      <c r="E26" s="445">
-        <v>35674.5</v>
-      </c>
-      <c r="F26" s="365">
+      <c r="D27" s="320"/>
+      <c r="E27" s="350"/>
+      <c r="F27" s="365">
+        <f>SUMIF(C:C,$D27,E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="350"/>
+      <c r="H27" s="514">
+        <v>43202</v>
+      </c>
+      <c r="I27" s="445">
+        <v>17465.25</v>
+      </c>
+      <c r="J27" s="365">
+        <f>SUMIF(C:C,$D27,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="206">
+        <f>IF(SUMIF(D:D,$C27,J:J)=0,"",$I27/SUMIF(D:D,$C27,J:J))</f>
+        <v>0.49028703768685522</v>
+      </c>
+      <c r="L27" s="437">
+        <f>VLOOKUP(H27,汇率!$B$3:F123,5,0)</f>
+        <v>6.27</v>
+      </c>
+      <c r="M27" s="321"/>
+      <c r="N27" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O27" s="243">
+        <f>IF($K27&lt;&gt;"",$K27*SUMIF(D:D,C27,P:P),"")</f>
+        <v>1472.3319741736261</v>
+      </c>
+      <c r="P27" s="243"/>
+      <c r="Q27" s="538">
+        <f>I27-O27</f>
+        <v>15992.918025826373</v>
+      </c>
+      <c r="R27" s="368" t="str">
+        <f>IF($D27="","",SUMIF(C:C,$D27,Q:Q))</f>
+        <v/>
+      </c>
+      <c r="S27" s="532"/>
+      <c r="T27" s="323"/>
+      <c r="U27" s="255" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V27" s="254">
+        <f>IF(N27="N",L27*1.16/(1.16-0.09)-0.3,IF(N27=0,"错误",IF(I27&gt;N27,N27/I27*(L27*1.16/(1.16-0.13)-0.3)+(1-N27/I27)*(L27*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.4973831775700939</v>
+      </c>
+      <c r="W27" s="256" t="str">
+        <f>IF($D27="","",VLOOKUP(B27,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X27" s="252" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="350">
-        <f>I27</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="514">
-        <v>43272</v>
-      </c>
-      <c r="I26" s="445">
-        <v>18157.25</v>
-      </c>
-      <c r="J26" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="206">
-        <f t="shared" si="2"/>
-        <v>0.50971296231314478</v>
-      </c>
-      <c r="L26" s="437">
-        <f>VLOOKUP(H26,汇率!$B$3:F124,5,0)</f>
-        <v>6.48</v>
-      </c>
-      <c r="M26" s="321"/>
-      <c r="N26" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O26" s="243">
-        <f t="shared" si="3"/>
-        <v>1530.6680258263739</v>
-      </c>
-      <c r="P26" s="243"/>
-      <c r="Q26" s="538">
-        <f>I26-O26</f>
-        <v>16626.581974173627</v>
-      </c>
-      <c r="R26" s="368" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S26" s="532"/>
-      <c r="T26" s="323"/>
-      <c r="U26" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V26" s="254">
-        <f>IF(N26="N",L26*1.16/(1.16-0.09)-0.3,IF(N26=0,"错误",IF(I26&gt;N26,N26/I26*(L26*1.16/(1.16-0.13)-0.3)+(1-N26/I26)*(L26*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.7250467289719635</v>
-      </c>
-      <c r="W26" s="256" t="str">
-        <f>IF($D26="","",VLOOKUP(B26,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X26" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y26" s="462"/>
-      <c r="Z26" s="326"/>
-      <c r="AA26" s="326"/>
-      <c r="AB26" s="350"/>
-      <c r="AC26" s="350" t="s">
+      <c r="Y27" s="462"/>
+      <c r="Z27" s="326"/>
+      <c r="AA27" s="326"/>
+      <c r="AB27" s="350"/>
+      <c r="AC27" s="350" t="s">
         <v>332</v>
       </c>
-      <c r="AD26" s="327"/>
-      <c r="AE26" s="327"/>
-    </row>
-    <row r="27" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A27" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B27" s="523">
-        <v>43191</v>
-      </c>
-      <c r="C27" s="364"/>
-      <c r="D27" s="364" t="s">
-        <v>354</v>
-      </c>
-      <c r="E27" s="365"/>
-      <c r="F27" s="365">
-        <f t="shared" si="0"/>
-        <v>35674.5</v>
-      </c>
-      <c r="G27" s="365">
-        <f>SUBTOTAL(9,G25:G26)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="515"/>
-      <c r="I27" s="365"/>
-      <c r="J27" s="365">
-        <f t="shared" si="1"/>
-        <v>35622.5</v>
-      </c>
-      <c r="K27" s="206" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L27" s="438"/>
-      <c r="M27" s="365">
-        <v>156922</v>
-      </c>
-      <c r="N27" s="404"/>
-      <c r="O27" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P27" s="368">
-        <v>3003</v>
-      </c>
-      <c r="Q27" s="539"/>
-      <c r="R27" s="368">
-        <f t="shared" si="4"/>
-        <v>32619.5</v>
-      </c>
-      <c r="S27" s="533">
-        <v>4770</v>
-      </c>
-      <c r="T27" s="369"/>
-      <c r="U27" s="255">
-        <f t="shared" si="6"/>
-        <v>4.9816968377810813</v>
-      </c>
-      <c r="V27" s="255">
-        <f>V25*K25+V26*K26</f>
-        <v>6.6134262407658717</v>
-      </c>
-      <c r="W27" s="256">
-        <f>IF($D27="","",VLOOKUP(B27,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X27" s="252">
-        <f t="shared" si="5"/>
-        <v>697.83663151655935</v>
-      </c>
-      <c r="Y27" s="252">
-        <f>下单月成本!O9</f>
-        <v>1459.8164203298688</v>
-      </c>
-      <c r="Z27" s="252">
-        <f>X27*0.7+Y27</f>
-        <v>1948.3020623914604</v>
-      </c>
-      <c r="AA27" s="252">
-        <f>IF(SUMIF(AB26:AB48,AB27,Z26:Z48)&gt;5000,Z27*0.875,Z27)</f>
-        <v>1704.7643045925279</v>
-      </c>
-      <c r="AB27" s="365" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC27" s="365" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD27" s="370">
-        <v>0.1</v>
-      </c>
-      <c r="AE27" s="370">
-        <v>0.25</v>
-      </c>
+      <c r="AD27" s="327"/>
+      <c r="AE27" s="327"/>
     </row>
     <row r="28" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
       <c r="B28" s="522"/>
       <c r="C28" s="320" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D28" s="320"/>
-      <c r="E28" s="350"/>
+      <c r="E28" s="445">
+        <v>35674.5</v>
+      </c>
       <c r="F28" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D28,E:E)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="350"/>
+      <c r="G28" s="350">
+        <f>I29</f>
+        <v>0</v>
+      </c>
       <c r="H28" s="514">
-        <v>43226</v>
+        <v>43272</v>
       </c>
       <c r="I28" s="445">
-        <v>19399.7</v>
+        <v>18157.25</v>
       </c>
       <c r="J28" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D28,I:I)</f>
         <v>0</v>
       </c>
       <c r="K28" s="206">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>IF(SUMIF(D:D,$C28,J:J)=0,"",$I28/SUMIF(D:D,$C28,J:J))</f>
+        <v>0.50971296231314478</v>
       </c>
       <c r="L28" s="437">
-        <f>VLOOKUP(H28,汇率!$B$3:F123,5,0)</f>
-        <v>6.35</v>
+        <f>VLOOKUP(H28,汇率!$B$3:F124,5,0)</f>
+        <v>6.48</v>
       </c>
       <c r="M28" s="321"/>
       <c r="N28" s="403" t="s">
         <v>300</v>
       </c>
       <c r="O28" s="243">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF($K28&lt;&gt;"",$K28*SUMIF(D:D,C28,P:P),"")</f>
+        <v>1530.6680258263739</v>
       </c>
       <c r="P28" s="243"/>
       <c r="Q28" s="538">
         <f>I28-O28</f>
-        <v>19399.7</v>
+        <v>16626.581974173627</v>
       </c>
       <c r="R28" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D28="","",SUMIF(C:C,$D28,Q:Q))</f>
         <v/>
       </c>
       <c r="S28" s="532"/>
       <c r="T28" s="323"/>
       <c r="U28" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V28" s="254">
         <f>IF(N28="N",L28*1.16/(1.16-0.09)-0.3,IF(N28=0,"错误",IF(I28&gt;N28,N28/I28*(L28*1.16/(1.16-0.13)-0.3)+(1-N28/I28)*(L28*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.58411214953271</v>
+        <v>6.7250467289719635</v>
       </c>
       <c r="W28" s="256" t="str">
         <f>IF($D28="","",VLOOKUP(B28,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X28" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y28" s="462"/>
@@ -13455,232 +13553,255 @@
       <c r="AA28" s="326"/>
       <c r="AB28" s="350"/>
       <c r="AC28" s="350" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AD28" s="327"/>
       <c r="AE28" s="327"/>
     </row>
-    <row r="29" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
-      <c r="B29" s="522"/>
-      <c r="C29" s="320" t="s">
+    <row r="29" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A29" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B29" s="523">
+        <v>43191</v>
+      </c>
+      <c r="C29" s="364"/>
+      <c r="D29" s="364" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" s="365"/>
+      <c r="F29" s="365">
+        <f>SUMIF(C:C,$D29,E:E)</f>
+        <v>35674.5</v>
+      </c>
+      <c r="G29" s="365">
+        <f>SUBTOTAL(9,G27:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="515"/>
+      <c r="I29" s="365"/>
+      <c r="J29" s="365">
+        <f>SUMIF(C:C,$D29,I:I)</f>
+        <v>35622.5</v>
+      </c>
+      <c r="K29" s="206" t="str">
+        <f>IF(SUMIF(D:D,$C29,J:J)=0,"",$I29/SUMIF(D:D,$C29,J:J))</f>
+        <v/>
+      </c>
+      <c r="L29" s="438"/>
+      <c r="M29" s="365">
+        <v>156922</v>
+      </c>
+      <c r="N29" s="404"/>
+      <c r="O29" s="243" t="str">
+        <f>IF($K29&lt;&gt;"",$K29*SUMIF(D:D,C29,P:P),"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="368">
+        <v>3003</v>
+      </c>
+      <c r="Q29" s="539"/>
+      <c r="R29" s="368">
+        <f>IF($D29="","",SUMIF(C:C,$D29,Q:Q))</f>
+        <v>32619.5</v>
+      </c>
+      <c r="S29" s="533">
+        <v>4770</v>
+      </c>
+      <c r="T29" s="369"/>
+      <c r="U29" s="255">
+        <f t="shared" si="1"/>
+        <v>4.9816968377810813</v>
+      </c>
+      <c r="V29" s="255">
+        <f>V27*K27+V28*K28</f>
+        <v>6.6134262407658717</v>
+      </c>
+      <c r="W29" s="256">
+        <f>IF($D29="","",VLOOKUP(B29,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="X29" s="252">
+        <f t="shared" si="0"/>
+        <v>697.83663151655935</v>
+      </c>
+      <c r="Y29" s="252">
+        <f>下单月成本!O9</f>
+        <v>1459.8164203298688</v>
+      </c>
+      <c r="Z29" s="252">
+        <f>X29*0.7+Y29</f>
+        <v>1948.3020623914604</v>
+      </c>
+      <c r="AA29" s="252">
+        <f>IF(SUMIF(AB28:AB50,AB29,Z28:Z50)&gt;5000,Z29*0.875,Z29)</f>
+        <v>1704.7643045925279</v>
+      </c>
+      <c r="AB29" s="365" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC29" s="365" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD29" s="370">
+        <v>0.1</v>
+      </c>
+      <c r="AE29" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B30" s="522"/>
+      <c r="C30" s="320" t="s">
         <v>355</v>
       </c>
-      <c r="D29" s="320"/>
-      <c r="E29" s="445">
-        <v>38799.4</v>
-      </c>
-      <c r="F29" s="365">
+      <c r="D30" s="320"/>
+      <c r="E30" s="350"/>
+      <c r="F30" s="365">
+        <f>SUMIF(C:C,$D30,E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="350"/>
+      <c r="H30" s="514">
+        <v>43226</v>
+      </c>
+      <c r="I30" s="445">
+        <v>19399.7</v>
+      </c>
+      <c r="J30" s="365">
+        <f>SUMIF(C:C,$D30,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="206">
+        <f>IF(SUMIF(D:D,$C30,J:J)=0,"",$I30/SUMIF(D:D,$C30,J:J))</f>
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="437">
+        <f>VLOOKUP(H30,汇率!$B$3:F123,5,0)</f>
+        <v>6.35</v>
+      </c>
+      <c r="M30" s="321"/>
+      <c r="N30" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O30" s="243">
+        <f>IF($K30&lt;&gt;"",$K30*SUMIF(D:D,C30,P:P),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="243"/>
+      <c r="Q30" s="538">
+        <f>I30-O30</f>
+        <v>19399.7</v>
+      </c>
+      <c r="R30" s="368" t="str">
+        <f>IF($D30="","",SUMIF(C:C,$D30,Q:Q))</f>
+        <v/>
+      </c>
+      <c r="S30" s="532"/>
+      <c r="T30" s="323"/>
+      <c r="U30" s="255" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V30" s="254">
+        <f>IF(N30="N",L30*1.16/(1.16-0.09)-0.3,IF(N30=0,"错误",IF(I30&gt;N30,N30/I30*(L30*1.16/(1.16-0.13)-0.3)+(1-N30/I30)*(L30*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.58411214953271</v>
+      </c>
+      <c r="W30" s="256" t="str">
+        <f>IF($D30="","",VLOOKUP(B30,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X30" s="252" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="350">
-        <f>I30</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="514">
-        <v>43280</v>
-      </c>
-      <c r="I29" s="445">
-        <v>19399.7</v>
-      </c>
-      <c r="J29" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="206">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="437">
-        <f>VLOOKUP(H29,汇率!$B$3:F124,5,0)</f>
-        <v>6.61</v>
-      </c>
-      <c r="M29" s="321"/>
-      <c r="N29" s="403" t="s">
-        <v>300</v>
-      </c>
-      <c r="O29" s="243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="243"/>
-      <c r="Q29" s="538">
-        <f>I29-O29</f>
-        <v>19399.7</v>
-      </c>
-      <c r="R29" s="368" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S29" s="532"/>
-      <c r="T29" s="323"/>
-      <c r="U29" s="255" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V29" s="254">
-        <f>IF(N29="N",L29*1.16/(1.16-0.09)-0.3,IF(N29=0,"错误",IF(I29&gt;N29,N29/I29*(L29*1.16/(1.16-0.13)-0.3)+(1-N29/I29)*(L29*1.16/(1.16-0.09)-0.3),"提醒")))</f>
-        <v>6.8659813084112162</v>
-      </c>
-      <c r="W29" s="256" t="str">
-        <f>IF($D29="","",VLOOKUP(B29,下单月成本!$A$2:$B$13,2,0))</f>
-        <v/>
-      </c>
-      <c r="X29" s="252" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y29" s="462"/>
-      <c r="Z29" s="326"/>
-      <c r="AA29" s="326"/>
-      <c r="AB29" s="350"/>
-      <c r="AC29" s="350" t="s">
+      <c r="Y30" s="462"/>
+      <c r="Z30" s="326"/>
+      <c r="AA30" s="326"/>
+      <c r="AB30" s="350"/>
+      <c r="AC30" s="350" t="s">
         <v>333</v>
       </c>
-      <c r="AD29" s="327"/>
-      <c r="AE29" s="327"/>
-    </row>
-    <row r="30" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
-      <c r="A30" s="219">
-        <v>43252</v>
-      </c>
-      <c r="B30" s="523">
-        <v>43221</v>
-      </c>
-      <c r="C30" s="364"/>
-      <c r="D30" s="364" t="s">
-        <v>355</v>
-      </c>
-      <c r="E30" s="365"/>
-      <c r="F30" s="365">
-        <f t="shared" si="0"/>
-        <v>38799.4</v>
-      </c>
-      <c r="G30" s="365">
-        <f>SUBTOTAL(9,G28:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="515"/>
-      <c r="I30" s="365"/>
-      <c r="J30" s="365">
-        <f t="shared" si="1"/>
-        <v>38799.4</v>
-      </c>
-      <c r="K30" s="206" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L30" s="438"/>
-      <c r="M30" s="365">
-        <v>203937.5</v>
-      </c>
-      <c r="N30" s="404"/>
-      <c r="O30" s="243" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P30" s="368">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="539"/>
-      <c r="R30" s="368">
-        <f t="shared" si="4"/>
-        <v>38799.4</v>
-      </c>
-      <c r="S30" s="533">
-        <v>5968</v>
-      </c>
-      <c r="T30" s="369"/>
-      <c r="U30" s="255">
-        <f t="shared" si="6"/>
-        <v>5.4370693232369565</v>
-      </c>
-      <c r="V30" s="255">
-        <f>V28*K28+V29*K29</f>
-        <v>6.7250467289719627</v>
-      </c>
-      <c r="W30" s="256">
-        <f>IF($D30="","",VLOOKUP(B30,下单月成本!$A$2:$B$13,2,0))</f>
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="X30" s="252">
-        <f t="shared" si="5"/>
-        <v>4840.0059890186994</v>
-      </c>
-      <c r="Y30" s="252">
-        <v>-2400</v>
-      </c>
-      <c r="Z30" s="252">
-        <f>X30*0.7+Y30</f>
-        <v>988.00419231308933</v>
-      </c>
-      <c r="AA30" s="252">
-        <f>IF(SUMIF(AB24:AB48,AB30,Z24:Z48)&gt;5000,Z30*0.875,Z30)</f>
-        <v>864.50366827395317</v>
-      </c>
-      <c r="AB30" s="365" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC30" s="365" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD30" s="370">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="370">
-        <v>0.25</v>
-      </c>
+      <c r="AD30" s="327"/>
+      <c r="AE30" s="327"/>
     </row>
     <row r="31" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
       <c r="B31" s="522"/>
-      <c r="C31" s="320"/>
+      <c r="C31" s="320" t="s">
+        <v>355</v>
+      </c>
       <c r="D31" s="320"/>
-      <c r="E31" s="445"/>
+      <c r="E31" s="445">
+        <v>38799.4</v>
+      </c>
       <c r="F31" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D31,E:E)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="350"/>
-      <c r="H31" s="514"/>
-      <c r="I31" s="445"/>
+      <c r="G31" s="350">
+        <f>I32</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="514">
+        <v>43280</v>
+      </c>
+      <c r="I31" s="445">
+        <v>19399.7</v>
+      </c>
       <c r="J31" s="365">
-        <f t="shared" si="1"/>
+        <f>SUMIF(C:C,$D31,I:I)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="206" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L31" s="437"/>
+      <c r="K31" s="206">
+        <f>IF(SUMIF(D:D,$C31,J:J)=0,"",$I31/SUMIF(D:D,$C31,J:J))</f>
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="437">
+        <f>VLOOKUP(H31,汇率!$B$3:F124,5,0)</f>
+        <v>6.61</v>
+      </c>
       <c r="M31" s="321"/>
-      <c r="N31" s="403"/>
-      <c r="O31" s="243"/>
+      <c r="N31" s="403" t="s">
+        <v>300</v>
+      </c>
+      <c r="O31" s="243">
+        <f>IF($K31&lt;&gt;"",$K31*SUMIF(D:D,C31,P:P),"")</f>
+        <v>0</v>
+      </c>
       <c r="P31" s="243"/>
-      <c r="Q31" s="538"/>
+      <c r="Q31" s="538">
+        <f>I31-O31</f>
+        <v>19399.7</v>
+      </c>
       <c r="R31" s="368" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($D31="","",SUMIF(C:C,$D31,Q:Q))</f>
         <v/>
       </c>
       <c r="S31" s="532"/>
       <c r="T31" s="323"/>
       <c r="U31" s="255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="254"/>
+      <c r="V31" s="254">
+        <f>IF(N31="N",L31*1.16/(1.16-0.09)-0.3,IF(N31=0,"错误",IF(I31&gt;N31,N31/I31*(L31*1.16/(1.16-0.13)-0.3)+(1-N31/I31)*(L31*1.16/(1.16-0.09)-0.3),"提醒")))</f>
+        <v>6.8659813084112162</v>
+      </c>
       <c r="W31" s="256" t="str">
         <f>IF($D31="","",VLOOKUP(B31,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
       <c r="X31" s="252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y31" s="462"/>
       <c r="Z31" s="326"/>
       <c r="AA31" s="326"/>
       <c r="AB31" s="350"/>
-      <c r="AC31" s="350"/>
+      <c r="AC31" s="350" t="s">
+        <v>333</v>
+      </c>
       <c r="AD31" s="327"/>
       <c r="AE31" s="327"/>
     </row>
@@ -13689,403 +13810,547 @@
         <v>43252</v>
       </c>
       <c r="B32" s="523">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="C32" s="364"/>
-      <c r="D32" s="364"/>
+      <c r="D32" s="364" t="s">
+        <v>355</v>
+      </c>
       <c r="E32" s="365"/>
       <c r="F32" s="365">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C:C,$D32,E:E)</f>
+        <v>38799.4</v>
+      </c>
+      <c r="G32" s="365">
+        <f>SUBTOTAL(9,G30:G31)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="365"/>
       <c r="H32" s="515"/>
       <c r="I32" s="365"/>
       <c r="J32" s="365">
+        <f>SUMIF(C:C,$D32,I:I)</f>
+        <v>38799.4</v>
+      </c>
+      <c r="K32" s="206" t="str">
+        <f>IF(SUMIF(D:D,$C32,J:J)=0,"",$I32/SUMIF(D:D,$C32,J:J))</f>
+        <v/>
+      </c>
+      <c r="L32" s="438"/>
+      <c r="M32" s="365">
+        <v>203937.5</v>
+      </c>
+      <c r="N32" s="404"/>
+      <c r="O32" s="243" t="str">
+        <f>IF($K32&lt;&gt;"",$K32*SUMIF(D:D,C32,P:P),"")</f>
+        <v/>
+      </c>
+      <c r="P32" s="368">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="539"/>
+      <c r="R32" s="368">
+        <f>IF($D32="","",SUMIF(C:C,$D32,Q:Q))</f>
+        <v>38799.4</v>
+      </c>
+      <c r="S32" s="533">
+        <v>5968</v>
+      </c>
+      <c r="T32" s="369"/>
+      <c r="U32" s="255">
         <f t="shared" si="1"/>
+        <v>5.4370693232369565</v>
+      </c>
+      <c r="V32" s="255">
+        <f>V30*K30+V31*K31</f>
+        <v>6.7250467289719627</v>
+      </c>
+      <c r="W32" s="256">
+        <f>IF($D32="","",VLOOKUP(B32,下单月成本!$A$2:$B$13,2,0))</f>
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="X32" s="252">
+        <f t="shared" si="0"/>
+        <v>4840.0059890186994</v>
+      </c>
+      <c r="Y32" s="252">
+        <v>-2400</v>
+      </c>
+      <c r="Z32" s="252">
+        <f>X32*0.7+Y32</f>
+        <v>988.00419231308933</v>
+      </c>
+      <c r="AA32" s="252">
+        <f>IF(SUMIF(AB26:AB50,AB32,Z26:Z50)&gt;5000,Z32*0.875,Z32)</f>
+        <v>864.50366827395317</v>
+      </c>
+      <c r="AB32" s="365" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC32" s="365" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD32" s="370">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="370">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" s="328" customFormat="1" ht="12.75" outlineLevel="2">
+      <c r="B33" s="522"/>
+      <c r="C33" s="320"/>
+      <c r="D33" s="320"/>
+      <c r="E33" s="445"/>
+      <c r="F33" s="365">
+        <f>SUMIF(C:C,$D33,E:E)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="206" t="str">
-        <f t="shared" si="2"/>
+      <c r="G33" s="350"/>
+      <c r="H33" s="514"/>
+      <c r="I33" s="445"/>
+      <c r="J33" s="365">
+        <f>SUMIF(C:C,$D33,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="206" t="str">
+        <f>IF(SUMIF(D:D,$C33,J:J)=0,"",$I33/SUMIF(D:D,$C33,J:J))</f>
         <v/>
       </c>
-      <c r="L32" s="438"/>
-      <c r="M32" s="365"/>
-      <c r="N32" s="404"/>
-      <c r="O32" s="368"/>
-      <c r="P32" s="368"/>
-      <c r="Q32" s="539"/>
-      <c r="R32" s="368" t="str">
-        <f t="shared" si="4"/>
+      <c r="L33" s="437"/>
+      <c r="M33" s="321"/>
+      <c r="N33" s="403"/>
+      <c r="O33" s="243"/>
+      <c r="P33" s="243"/>
+      <c r="Q33" s="538"/>
+      <c r="R33" s="368" t="str">
+        <f>IF($D33="","",SUMIF(C:C,$D33,Q:Q))</f>
         <v/>
       </c>
-      <c r="S32" s="533"/>
-      <c r="T32" s="369"/>
-      <c r="U32" s="255" t="str">
-        <f t="shared" si="6"/>
+      <c r="S33" s="532"/>
+      <c r="T33" s="323"/>
+      <c r="U33" s="255" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="255"/>
-      <c r="W32" s="256" t="str">
-        <f>IF($D32="","",VLOOKUP(B32,下单月成本!$A$2:$B$13,2,0))</f>
+      <c r="V33" s="254"/>
+      <c r="W33" s="256" t="str">
+        <f>IF($D33="","",VLOOKUP(B33,下单月成本!$A$2:$B$13,2,0))</f>
         <v/>
       </c>
-      <c r="X32" s="252" t="str">
-        <f>IF($D32="","",$R32*(V32-U32-W32)*AD32*AE32)</f>
+      <c r="X33" s="252" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y32" s="252">
+      <c r="Y33" s="462"/>
+      <c r="Z33" s="326"/>
+      <c r="AA33" s="326"/>
+      <c r="AB33" s="350"/>
+      <c r="AC33" s="350"/>
+      <c r="AD33" s="327"/>
+      <c r="AE33" s="327"/>
+    </row>
+    <row r="34" spans="1:31" s="328" customFormat="1" ht="17.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A34" s="219">
+        <v>43252</v>
+      </c>
+      <c r="B34" s="523">
+        <v>43252</v>
+      </c>
+      <c r="C34" s="364"/>
+      <c r="D34" s="364"/>
+      <c r="E34" s="365"/>
+      <c r="F34" s="365">
+        <f>SUMIF(C:C,$D34,E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="365"/>
+      <c r="H34" s="515"/>
+      <c r="I34" s="365"/>
+      <c r="J34" s="365">
+        <f>SUMIF(C:C,$D34,I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="206" t="str">
+        <f>IF(SUMIF(D:D,$C34,J:J)=0,"",$I34/SUMIF(D:D,$C34,J:J))</f>
+        <v/>
+      </c>
+      <c r="L34" s="438"/>
+      <c r="M34" s="365"/>
+      <c r="N34" s="404"/>
+      <c r="O34" s="368"/>
+      <c r="P34" s="368"/>
+      <c r="Q34" s="539"/>
+      <c r="R34" s="368" t="str">
+        <f>IF($D34="","",SUMIF(C:C,$D34,Q:Q))</f>
+        <v/>
+      </c>
+      <c r="S34" s="533"/>
+      <c r="T34" s="369"/>
+      <c r="U34" s="255" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V34" s="255"/>
+      <c r="W34" s="256" t="str">
+        <f>IF($D34="","",VLOOKUP(B34,下单月成本!$A$2:$B$13,2,0))</f>
+        <v/>
+      </c>
+      <c r="X34" s="252" t="str">
+        <f>IF($D34="","",$R34*(V34-U34-W34)*AD34*AE34)</f>
+        <v/>
+      </c>
+      <c r="Y34" s="252">
         <f>下单月成本!O7</f>
         <v>252.76566212517022</v>
       </c>
-      <c r="Z32" s="252" t="e">
-        <f>X32*0.7+Y32</f>
+      <c r="Z34" s="252" t="e">
+        <f>X34*0.7+Y34</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA32" s="252" t="e">
-        <f>IF(SUMIF(AB26:AB50,AB32,Z26:Z50)&gt;5000,Z32*0.875,Z32)+0.03</f>
+      <c r="AA34" s="252" t="e">
+        <f>IF(SUMIF(AB28:AB52,AB34,Z28:Z52)&gt;5000,Z34*0.875,Z34)+0.03</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB32" s="365" t="s">
+      <c r="AB34" s="365" t="s">
         <v>356</v>
       </c>
-      <c r="AC32" s="365"/>
-      <c r="AD32" s="370"/>
-      <c r="AE32" s="370"/>
-    </row>
-    <row r="33" spans="1:31" s="328" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A33" s="385"/>
-      <c r="B33" s="525"/>
-      <c r="C33" s="386"/>
-      <c r="D33" s="386" t="s">
+      <c r="AC34" s="365"/>
+      <c r="AD34" s="370"/>
+      <c r="AE34" s="370"/>
+    </row>
+    <row r="35" spans="1:31" s="328" customFormat="1" ht="21.6" customHeight="1">
+      <c r="A35" s="385"/>
+      <c r="B35" s="525"/>
+      <c r="C35" s="386"/>
+      <c r="D35" s="386" t="s">
         <v>266</v>
       </c>
-      <c r="E33" s="451"/>
-      <c r="F33" s="451">
-        <f>SUBTOTAL(9,F2:F31)</f>
+      <c r="E35" s="451"/>
+      <c r="F35" s="451">
+        <f>SUBTOTAL(9,F4:F33)</f>
         <v>376372.75</v>
       </c>
-      <c r="G33" s="451">
-        <f>SUBTOTAL(9,G2:G31)</f>
+      <c r="G35" s="451">
+        <f>SUBTOTAL(9,G4:G33)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="517"/>
-      <c r="I33" s="451"/>
-      <c r="J33" s="451">
-        <f>SUBTOTAL(9,J2:J31)</f>
+      <c r="H35" s="517"/>
+      <c r="I35" s="451"/>
+      <c r="J35" s="451">
+        <f>SUBTOTAL(9,J4:J33)</f>
         <v>376006.02</v>
       </c>
-      <c r="K33" s="453"/>
-      <c r="L33" s="454"/>
-      <c r="M33" s="451">
-        <f>SUBTOTAL(9,M2:M32)</f>
+      <c r="K35" s="453"/>
+      <c r="L35" s="454"/>
+      <c r="M35" s="451">
+        <f>SUBTOTAL(9,M4:M34)</f>
         <v>1696856.49</v>
       </c>
-      <c r="N33" s="453"/>
-      <c r="O33" s="455">
-        <f>SUM(O4,O7,O13,O16,O19,O21,O24,O27,O32)</f>
+      <c r="N35" s="453"/>
+      <c r="O35" s="455">
+        <f>SUM(O6,O9,O15,O18,O21,O23,O26,O29,O34)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="455">
-        <f>SUM(P4,P7,P13,P16,P19,P21,P24,P27,P32)</f>
+      <c r="P35" s="455">
+        <f>SUM(P6,P9,P15,P18,P21,P23,P26,P29,P34)</f>
         <v>22711</v>
       </c>
-      <c r="Q33" s="540">
-        <f>SUBTOTAL(9,Q2:Q31)</f>
+      <c r="Q35" s="540">
+        <f>SUBTOTAL(9,Q4:Q33)</f>
         <v>353295.02</v>
       </c>
-      <c r="R33" s="455">
-        <f>SUBTOTAL(9,R2:R31)</f>
+      <c r="R35" s="455">
+        <f>SUBTOTAL(9,R4:R33)</f>
         <v>353295.02</v>
       </c>
-      <c r="S33" s="534">
-        <f>SUBTOTAL(9,S2:S32)</f>
+      <c r="S35" s="534">
+        <f>SUBTOTAL(9,S4:S34)</f>
         <v>62138</v>
       </c>
-      <c r="T33" s="359"/>
-      <c r="U33" s="360"/>
-      <c r="V33" s="361"/>
-      <c r="W33" s="361"/>
-      <c r="X33" s="417">
-        <f>SUM(X2:X32)</f>
+      <c r="T35" s="359"/>
+      <c r="U35" s="360"/>
+      <c r="V35" s="361"/>
+      <c r="W35" s="361"/>
+      <c r="X35" s="417">
+        <f>SUM(X4:X34)</f>
         <v>17283.282575667716</v>
       </c>
-      <c r="Y33" s="418">
-        <f>SUM(Y2:Y32)</f>
+      <c r="Y35" s="418">
+        <f>SUM(Y4:Y34)</f>
         <v>9600</v>
       </c>
-      <c r="Z33" s="417" t="e">
-        <f>SUM(Z2:Z32)</f>
+      <c r="Z35" s="417" t="e">
+        <f>SUM(Z4:Z34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA33" s="417" t="e">
-        <f>SUM(AA2:AA32)</f>
+      <c r="AA35" s="417" t="e">
+        <f>SUM(AA4:AA34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB33" s="355"/>
-      <c r="AC33" s="362"/>
-      <c r="AD33" s="363"/>
-      <c r="AE33" s="363"/>
-    </row>
-    <row r="34" spans="1:31" s="338" customFormat="1" ht="12.75">
-      <c r="A34" s="331"/>
-      <c r="B34" s="526"/>
-      <c r="C34" s="331"/>
-      <c r="D34" s="331"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
-      <c r="G34" s="332"/>
-      <c r="H34" s="518"/>
-      <c r="I34" s="332"/>
-      <c r="J34" s="332"/>
-      <c r="K34" s="334"/>
-      <c r="L34" s="440"/>
-      <c r="M34" s="335"/>
-      <c r="N34" s="406"/>
-      <c r="O34" s="332"/>
-      <c r="P34" s="332"/>
-      <c r="Q34" s="541"/>
-      <c r="R34" s="332"/>
-      <c r="S34" s="535"/>
-      <c r="T34" s="336"/>
-      <c r="U34" s="335"/>
-      <c r="V34" s="335"/>
-      <c r="W34" s="335"/>
-      <c r="X34" s="335"/>
-      <c r="Y34" s="463"/>
-      <c r="Z34" s="335"/>
-      <c r="AA34" s="335"/>
-      <c r="AB34" s="337"/>
-      <c r="AC34" s="420" t="s">
+      <c r="AB35" s="355"/>
+      <c r="AC35" s="362"/>
+      <c r="AD35" s="363"/>
+      <c r="AE35" s="363"/>
+    </row>
+    <row r="36" spans="1:31" s="338" customFormat="1" ht="12.75">
+      <c r="A36" s="331"/>
+      <c r="B36" s="526"/>
+      <c r="C36" s="331"/>
+      <c r="D36" s="331"/>
+      <c r="E36" s="332"/>
+      <c r="F36" s="332"/>
+      <c r="G36" s="332"/>
+      <c r="H36" s="518"/>
+      <c r="I36" s="332"/>
+      <c r="J36" s="332"/>
+      <c r="K36" s="334"/>
+      <c r="L36" s="440"/>
+      <c r="M36" s="335"/>
+      <c r="N36" s="406"/>
+      <c r="O36" s="332"/>
+      <c r="P36" s="332"/>
+      <c r="Q36" s="541"/>
+      <c r="R36" s="332"/>
+      <c r="S36" s="535"/>
+      <c r="T36" s="336"/>
+      <c r="U36" s="335"/>
+      <c r="V36" s="335"/>
+      <c r="W36" s="335"/>
+      <c r="X36" s="335"/>
+      <c r="Y36" s="463"/>
+      <c r="Z36" s="335"/>
+      <c r="AA36" s="335"/>
+      <c r="AB36" s="337"/>
+      <c r="AC36" s="420" t="s">
         <v>314</v>
       </c>
-      <c r="AD34" s="337"/>
-      <c r="AE34" s="337"/>
-    </row>
-    <row r="35" spans="1:31" ht="24.95" customHeight="1">
-      <c r="B35" s="527" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="341"/>
-      <c r="D35" s="341"/>
-      <c r="G35" s="387">
-        <f>G33</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="387">
-        <f>I33-G33</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="387">
-        <f>J33-H33</f>
-        <v>376006.02</v>
-      </c>
-      <c r="Z35" s="343">
-        <f>SUMIF(AB2:AB32,AB35,Z2:Z32)</f>
-        <v>16574.854953193753</v>
-      </c>
-      <c r="AA35" s="343">
-        <f>SUMIF(AB2:AB32,AB35,AA2:AA32)</f>
-        <v>14564.502790445973</v>
-      </c>
-      <c r="AB35" s="344" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC35" s="344"/>
-    </row>
-    <row r="36" spans="1:31" ht="24.95" customHeight="1">
-      <c r="B36" s="527" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="341"/>
-      <c r="D36" s="341"/>
-      <c r="G36" s="342">
-        <f>O33</f>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="343">
-        <f>SUMIF(AB2:AB32,AB36,Z2:Z32)</f>
-        <v>5470.6771876484763</v>
-      </c>
-      <c r="AA36" s="343">
-        <f>SUMIF(AB2:AB32,AB36,AA2:AA32)</f>
-        <v>4786.8025391924166</v>
-      </c>
-      <c r="AB36" s="344" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC36" s="344"/>
+      <c r="AD36" s="337"/>
+      <c r="AE36" s="337"/>
     </row>
     <row r="37" spans="1:31" ht="24.95" customHeight="1">
       <c r="B37" s="527" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="341"/>
       <c r="D37" s="341"/>
-      <c r="G37" s="342">
-        <f>G35-G36</f>
+      <c r="G37" s="387">
+        <f>G35</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="343" t="e">
-        <f>SUMIF(AB2:AB32,AB37,Z2:Z32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA37" s="343" t="e">
-        <f>SUMIF(AB2:AB32,AB37,AA2:AA32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB37" s="365" t="s">
-        <v>356</v>
+      <c r="I37" s="387">
+        <f>I35-G35</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="387">
+        <f>J35-H35</f>
+        <v>376006.02</v>
+      </c>
+      <c r="Z37" s="343">
+        <f>SUMIF(AB4:AB34,AB37,Z4:Z34)</f>
+        <v>16574.854953193753</v>
+      </c>
+      <c r="AA37" s="343">
+        <f>SUMIF(AB4:AB34,AB37,AA4:AA34)</f>
+        <v>14564.502790445973</v>
+      </c>
+      <c r="AB37" s="344" t="s">
+        <v>18</v>
       </c>
       <c r="AC37" s="344"/>
     </row>
     <row r="38" spans="1:31" ht="24.95" customHeight="1">
       <c r="B38" s="527" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="341"/>
+      <c r="D38" s="341"/>
+      <c r="G38" s="342">
+        <f>O35</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="343">
+        <f>SUMIF(AB4:AB34,AB38,Z4:Z34)</f>
+        <v>5470.6771876484763</v>
+      </c>
+      <c r="AA38" s="343">
+        <f>SUMIF(AB4:AB34,AB38,AA4:AA34)</f>
+        <v>4786.8025391924166</v>
+      </c>
+      <c r="AB38" s="344" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC38" s="344"/>
+    </row>
+    <row r="39" spans="1:31" ht="24.95" customHeight="1">
+      <c r="B39" s="527" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="341"/>
+      <c r="D39" s="341"/>
+      <c r="G39" s="342">
+        <f>G37-G38</f>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="343" t="e">
+        <f>SUMIF(AB4:AB34,AB39,Z4:Z34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA39" s="343" t="e">
+        <f>SUMIF(AB4:AB34,AB39,AA4:AA34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB39" s="365" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC39" s="344"/>
+    </row>
+    <row r="40" spans="1:31" ht="24.95" customHeight="1">
+      <c r="B40" s="527" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="345"/>
-      <c r="D38" s="345"/>
-      <c r="G38" s="346">
-        <f>M33+S33+T33</f>
+      <c r="C40" s="345"/>
+      <c r="D40" s="345"/>
+      <c r="G40" s="346">
+        <f>M35+S35+T35</f>
         <v>1758994.49</v>
       </c>
-      <c r="M38" s="225"/>
-      <c r="Z38" s="329" t="e">
-        <f>SUM(Z35:Z37)</f>
+      <c r="M40" s="225"/>
+      <c r="Z40" s="329" t="e">
+        <f>SUM(Z37:Z39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA38" s="329" t="e">
-        <f>SUM(AA35:AA37)</f>
+      <c r="AA40" s="329" t="e">
+        <f>SUM(AA37:AA39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB38" s="330" t="s">
+      <c r="AB40" s="330" t="s">
         <v>264</v>
       </c>
-      <c r="AC38" s="419"/>
-    </row>
-    <row r="39" spans="1:31">
-      <c r="B39" s="527" t="s">
+      <c r="AC40" s="419"/>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="B41" s="527" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="347"/>
-      <c r="D39" s="347"/>
-      <c r="G39" s="347" t="e">
-        <f>G38/G37*1.005</f>
+      <c r="C41" s="347"/>
+      <c r="D41" s="347"/>
+      <c r="G41" s="347" t="e">
+        <f>G40/G39*1.005</f>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="B41" s="528" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31">
-      <c r="B42" s="528" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:31">
       <c r="B43" s="528" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="B44" s="528" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="B45" s="528" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
-      <c r="B45" s="529"/>
-      <c r="C45" s="400" t="s">
+    <row r="47" spans="1:31">
+      <c r="B47" s="529"/>
+      <c r="C47" s="400" t="s">
         <v>297</v>
       </c>
-      <c r="D45" s="400" t="s">
+      <c r="D47" s="400" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
-      <c r="B46" s="530"/>
-      <c r="C46" s="400" t="s">
+    <row r="48" spans="1:31">
+      <c r="B48" s="530"/>
+      <c r="C48" s="400" t="s">
         <v>298</v>
       </c>
-      <c r="D46" s="400" t="s">
+      <c r="D48" s="400" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
-      <c r="B47" s="531"/>
-      <c r="C47" s="400" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="531"/>
+      <c r="C49" s="400" t="s">
         <v>299</v>
       </c>
-      <c r="D47" s="400" t="s">
+      <c r="D49" s="400" t="s">
         <v>299</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE39" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE39">
-      <sortCondition ref="H1:H39"/>
+  <autoFilter ref="A3:AE41" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AE41">
+      <sortCondition ref="H3:H41"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="V2:V3">
+  <conditionalFormatting sqref="V4:V5">
     <cfRule type="containsText" dxfId="41" priority="18" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("错误",V4)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="19" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22:V23 V20 V17:V18 V14:V15 V8:V9 V5:V6 V11:V12">
+  <conditionalFormatting sqref="V24:V25 V22 V19:V20 V16:V17 V10:V11 V7:V8 V13:V14">
     <cfRule type="containsText" dxfId="39" priority="16" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("错误",V7)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X32">
+  <conditionalFormatting sqref="X4:X34">
     <cfRule type="cellIs" dxfId="37" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10">
+  <conditionalFormatting sqref="V12">
     <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("错误",V12)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V26">
+  <conditionalFormatting sqref="V28">
     <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("错误",V28)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V31">
+  <conditionalFormatting sqref="V33">
     <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("错误",V33)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V25">
+  <conditionalFormatting sqref="V27">
     <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("错误",V27)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29">
+  <conditionalFormatting sqref="V31">
     <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("错误",V31)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"提醒"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V28">
+  <conditionalFormatting sqref="V30">
     <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="错误">
-      <formula>NOT(ISERROR(SEARCH("错误",V28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("错误",V30)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"提醒"</formula>
@@ -16436,7 +16701,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fYCKtaCQJjTawgta3j/6N/qJuOffBlqAuvNjuAcbJcgMFj1W5MJb6TcidGRAUB8n9hyFH9ub1yF27JIMo5LNPA==" saltValue="YlctmJ2gDH8ehRtJ2/yYkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B2:N56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="H7:H8"/>
@@ -18810,7 +19074,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cdWfyybpcXgf7p5AT2r5ieLQ2MC3B6ogpDa4xYiKxZCSFhR2Uhb9t7fCK2Po9Dw2IDWwthCk6XKCi8NrEaveUQ==" saltValue="jKAk8PQfsBwBFQ9HHPFR2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B39:C39"/>
@@ -20056,7 +20319,6 @@
     </row>
     <row r="60" spans="1:13" ht="24" customHeight="1"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KZ7g50soDcz8h2dsm8Z8ovGzO7e4rm18v85LxRr+td2m/rPeab06f8ihs42c3u7Ht1qsriYb6odWQYzfgASawg==" saltValue="IqsVxYXfrplaEgOBeSCLdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B29:C29"/>
@@ -22680,7 +22942,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k9bSImjySsDgFjiZs2me4ZDCWP5pU8MjoyVBBb+0BDOl8oqAM/8YNuZaNUHgZ4nafeAUvcku1J+yDWzRtt/4OQ==" saltValue="ltcZX+6gmace6icIksQLLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="B16:C16"/>
@@ -24861,7 +25122,6 @@
       <c r="G45" s="242"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DVHpr3phhC7ly6lg3BcOfRSQJgUWQL3ut+hEOaLorDxnufDTqs2+nEE8fyAV6yKmbPpEfndrSCJwww5Zhl8C4w==" saltValue="yTArEedFtt7KcbIFSqMsHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B5:Z33" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A33:C33"/>
@@ -28754,7 +29014,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DhAKofykSzyIOLNcBEQsoTd1nRYyYOZWDZiUPh9Wm8TnIzjffz5RLJho5L+RcLx+RFcP6vqKNmmt3i/ruo7Pzg==" saltValue="qPILTcEHS+4vG86Sfm+3OA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:Z55" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="Q3">
@@ -28797,10 +29056,10 @@
   <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -28812,8 +29071,8 @@
     <col min="5" max="5" width="12.85546875" style="308" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="225" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="308" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="339" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="441" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="339" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="441" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="308" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" style="407" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" style="308" customWidth="1"/>
@@ -28868,22 +29127,22 @@
         <v>253</v>
       </c>
       <c r="Q1" s="384" t="s">
-        <v>282</v>
+        <v>392</v>
       </c>
       <c r="R1" s="313" t="s">
         <v>226</v>
       </c>
       <c r="S1" s="313" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="T1" s="460" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="U1" s="313" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="V1" s="313" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="W1" s="314"/>
       <c r="X1" s="309"/>
@@ -31076,7 +31335,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tg4VGzLtheY2IIVb8G/pXrJEXNbX3pthT8sTGRWRQ0d114iAWwQLqaA0pyy5YIzbyfEMzy/ComA7KbcYnEq1kQ==" saltValue="3ZSMKCh/jQlO6vnzRVKGSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:Z40" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z40">
       <sortCondition ref="F2:F40"/>
